--- a/Parametros_Finales.xlsx
+++ b/Parametros_Finales.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pedroirarrazaval/Desktop/Modelo-Capstone/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48213EF4-9D8A-E64E-B6BE-75637381A060}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{458BCDC4-08A0-BF4C-9C27-C4302FABCC7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12460" yWindow="500" windowWidth="16340" windowHeight="17500" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12460" yWindow="500" windowWidth="16340" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Índices" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="114">
   <si>
     <t>Centrales</t>
   </si>
@@ -320,9 +320,6 @@
     <t>psi</t>
   </si>
   <si>
-    <t>MWh</t>
-  </si>
-  <si>
     <t>phi</t>
   </si>
   <si>
@@ -381,6 +378,18 @@
   </si>
   <si>
     <t>t</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>m3/s</t>
+  </si>
+  <si>
+    <t>V_MIN</t>
+  </si>
+  <si>
+    <t>GWh</t>
   </si>
 </sst>
 </file>
@@ -696,21 +705,6 @@
     <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -734,6 +728,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1280,14 +1289,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="39"/>
-      <c r="D1" s="36" t="s">
+      <c r="A1" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="45"/>
+      <c r="D1" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="37"/>
+      <c r="E1" s="47"/>
       <c r="F1" s="8"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -1347,10 +1356,10 @@
       <c r="B6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="36" t="s">
+      <c r="D6" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="37"/>
+      <c r="E6" s="47"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
@@ -1395,10 +1404,10 @@
       <c r="B10" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="36" t="s">
+      <c r="D10" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="37"/>
+      <c r="E10" s="47"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
@@ -1457,10 +1466,10 @@
       <c r="B15" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="36" t="s">
+      <c r="D15" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="37"/>
+      <c r="E15" s="47"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
@@ -1500,10 +1509,10 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="B19" s="38"/>
+      <c r="A19" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="B19" s="48"/>
       <c r="D19" s="6">
         <v>4</v>
       </c>
@@ -1536,7 +1545,7 @@
         <v>6</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -1554,10 +1563,10 @@
       <c r="B23" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="36" t="s">
-        <v>97</v>
-      </c>
-      <c r="E23" s="37"/>
+      <c r="D23" s="46" t="s">
+        <v>96</v>
+      </c>
+      <c r="E23" s="47"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="6">
@@ -2184,10 +2193,10 @@
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" s="38" t="s">
-        <v>102</v>
-      </c>
-      <c r="B69" s="38"/>
+      <c r="A69" s="48" t="s">
+        <v>101</v>
+      </c>
+      <c r="B69" s="48"/>
       <c r="D69" s="14">
         <v>46</v>
       </c>
@@ -2200,7 +2209,7 @@
         <v>1</v>
       </c>
       <c r="B70" s="32" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D70" s="14">
         <v>47</v>
@@ -2214,7 +2223,7 @@
         <v>2</v>
       </c>
       <c r="B71" s="32" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D71" s="14">
         <v>48</v>
@@ -2228,7 +2237,7 @@
         <v>3</v>
       </c>
       <c r="B72" s="32" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D72" s="14">
         <v>49</v>
@@ -2242,7 +2251,7 @@
         <v>4</v>
       </c>
       <c r="B73" s="32" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D73" s="14">
         <v>50</v>
@@ -2256,7 +2265,7 @@
         <v>5</v>
       </c>
       <c r="B74" s="32" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D74" s="14">
         <v>51</v>
@@ -2483,14 +2492,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="D10:E10"/>
     <mergeCell ref="A69:B69"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="D6:E6"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="D10:E10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2500,7 +2509,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC4D74B6-4A46-4CB3-9332-532A38679EE3}">
   <dimension ref="A1:B49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
@@ -2508,10 +2517,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="29" t="s">
         <v>92</v>
-      </c>
-      <c r="B1" s="29" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -2905,10 +2914,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AB113F6-B42D-7F43-8024-ED9A3F5718C9}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2920,19 +2929,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="37"/>
-      <c r="E1" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="F1" s="39"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="47"/>
+      <c r="E1" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="F1" s="45"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B2" s="6">
         <v>4800</v>
@@ -2949,7 +2958,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B3" s="6">
         <v>5000</v>
@@ -2966,10 +2975,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>28</v>
+        <v>112</v>
       </c>
       <c r="B4" s="6">
-        <v>5582</v>
+        <v>1400</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>27</v>
@@ -2983,12 +2992,14 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>99</v>
+        <v>28</v>
       </c>
       <c r="B5" s="6">
-        <v>4</v>
-      </c>
-      <c r="C5" s="6"/>
+        <v>5582</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="E5" s="6">
         <v>4</v>
       </c>
@@ -2998,35 +3009,55 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B6" s="6">
-        <v>1</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>101</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="C6" s="6"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="B7" s="6">
-        <v>1000000000</v>
+        <v>1</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B8" s="6">
-        <v>1000000000</v>
+        <v>1000</v>
       </c>
       <c r="C8" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
         <v>90</v>
+      </c>
+      <c r="B9" s="6">
+        <v>1000</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B10" s="6">
+        <v>1000</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -5475,14 +5506,14 @@
   <dimension ref="A1:AX32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+      <selection activeCell="A8" sqref="A3:A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A1" s="31" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B1" s="31" t="s">
         <v>34</v>
@@ -5634,7 +5665,7 @@
     </row>
     <row r="2" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A2" s="31" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B2" s="31" t="s">
         <v>83</v>
@@ -8521,10 +8552,10 @@
       </c>
     </row>
     <row r="21" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A21" s="41">
+      <c r="A21" s="36">
         <v>4</v>
       </c>
-      <c r="B21" s="42" t="s">
+      <c r="B21" s="37" t="s">
         <v>2</v>
       </c>
       <c r="C21" s="34">
@@ -8673,770 +8704,770 @@
       </c>
     </row>
     <row r="22" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A22" s="43">
+      <c r="A22" s="38">
         <v>4</v>
       </c>
-      <c r="B22" s="44" t="s">
+      <c r="B22" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="45">
+      <c r="C22" s="40">
         <v>0.30380000000000001</v>
       </c>
-      <c r="D22" s="45">
+      <c r="D22" s="40">
         <v>0.33550000000000002</v>
       </c>
-      <c r="E22" s="45">
+      <c r="E22" s="40">
         <v>0.33329999999999999</v>
       </c>
-      <c r="F22" s="45">
+      <c r="F22" s="40">
         <v>0.57740000000000002</v>
       </c>
-      <c r="G22" s="45">
+      <c r="G22" s="40">
         <v>1.2271000000000001</v>
       </c>
-      <c r="H22" s="45">
+      <c r="H22" s="40">
         <v>0.99550000000000005</v>
       </c>
-      <c r="I22" s="45">
+      <c r="I22" s="40">
         <v>1.2551000000000001</v>
       </c>
-      <c r="J22" s="45">
+      <c r="J22" s="40">
         <v>3.5543999999999998</v>
       </c>
-      <c r="K22" s="45">
+      <c r="K22" s="40">
         <v>6.2462</v>
       </c>
-      <c r="L22" s="45">
+      <c r="L22" s="40">
         <v>8.4306999999999999</v>
       </c>
-      <c r="M22" s="45">
+      <c r="M22" s="40">
         <v>3.9758</v>
       </c>
-      <c r="N22" s="45">
+      <c r="N22" s="40">
         <v>46.954700000000003</v>
       </c>
-      <c r="O22" s="45">
+      <c r="O22" s="40">
         <v>15.176</v>
       </c>
-      <c r="P22" s="45">
+      <c r="P22" s="40">
         <v>10.0284</v>
       </c>
-      <c r="Q22" s="45">
+      <c r="Q22" s="40">
         <v>9.2880000000000003</v>
       </c>
-      <c r="R22" s="45">
+      <c r="R22" s="40">
         <v>9.8729999999999993</v>
       </c>
-      <c r="S22" s="45">
+      <c r="S22" s="40">
         <v>8.5383999999999993</v>
       </c>
-      <c r="T22" s="45">
+      <c r="T22" s="40">
         <v>7.0475000000000003</v>
       </c>
-      <c r="U22" s="45">
+      <c r="U22" s="40">
         <v>28.213899999999999</v>
       </c>
-      <c r="V22" s="45">
+      <c r="V22" s="40">
         <v>16.5334</v>
       </c>
-      <c r="W22" s="45">
+      <c r="W22" s="40">
         <v>9.8302999999999994</v>
       </c>
-      <c r="X22" s="45">
+      <c r="X22" s="40">
         <v>9.7766999999999999</v>
       </c>
-      <c r="Y22" s="45">
+      <c r="Y22" s="40">
         <v>9.7760999999999996</v>
       </c>
-      <c r="Z22" s="45">
+      <c r="Z22" s="40">
         <v>5.6445999999999996</v>
       </c>
-      <c r="AA22" s="45">
+      <c r="AA22" s="40">
         <v>4.9169999999999998</v>
       </c>
-      <c r="AB22" s="45">
+      <c r="AB22" s="40">
         <v>4.3285</v>
       </c>
-      <c r="AC22" s="45">
+      <c r="AC22" s="40">
         <v>6.1745000000000001</v>
       </c>
-      <c r="AD22" s="45">
+      <c r="AD22" s="40">
         <v>7.7904999999999998</v>
       </c>
-      <c r="AE22" s="45">
+      <c r="AE22" s="40">
         <v>6.7957000000000001</v>
       </c>
-      <c r="AF22" s="45">
+      <c r="AF22" s="40">
         <v>7.8418999999999999</v>
       </c>
-      <c r="AG22" s="45">
+      <c r="AG22" s="40">
         <v>8.4492999999999991</v>
       </c>
-      <c r="AH22" s="45">
+      <c r="AH22" s="40">
         <v>9.7650000000000006</v>
       </c>
-      <c r="AI22" s="45">
+      <c r="AI22" s="40">
         <v>6.3874000000000004</v>
       </c>
-      <c r="AJ22" s="45">
+      <c r="AJ22" s="40">
         <v>5.8741000000000003</v>
       </c>
-      <c r="AK22" s="45">
+      <c r="AK22" s="40">
         <v>4.6536999999999997</v>
       </c>
-      <c r="AL22" s="45">
+      <c r="AL22" s="40">
         <v>4.0388999999999999</v>
       </c>
-      <c r="AM22" s="45">
+      <c r="AM22" s="40">
         <v>2.8151000000000002</v>
       </c>
-      <c r="AN22" s="45">
+      <c r="AN22" s="40">
         <v>3.7141000000000002</v>
       </c>
-      <c r="AO22" s="45">
+      <c r="AO22" s="40">
         <v>4.0777000000000001</v>
       </c>
-      <c r="AP22" s="45">
+      <c r="AP22" s="40">
         <v>4.4039999999999999</v>
       </c>
-      <c r="AQ22" s="45">
+      <c r="AQ22" s="40">
         <v>3.7584</v>
       </c>
-      <c r="AR22" s="45">
+      <c r="AR22" s="40">
         <v>4.1703999999999999</v>
       </c>
-      <c r="AS22" s="45">
+      <c r="AS22" s="40">
         <v>3.5545</v>
       </c>
-      <c r="AT22" s="45">
+      <c r="AT22" s="40">
         <v>3.5249999999999999</v>
       </c>
-      <c r="AU22" s="45">
+      <c r="AU22" s="40">
         <v>2.6757</v>
       </c>
-      <c r="AV22" s="45">
+      <c r="AV22" s="40">
         <v>2.6162999999999998</v>
       </c>
-      <c r="AW22" s="45">
+      <c r="AW22" s="40">
         <v>1.7538</v>
       </c>
-      <c r="AX22" s="45">
+      <c r="AX22" s="40">
         <v>1.9450000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A23" s="43">
+      <c r="A23" s="38">
         <v>4</v>
       </c>
-      <c r="B23" s="44" t="s">
+      <c r="B23" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="45">
+      <c r="C23" s="40">
         <v>7.9802999999999997</v>
       </c>
-      <c r="D23" s="45">
+      <c r="D23" s="40">
         <v>7.6040999999999999</v>
       </c>
-      <c r="E23" s="45">
+      <c r="E23" s="40">
         <v>7.5530999999999997</v>
       </c>
-      <c r="F23" s="45">
+      <c r="F23" s="40">
         <v>13.176500000000001</v>
       </c>
-      <c r="G23" s="45">
+      <c r="G23" s="40">
         <v>12.1896</v>
       </c>
-      <c r="H23" s="45">
+      <c r="H23" s="40">
         <v>9.8892000000000007</v>
       </c>
-      <c r="I23" s="45">
+      <c r="I23" s="40">
         <v>12.4674</v>
       </c>
-      <c r="J23" s="45">
+      <c r="J23" s="40">
         <v>35.308199999999999</v>
       </c>
-      <c r="K23" s="45">
+      <c r="K23" s="40">
         <v>62.047699999999999</v>
       </c>
-      <c r="L23" s="45">
+      <c r="L23" s="40">
         <v>83.747799999999998</v>
       </c>
-      <c r="M23" s="45">
+      <c r="M23" s="40">
         <v>39.494199999999999</v>
       </c>
-      <c r="N23" s="45">
+      <c r="N23" s="40">
         <v>466.43060000000003</v>
       </c>
-      <c r="O23" s="45">
+      <c r="O23" s="40">
         <v>150.7527</v>
       </c>
-      <c r="P23" s="45">
+      <c r="P23" s="40">
         <v>99.618600000000001</v>
       </c>
-      <c r="Q23" s="45">
+      <c r="Q23" s="40">
         <v>92.263400000000004</v>
       </c>
-      <c r="R23" s="45">
+      <c r="R23" s="40">
         <v>98.0745</v>
       </c>
-      <c r="S23" s="45">
+      <c r="S23" s="40">
         <v>84.816999999999993</v>
       </c>
-      <c r="T23" s="45">
+      <c r="T23" s="40">
         <v>70.007300000000001</v>
       </c>
-      <c r="U23" s="45">
+      <c r="U23" s="40">
         <v>280.26679999999999</v>
       </c>
-      <c r="V23" s="45">
+      <c r="V23" s="40">
         <v>164.23670000000001</v>
       </c>
-      <c r="W23" s="45">
+      <c r="W23" s="40">
         <v>131.8903</v>
       </c>
-      <c r="X23" s="45">
+      <c r="X23" s="40">
         <v>186.15350000000001</v>
       </c>
-      <c r="Y23" s="45">
+      <c r="Y23" s="40">
         <v>186.14359999999999</v>
       </c>
-      <c r="Z23" s="45">
+      <c r="Z23" s="40">
         <v>112.143</v>
       </c>
-      <c r="AA23" s="45">
+      <c r="AA23" s="40">
         <v>95.753799999999998</v>
       </c>
-      <c r="AB23" s="45">
+      <c r="AB23" s="40">
         <v>84.281400000000005</v>
       </c>
-      <c r="AC23" s="45">
+      <c r="AC23" s="40">
         <v>90.786000000000001</v>
       </c>
-      <c r="AD23" s="45">
+      <c r="AD23" s="40">
         <v>104.1803</v>
       </c>
-      <c r="AE23" s="45">
+      <c r="AE23" s="40">
         <v>102.56100000000001</v>
       </c>
-      <c r="AF23" s="45">
+      <c r="AF23" s="40">
         <v>105.1374</v>
       </c>
-      <c r="AG23" s="45">
+      <c r="AG23" s="40">
         <v>115.3991</v>
       </c>
-      <c r="AH23" s="45">
+      <c r="AH23" s="40">
         <v>133.2433</v>
       </c>
-      <c r="AI23" s="45">
+      <c r="AI23" s="40">
         <v>112.6189</v>
       </c>
-      <c r="AJ23" s="45">
+      <c r="AJ23" s="40">
         <v>94.846800000000002</v>
       </c>
-      <c r="AK23" s="45">
+      <c r="AK23" s="40">
         <v>74.649699999999996</v>
       </c>
-      <c r="AL23" s="45">
+      <c r="AL23" s="40">
         <v>63.080500000000001</v>
       </c>
-      <c r="AM23" s="45">
+      <c r="AM23" s="40">
         <v>49.628599999999999</v>
       </c>
-      <c r="AN23" s="45">
+      <c r="AN23" s="40">
         <v>42.404299999999999</v>
       </c>
-      <c r="AO23" s="45">
+      <c r="AO23" s="40">
         <v>37.862099999999998</v>
       </c>
-      <c r="AP23" s="45">
+      <c r="AP23" s="40">
         <v>32.775399999999998</v>
       </c>
-      <c r="AQ23" s="45">
+      <c r="AQ23" s="40">
         <v>29.386700000000001</v>
       </c>
-      <c r="AR23" s="45">
+      <c r="AR23" s="40">
         <v>27.220500000000001</v>
       </c>
-      <c r="AS23" s="45">
+      <c r="AS23" s="40">
         <v>25.061699999999998</v>
       </c>
-      <c r="AT23" s="45">
+      <c r="AT23" s="40">
         <v>22.666399999999999</v>
       </c>
-      <c r="AU23" s="45">
+      <c r="AU23" s="40">
         <v>19.9833</v>
       </c>
-      <c r="AV23" s="45">
+      <c r="AV23" s="40">
         <v>18.886299999999999</v>
       </c>
-      <c r="AW23" s="45">
+      <c r="AW23" s="40">
         <v>19.750699999999998</v>
       </c>
-      <c r="AX23" s="45">
+      <c r="AX23" s="40">
         <v>18.032399999999999</v>
       </c>
     </row>
     <row r="24" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A24" s="43">
+      <c r="A24" s="38">
         <v>4</v>
       </c>
-      <c r="B24" s="44" t="s">
+      <c r="B24" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="45">
+      <c r="C24" s="40">
         <v>24.087800000000001</v>
       </c>
-      <c r="D24" s="45">
+      <c r="D24" s="40">
         <v>24.008700000000001</v>
       </c>
-      <c r="E24" s="45">
+      <c r="E24" s="40">
         <v>19.410900000000002</v>
       </c>
-      <c r="F24" s="45">
+      <c r="F24" s="40">
         <v>20.5943</v>
       </c>
-      <c r="G24" s="45">
+      <c r="G24" s="40">
         <v>18.503900000000002</v>
       </c>
-      <c r="H24" s="45">
+      <c r="H24" s="40">
         <v>15.536300000000001</v>
       </c>
-      <c r="I24" s="45">
+      <c r="I24" s="40">
         <v>29.118099999999998</v>
       </c>
-      <c r="J24" s="45">
+      <c r="J24" s="40">
         <v>49.311399999999999</v>
       </c>
-      <c r="K24" s="45">
+      <c r="K24" s="40">
         <v>57.905799999999999</v>
       </c>
-      <c r="L24" s="45">
+      <c r="L24" s="40">
         <v>95.133099999999999</v>
       </c>
-      <c r="M24" s="45">
+      <c r="M24" s="40">
         <v>20.4483</v>
       </c>
-      <c r="N24" s="45">
+      <c r="N24" s="40">
         <v>311.5539</v>
       </c>
-      <c r="O24" s="45">
+      <c r="O24" s="40">
         <v>69.771000000000001</v>
       </c>
-      <c r="P24" s="45">
+      <c r="P24" s="40">
         <v>11.9916</v>
       </c>
-      <c r="Q24" s="45">
+      <c r="Q24" s="40">
         <v>29.9984</v>
       </c>
-      <c r="R24" s="45">
+      <c r="R24" s="40">
         <v>105.80710000000001</v>
       </c>
-      <c r="S24" s="45">
+      <c r="S24" s="40">
         <v>75.442899999999995</v>
       </c>
-      <c r="T24" s="45">
+      <c r="T24" s="40">
         <v>56.216500000000003</v>
       </c>
-      <c r="U24" s="45">
+      <c r="U24" s="40">
         <v>260.79180000000002</v>
       </c>
-      <c r="V24" s="45">
+      <c r="V24" s="40">
         <v>95.894900000000007</v>
       </c>
-      <c r="W24" s="45">
+      <c r="W24" s="40">
         <v>58.996899999999997</v>
       </c>
-      <c r="X24" s="45">
+      <c r="X24" s="40">
         <v>121.681</v>
       </c>
-      <c r="Y24" s="45">
+      <c r="Y24" s="40">
         <v>165.72890000000001</v>
       </c>
-      <c r="Z24" s="45">
+      <c r="Z24" s="40">
         <v>44.283200000000001</v>
       </c>
-      <c r="AA24" s="45">
+      <c r="AA24" s="40">
         <v>23.104800000000001</v>
       </c>
-      <c r="AB24" s="45">
-        <v>0</v>
-      </c>
-      <c r="AC24" s="45">
-        <v>0</v>
-      </c>
-      <c r="AD24" s="45">
-        <v>0</v>
-      </c>
-      <c r="AE24" s="45">
-        <v>0</v>
-      </c>
-      <c r="AF24" s="45">
-        <v>0</v>
-      </c>
-      <c r="AG24" s="45">
-        <v>0</v>
-      </c>
-      <c r="AH24" s="45">
-        <v>0</v>
-      </c>
-      <c r="AI24" s="45">
-        <v>0</v>
-      </c>
-      <c r="AJ24" s="45">
-        <v>0</v>
-      </c>
-      <c r="AK24" s="45">
-        <v>0</v>
-      </c>
-      <c r="AL24" s="45">
-        <v>0</v>
-      </c>
-      <c r="AM24" s="45">
+      <c r="AB24" s="40">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="40">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="40">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="40">
+        <v>0</v>
+      </c>
+      <c r="AF24" s="40">
+        <v>0</v>
+      </c>
+      <c r="AG24" s="40">
+        <v>0</v>
+      </c>
+      <c r="AH24" s="40">
+        <v>0</v>
+      </c>
+      <c r="AI24" s="40">
+        <v>0</v>
+      </c>
+      <c r="AJ24" s="40">
+        <v>0</v>
+      </c>
+      <c r="AK24" s="40">
+        <v>0</v>
+      </c>
+      <c r="AL24" s="40">
+        <v>0</v>
+      </c>
+      <c r="AM24" s="40">
         <v>7.7525000000000004</v>
       </c>
-      <c r="AN24" s="45">
+      <c r="AN24" s="40">
         <v>17.4922</v>
       </c>
-      <c r="AO24" s="45">
+      <c r="AO24" s="40">
         <v>20.453900000000001</v>
       </c>
-      <c r="AP24" s="45">
+      <c r="AP24" s="40">
         <v>22.773800000000001</v>
       </c>
-      <c r="AQ24" s="45">
+      <c r="AQ24" s="40">
         <v>23.786100000000001</v>
       </c>
-      <c r="AR24" s="45">
+      <c r="AR24" s="40">
         <v>24.974699999999999</v>
       </c>
-      <c r="AS24" s="45">
+      <c r="AS24" s="40">
         <v>24.350899999999999</v>
       </c>
-      <c r="AT24" s="45">
+      <c r="AT24" s="40">
         <v>29.445900000000002</v>
       </c>
-      <c r="AU24" s="45">
+      <c r="AU24" s="40">
         <v>31.3566</v>
       </c>
-      <c r="AV24" s="45">
+      <c r="AV24" s="40">
         <v>26.920400000000001</v>
       </c>
-      <c r="AW24" s="45">
+      <c r="AW24" s="40">
         <v>29.0212</v>
       </c>
-      <c r="AX24" s="45">
+      <c r="AX24" s="40">
         <v>28.322500000000002</v>
       </c>
     </row>
     <row r="25" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A25" s="43">
+      <c r="A25" s="38">
         <v>4</v>
       </c>
-      <c r="B25" s="44" t="s">
+      <c r="B25" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="45">
+      <c r="C25" s="40">
         <v>1.5586</v>
       </c>
-      <c r="D25" s="45">
+      <c r="D25" s="40">
         <v>1.5488</v>
       </c>
-      <c r="E25" s="45">
+      <c r="E25" s="40">
         <v>1.5414000000000001</v>
       </c>
-      <c r="F25" s="45">
+      <c r="F25" s="40">
         <v>3.1949999999999998</v>
       </c>
-      <c r="G25" s="45">
+      <c r="G25" s="40">
         <v>2.9529000000000001</v>
       </c>
-      <c r="H25" s="45">
+      <c r="H25" s="40">
         <v>2.1137999999999999</v>
       </c>
-      <c r="I25" s="45">
+      <c r="I25" s="40">
         <v>3.9763000000000002</v>
       </c>
-      <c r="J25" s="45">
+      <c r="J25" s="40">
         <v>9.8012999999999995</v>
       </c>
-      <c r="K25" s="45">
+      <c r="K25" s="40">
         <v>13.5871</v>
       </c>
-      <c r="L25" s="45">
+      <c r="L25" s="40">
         <v>13.8225</v>
       </c>
-      <c r="M25" s="45">
+      <c r="M25" s="40">
         <v>6.8529</v>
       </c>
-      <c r="N25" s="45">
+      <c r="N25" s="40">
         <v>75.618799999999993</v>
       </c>
-      <c r="O25" s="45">
+      <c r="O25" s="40">
         <v>35.4343</v>
       </c>
-      <c r="P25" s="45">
+      <c r="P25" s="40">
         <v>13.2988</v>
       </c>
-      <c r="Q25" s="45">
+      <c r="Q25" s="40">
         <v>20.038799999999998</v>
       </c>
-      <c r="R25" s="45">
+      <c r="R25" s="40">
         <v>41.256300000000003</v>
       </c>
-      <c r="S25" s="45">
+      <c r="S25" s="40">
         <v>31.737100000000002</v>
       </c>
-      <c r="T25" s="45">
+      <c r="T25" s="40">
         <v>25.15</v>
       </c>
-      <c r="U25" s="45">
+      <c r="U25" s="40">
         <v>130.7938</v>
       </c>
-      <c r="V25" s="45">
+      <c r="V25" s="40">
         <v>67.722499999999997</v>
       </c>
-      <c r="W25" s="45">
+      <c r="W25" s="40">
         <v>51.3643</v>
       </c>
-      <c r="X25" s="45">
+      <c r="X25" s="40">
         <v>80.007499999999993</v>
       </c>
-      <c r="Y25" s="45">
+      <c r="Y25" s="40">
         <v>85.581400000000002</v>
       </c>
-      <c r="Z25" s="45">
+      <c r="Z25" s="40">
         <v>42.351300000000002</v>
       </c>
-      <c r="AA25" s="45">
+      <c r="AA25" s="40">
         <v>33.397100000000002</v>
       </c>
-      <c r="AB25" s="45">
+      <c r="AB25" s="40">
         <v>25.975000000000001</v>
       </c>
-      <c r="AC25" s="45">
+      <c r="AC25" s="40">
         <v>25.9513</v>
       </c>
-      <c r="AD25" s="45">
+      <c r="AD25" s="40">
         <v>31.504999999999999</v>
       </c>
-      <c r="AE25" s="45">
+      <c r="AE25" s="40">
         <v>30.1129</v>
       </c>
-      <c r="AF25" s="45">
+      <c r="AF25" s="40">
         <v>31.4588</v>
       </c>
-      <c r="AG25" s="45">
+      <c r="AG25" s="40">
         <v>35.185699999999997</v>
       </c>
-      <c r="AH25" s="45">
+      <c r="AH25" s="40">
         <v>35.352499999999999</v>
       </c>
-      <c r="AI25" s="45">
+      <c r="AI25" s="40">
         <v>30.222899999999999</v>
       </c>
-      <c r="AJ25" s="45">
+      <c r="AJ25" s="40">
         <v>26.004999999999999</v>
       </c>
-      <c r="AK25" s="45">
+      <c r="AK25" s="40">
         <v>21.0075</v>
       </c>
-      <c r="AL25" s="45">
+      <c r="AL25" s="40">
         <v>17.5288</v>
       </c>
-      <c r="AM25" s="45">
+      <c r="AM25" s="40">
         <v>14.154299999999999</v>
       </c>
-      <c r="AN25" s="45">
+      <c r="AN25" s="40">
         <v>13.016299999999999</v>
       </c>
-      <c r="AO25" s="45">
+      <c r="AO25" s="40">
         <v>11.946300000000001</v>
       </c>
-      <c r="AP25" s="45">
+      <c r="AP25" s="40">
         <v>10.3688</v>
       </c>
-      <c r="AQ25" s="45">
+      <c r="AQ25" s="40">
         <v>9.1670999999999996</v>
       </c>
-      <c r="AR25" s="45">
+      <c r="AR25" s="40">
         <v>8.6670999999999996</v>
       </c>
-      <c r="AS25" s="45">
+      <c r="AS25" s="40">
         <v>7.7385999999999999</v>
       </c>
-      <c r="AT25" s="45">
+      <c r="AT25" s="40">
         <v>7.1688000000000001</v>
       </c>
-      <c r="AU25" s="45">
+      <c r="AU25" s="40">
         <v>6.4470999999999998</v>
       </c>
-      <c r="AV25" s="45">
+      <c r="AV25" s="40">
         <v>5.8550000000000004</v>
       </c>
-      <c r="AW25" s="45">
+      <c r="AW25" s="40">
         <v>6.1375000000000002</v>
       </c>
-      <c r="AX25" s="45">
+      <c r="AX25" s="40">
         <v>5.4462999999999999</v>
       </c>
     </row>
     <row r="26" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A26" s="43">
+      <c r="A26" s="38">
         <v>4</v>
       </c>
-      <c r="B26" s="44" t="s">
+      <c r="B26" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="C26" s="45">
-        <v>0</v>
-      </c>
-      <c r="D26" s="45">
+      <c r="C26" s="40">
+        <v>0</v>
+      </c>
+      <c r="D26" s="40">
         <v>0.41439999999999999</v>
       </c>
-      <c r="E26" s="45">
-        <v>0</v>
-      </c>
-      <c r="F26" s="45">
+      <c r="E26" s="40">
+        <v>0</v>
+      </c>
+      <c r="F26" s="40">
         <v>4.2305000000000001</v>
       </c>
-      <c r="G26" s="45">
+      <c r="G26" s="40">
         <v>22.868300000000001</v>
       </c>
-      <c r="H26" s="45">
+      <c r="H26" s="40">
         <v>11.2712</v>
       </c>
-      <c r="I26" s="45">
+      <c r="I26" s="40">
         <v>14.9282</v>
       </c>
-      <c r="J26" s="45">
+      <c r="J26" s="40">
         <v>42.6873</v>
       </c>
-      <c r="K26" s="45">
+      <c r="K26" s="40">
         <v>60.828899999999997</v>
       </c>
-      <c r="L26" s="45">
+      <c r="L26" s="40">
         <v>84.741100000000003</v>
       </c>
-      <c r="M26" s="45">
+      <c r="M26" s="40">
         <v>20.628799999999998</v>
       </c>
-      <c r="N26" s="45">
+      <c r="N26" s="40">
         <v>313.75189999999998</v>
       </c>
-      <c r="O26" s="45">
+      <c r="O26" s="40">
         <v>129.73660000000001</v>
       </c>
-      <c r="P26" s="45">
+      <c r="P26" s="40">
         <v>103.4714</v>
       </c>
-      <c r="Q26" s="45">
+      <c r="Q26" s="40">
         <v>96.967500000000001</v>
       </c>
-      <c r="R26" s="45">
+      <c r="R26" s="40">
         <v>94.388800000000003</v>
       </c>
-      <c r="S26" s="45">
+      <c r="S26" s="40">
         <v>66.02</v>
       </c>
-      <c r="T26" s="45">
+      <c r="T26" s="40">
         <v>53.8825</v>
       </c>
-      <c r="U26" s="45">
+      <c r="U26" s="40">
         <v>103.8313</v>
       </c>
-      <c r="V26" s="45">
+      <c r="V26" s="40">
         <v>147.11500000000001</v>
       </c>
-      <c r="W26" s="45">
+      <c r="W26" s="40">
         <v>129.2629</v>
       </c>
-      <c r="X26" s="45">
+      <c r="X26" s="40">
         <v>126.9688</v>
       </c>
-      <c r="Y26" s="45">
+      <c r="Y26" s="40">
         <v>125.6914</v>
       </c>
-      <c r="Z26" s="45">
+      <c r="Z26" s="40">
         <v>104.75749999999999</v>
       </c>
-      <c r="AA26" s="45">
+      <c r="AA26" s="40">
         <v>68.404300000000006</v>
       </c>
-      <c r="AB26" s="45">
+      <c r="AB26" s="40">
         <v>38.643799999999999</v>
       </c>
-      <c r="AC26" s="45">
+      <c r="AC26" s="40">
         <v>20.801300000000001</v>
       </c>
-      <c r="AD26" s="45">
+      <c r="AD26" s="40">
         <v>26.664999999999999</v>
       </c>
-      <c r="AE26" s="45">
+      <c r="AE26" s="40">
         <v>10.6557</v>
       </c>
-      <c r="AF26" s="45">
+      <c r="AF26" s="40">
         <v>13.8263</v>
       </c>
-      <c r="AG26" s="45">
+      <c r="AG26" s="40">
         <v>35.278599999999997</v>
       </c>
-      <c r="AH26" s="45">
+      <c r="AH26" s="40">
         <v>1.61E-2</v>
       </c>
-      <c r="AI26" s="45">
+      <c r="AI26" s="40">
         <v>1.61E-2</v>
       </c>
-      <c r="AJ26" s="45">
+      <c r="AJ26" s="40">
         <v>1.61E-2</v>
       </c>
-      <c r="AK26" s="45">
+      <c r="AK26" s="40">
         <v>1.61E-2</v>
       </c>
-      <c r="AL26" s="45">
+      <c r="AL26" s="40">
         <v>1.61E-2</v>
       </c>
-      <c r="AM26" s="45">
+      <c r="AM26" s="40">
         <v>1.61E-2</v>
       </c>
-      <c r="AN26" s="45">
+      <c r="AN26" s="40">
         <v>1.61E-2</v>
       </c>
-      <c r="AO26" s="45">
+      <c r="AO26" s="40">
         <v>1.61E-2</v>
       </c>
-      <c r="AP26" s="45">
+      <c r="AP26" s="40">
         <v>1.0161</v>
       </c>
-      <c r="AQ26" s="45">
+      <c r="AQ26" s="40">
         <v>2.0160999999999998</v>
       </c>
-      <c r="AR26" s="45">
+      <c r="AR26" s="40">
         <v>3.0160999999999998</v>
       </c>
-      <c r="AS26" s="45">
+      <c r="AS26" s="40">
         <v>4.0160999999999998</v>
       </c>
-      <c r="AT26" s="45">
-        <v>0</v>
-      </c>
-      <c r="AU26" s="45">
-        <v>0</v>
-      </c>
-      <c r="AV26" s="45">
-        <v>0</v>
-      </c>
-      <c r="AW26" s="45">
-        <v>0</v>
-      </c>
-      <c r="AX26" s="45">
+      <c r="AT26" s="40">
+        <v>0</v>
+      </c>
+      <c r="AU26" s="40">
+        <v>0</v>
+      </c>
+      <c r="AV26" s="40">
+        <v>0</v>
+      </c>
+      <c r="AW26" s="40">
+        <v>0</v>
+      </c>
+      <c r="AX26" s="40">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A27" s="41">
+      <c r="A27" s="36">
         <v>5</v>
       </c>
-      <c r="B27" s="42" t="s">
+      <c r="B27" s="37" t="s">
         <v>2</v>
       </c>
       <c r="C27" s="34">
@@ -9585,762 +9616,762 @@
       </c>
     </row>
     <row r="28" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A28" s="43">
+      <c r="A28" s="38">
         <v>5</v>
       </c>
-      <c r="B28" s="44" t="s">
+      <c r="B28" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="C28" s="45">
+      <c r="C28" s="40">
         <v>0.30380000000000001</v>
       </c>
-      <c r="D28" s="45">
+      <c r="D28" s="40">
         <v>0.33550000000000002</v>
       </c>
-      <c r="E28" s="45">
+      <c r="E28" s="40">
         <v>0.33329999999999999</v>
       </c>
-      <c r="F28" s="45">
+      <c r="F28" s="40">
         <v>0.57740000000000002</v>
       </c>
-      <c r="G28" s="45">
+      <c r="G28" s="40">
         <v>1.2271000000000001</v>
       </c>
-      <c r="H28" s="45">
+      <c r="H28" s="40">
         <v>0.99550000000000005</v>
       </c>
-      <c r="I28" s="45">
+      <c r="I28" s="40">
         <v>1.2551000000000001</v>
       </c>
-      <c r="J28" s="45">
+      <c r="J28" s="40">
         <v>3.5543999999999998</v>
       </c>
-      <c r="K28" s="45">
+      <c r="K28" s="40">
         <v>6.2462</v>
       </c>
-      <c r="L28" s="45">
+      <c r="L28" s="40">
         <v>8.4306999999999999</v>
       </c>
-      <c r="M28" s="45">
+      <c r="M28" s="40">
         <v>3.9758</v>
       </c>
-      <c r="N28" s="45">
+      <c r="N28" s="40">
         <v>46.954700000000003</v>
       </c>
-      <c r="O28" s="45">
+      <c r="O28" s="40">
         <v>15.176</v>
       </c>
-      <c r="P28" s="45">
+      <c r="P28" s="40">
         <v>10.0284</v>
       </c>
-      <c r="Q28" s="45">
+      <c r="Q28" s="40">
         <v>9.2880000000000003</v>
       </c>
-      <c r="R28" s="45">
+      <c r="R28" s="40">
         <v>9.8729999999999993</v>
       </c>
-      <c r="S28" s="45">
+      <c r="S28" s="40">
         <v>8.5383999999999993</v>
       </c>
-      <c r="T28" s="45">
+      <c r="T28" s="40">
         <v>7.0475000000000003</v>
       </c>
-      <c r="U28" s="45">
+      <c r="U28" s="40">
         <v>28.213899999999999</v>
       </c>
-      <c r="V28" s="45">
+      <c r="V28" s="40">
         <v>16.5334</v>
       </c>
-      <c r="W28" s="45">
+      <c r="W28" s="40">
         <v>9.8302999999999994</v>
       </c>
-      <c r="X28" s="45">
+      <c r="X28" s="40">
         <v>9.7766999999999999</v>
       </c>
-      <c r="Y28" s="45">
+      <c r="Y28" s="40">
         <v>9.7760999999999996</v>
       </c>
-      <c r="Z28" s="45">
+      <c r="Z28" s="40">
         <v>5.6445999999999996</v>
       </c>
-      <c r="AA28" s="45">
+      <c r="AA28" s="40">
         <v>4.9169999999999998</v>
       </c>
-      <c r="AB28" s="45">
+      <c r="AB28" s="40">
         <v>4.3285</v>
       </c>
-      <c r="AC28" s="45">
+      <c r="AC28" s="40">
         <v>6.1745000000000001</v>
       </c>
-      <c r="AD28" s="45">
+      <c r="AD28" s="40">
         <v>7.7904999999999998</v>
       </c>
-      <c r="AE28" s="45">
+      <c r="AE28" s="40">
         <v>6.7957000000000001</v>
       </c>
-      <c r="AF28" s="45">
+      <c r="AF28" s="40">
         <v>7.8418999999999999</v>
       </c>
-      <c r="AG28" s="45">
+      <c r="AG28" s="40">
         <v>8.4492999999999991</v>
       </c>
-      <c r="AH28" s="45">
+      <c r="AH28" s="40">
         <v>9.7650000000000006</v>
       </c>
-      <c r="AI28" s="45">
+      <c r="AI28" s="40">
         <v>6.3874000000000004</v>
       </c>
-      <c r="AJ28" s="45">
+      <c r="AJ28" s="40">
         <v>5.8741000000000003</v>
       </c>
-      <c r="AK28" s="45">
+      <c r="AK28" s="40">
         <v>4.6536999999999997</v>
       </c>
-      <c r="AL28" s="45">
+      <c r="AL28" s="40">
         <v>4.0388999999999999</v>
       </c>
-      <c r="AM28" s="45">
+      <c r="AM28" s="40">
         <v>2.8151000000000002</v>
       </c>
-      <c r="AN28" s="45">
+      <c r="AN28" s="40">
         <v>3.7141000000000002</v>
       </c>
-      <c r="AO28" s="45">
+      <c r="AO28" s="40">
         <v>4.0777000000000001</v>
       </c>
-      <c r="AP28" s="45">
+      <c r="AP28" s="40">
         <v>4.4039999999999999</v>
       </c>
-      <c r="AQ28" s="45">
+      <c r="AQ28" s="40">
         <v>3.7584</v>
       </c>
-      <c r="AR28" s="45">
+      <c r="AR28" s="40">
         <v>4.1703999999999999</v>
       </c>
-      <c r="AS28" s="45">
+      <c r="AS28" s="40">
         <v>3.5545</v>
       </c>
-      <c r="AT28" s="45">
+      <c r="AT28" s="40">
         <v>3.5249999999999999</v>
       </c>
-      <c r="AU28" s="45">
+      <c r="AU28" s="40">
         <v>2.6757</v>
       </c>
-      <c r="AV28" s="45">
+      <c r="AV28" s="40">
         <v>2.6162999999999998</v>
       </c>
-      <c r="AW28" s="45">
+      <c r="AW28" s="40">
         <v>1.7538</v>
       </c>
-      <c r="AX28" s="45">
+      <c r="AX28" s="40">
         <v>1.9450000000000001</v>
       </c>
     </row>
     <row r="29" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A29" s="43">
+      <c r="A29" s="38">
         <v>5</v>
       </c>
-      <c r="B29" s="44" t="s">
+      <c r="B29" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="45">
+      <c r="C29" s="40">
         <v>7.9802999999999997</v>
       </c>
-      <c r="D29" s="45">
+      <c r="D29" s="40">
         <v>7.6040999999999999</v>
       </c>
-      <c r="E29" s="45">
+      <c r="E29" s="40">
         <v>7.5530999999999997</v>
       </c>
-      <c r="F29" s="45">
+      <c r="F29" s="40">
         <v>13.176500000000001</v>
       </c>
-      <c r="G29" s="45">
+      <c r="G29" s="40">
         <v>12.1896</v>
       </c>
-      <c r="H29" s="45">
+      <c r="H29" s="40">
         <v>9.8892000000000007</v>
       </c>
-      <c r="I29" s="45">
+      <c r="I29" s="40">
         <v>12.4674</v>
       </c>
-      <c r="J29" s="45">
+      <c r="J29" s="40">
         <v>35.308199999999999</v>
       </c>
-      <c r="K29" s="45">
+      <c r="K29" s="40">
         <v>62.047699999999999</v>
       </c>
-      <c r="L29" s="45">
+      <c r="L29" s="40">
         <v>83.747799999999998</v>
       </c>
-      <c r="M29" s="45">
+      <c r="M29" s="40">
         <v>39.494199999999999</v>
       </c>
-      <c r="N29" s="45">
+      <c r="N29" s="40">
         <v>466.43060000000003</v>
       </c>
-      <c r="O29" s="45">
+      <c r="O29" s="40">
         <v>150.7527</v>
       </c>
-      <c r="P29" s="45">
+      <c r="P29" s="40">
         <v>99.618600000000001</v>
       </c>
-      <c r="Q29" s="45">
+      <c r="Q29" s="40">
         <v>92.263400000000004</v>
       </c>
-      <c r="R29" s="45">
+      <c r="R29" s="40">
         <v>98.0745</v>
       </c>
-      <c r="S29" s="45">
+      <c r="S29" s="40">
         <v>84.816999999999993</v>
       </c>
-      <c r="T29" s="45">
+      <c r="T29" s="40">
         <v>70.007300000000001</v>
       </c>
-      <c r="U29" s="45">
+      <c r="U29" s="40">
         <v>280.26679999999999</v>
       </c>
-      <c r="V29" s="45">
+      <c r="V29" s="40">
         <v>164.23670000000001</v>
       </c>
-      <c r="W29" s="45">
+      <c r="W29" s="40">
         <v>131.8903</v>
       </c>
-      <c r="X29" s="45">
+      <c r="X29" s="40">
         <v>186.15350000000001</v>
       </c>
-      <c r="Y29" s="45">
+      <c r="Y29" s="40">
         <v>186.14359999999999</v>
       </c>
-      <c r="Z29" s="45">
+      <c r="Z29" s="40">
         <v>112.143</v>
       </c>
-      <c r="AA29" s="45">
+      <c r="AA29" s="40">
         <v>95.753799999999998</v>
       </c>
-      <c r="AB29" s="45">
+      <c r="AB29" s="40">
         <v>84.281400000000005</v>
       </c>
-      <c r="AC29" s="45">
+      <c r="AC29" s="40">
         <v>90.786000000000001</v>
       </c>
-      <c r="AD29" s="45">
+      <c r="AD29" s="40">
         <v>104.1803</v>
       </c>
-      <c r="AE29" s="45">
+      <c r="AE29" s="40">
         <v>102.56100000000001</v>
       </c>
-      <c r="AF29" s="45">
+      <c r="AF29" s="40">
         <v>105.1374</v>
       </c>
-      <c r="AG29" s="45">
+      <c r="AG29" s="40">
         <v>115.3991</v>
       </c>
-      <c r="AH29" s="45">
+      <c r="AH29" s="40">
         <v>133.2433</v>
       </c>
-      <c r="AI29" s="45">
+      <c r="AI29" s="40">
         <v>112.6189</v>
       </c>
-      <c r="AJ29" s="45">
+      <c r="AJ29" s="40">
         <v>94.846800000000002</v>
       </c>
-      <c r="AK29" s="45">
+      <c r="AK29" s="40">
         <v>74.649699999999996</v>
       </c>
-      <c r="AL29" s="45">
+      <c r="AL29" s="40">
         <v>63.080500000000001</v>
       </c>
-      <c r="AM29" s="45">
+      <c r="AM29" s="40">
         <v>49.628599999999999</v>
       </c>
-      <c r="AN29" s="45">
+      <c r="AN29" s="40">
         <v>42.404299999999999</v>
       </c>
-      <c r="AO29" s="45">
+      <c r="AO29" s="40">
         <v>37.862099999999998</v>
       </c>
-      <c r="AP29" s="45">
+      <c r="AP29" s="40">
         <v>32.775399999999998</v>
       </c>
-      <c r="AQ29" s="45">
+      <c r="AQ29" s="40">
         <v>29.386700000000001</v>
       </c>
-      <c r="AR29" s="45">
+      <c r="AR29" s="40">
         <v>27.220500000000001</v>
       </c>
-      <c r="AS29" s="45">
+      <c r="AS29" s="40">
         <v>25.061699999999998</v>
       </c>
-      <c r="AT29" s="45">
+      <c r="AT29" s="40">
         <v>22.666399999999999</v>
       </c>
-      <c r="AU29" s="45">
+      <c r="AU29" s="40">
         <v>19.9833</v>
       </c>
-      <c r="AV29" s="45">
+      <c r="AV29" s="40">
         <v>18.886299999999999</v>
       </c>
-      <c r="AW29" s="45">
+      <c r="AW29" s="40">
         <v>19.750699999999998</v>
       </c>
-      <c r="AX29" s="45">
+      <c r="AX29" s="40">
         <v>18.032399999999999</v>
       </c>
     </row>
     <row r="30" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A30" s="43">
+      <c r="A30" s="38">
         <v>5</v>
       </c>
-      <c r="B30" s="44" t="s">
+      <c r="B30" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="C30" s="45">
+      <c r="C30" s="40">
         <v>24.087800000000001</v>
       </c>
-      <c r="D30" s="45">
+      <c r="D30" s="40">
         <v>24.008700000000001</v>
       </c>
-      <c r="E30" s="45">
+      <c r="E30" s="40">
         <v>19.410900000000002</v>
       </c>
-      <c r="F30" s="45">
+      <c r="F30" s="40">
         <v>20.5943</v>
       </c>
-      <c r="G30" s="45">
+      <c r="G30" s="40">
         <v>18.503900000000002</v>
       </c>
-      <c r="H30" s="45">
+      <c r="H30" s="40">
         <v>15.536300000000001</v>
       </c>
-      <c r="I30" s="45">
+      <c r="I30" s="40">
         <v>29.118099999999998</v>
       </c>
-      <c r="J30" s="45">
+      <c r="J30" s="40">
         <v>49.311399999999999</v>
       </c>
-      <c r="K30" s="45">
+      <c r="K30" s="40">
         <v>57.905799999999999</v>
       </c>
-      <c r="L30" s="45">
+      <c r="L30" s="40">
         <v>95.133099999999999</v>
       </c>
-      <c r="M30" s="45">
+      <c r="M30" s="40">
         <v>20.4483</v>
       </c>
-      <c r="N30" s="45">
+      <c r="N30" s="40">
         <v>311.5539</v>
       </c>
-      <c r="O30" s="45">
+      <c r="O30" s="40">
         <v>69.771000000000001</v>
       </c>
-      <c r="P30" s="45">
+      <c r="P30" s="40">
         <v>11.9916</v>
       </c>
-      <c r="Q30" s="45">
+      <c r="Q30" s="40">
         <v>29.9984</v>
       </c>
-      <c r="R30" s="45">
+      <c r="R30" s="40">
         <v>105.80710000000001</v>
       </c>
-      <c r="S30" s="45">
+      <c r="S30" s="40">
         <v>75.442899999999995</v>
       </c>
-      <c r="T30" s="45">
+      <c r="T30" s="40">
         <v>56.216500000000003</v>
       </c>
-      <c r="U30" s="45">
+      <c r="U30" s="40">
         <v>260.79180000000002</v>
       </c>
-      <c r="V30" s="45">
+      <c r="V30" s="40">
         <v>95.894900000000007</v>
       </c>
-      <c r="W30" s="45">
+      <c r="W30" s="40">
         <v>58.996899999999997</v>
       </c>
-      <c r="X30" s="45">
+      <c r="X30" s="40">
         <v>121.681</v>
       </c>
-      <c r="Y30" s="45">
+      <c r="Y30" s="40">
         <v>165.72890000000001</v>
       </c>
-      <c r="Z30" s="45">
+      <c r="Z30" s="40">
         <v>44.283200000000001</v>
       </c>
-      <c r="AA30" s="45">
+      <c r="AA30" s="40">
         <v>23.104800000000001</v>
       </c>
-      <c r="AB30" s="45">
-        <v>0</v>
-      </c>
-      <c r="AC30" s="45">
-        <v>0</v>
-      </c>
-      <c r="AD30" s="45">
-        <v>0</v>
-      </c>
-      <c r="AE30" s="45">
-        <v>0</v>
-      </c>
-      <c r="AF30" s="45">
-        <v>0</v>
-      </c>
-      <c r="AG30" s="45">
-        <v>0</v>
-      </c>
-      <c r="AH30" s="45">
-        <v>0</v>
-      </c>
-      <c r="AI30" s="45">
-        <v>0</v>
-      </c>
-      <c r="AJ30" s="45">
-        <v>0</v>
-      </c>
-      <c r="AK30" s="45">
-        <v>0</v>
-      </c>
-      <c r="AL30" s="45">
-        <v>0</v>
-      </c>
-      <c r="AM30" s="45">
+      <c r="AB30" s="40">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="40">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="40">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="40">
+        <v>0</v>
+      </c>
+      <c r="AF30" s="40">
+        <v>0</v>
+      </c>
+      <c r="AG30" s="40">
+        <v>0</v>
+      </c>
+      <c r="AH30" s="40">
+        <v>0</v>
+      </c>
+      <c r="AI30" s="40">
+        <v>0</v>
+      </c>
+      <c r="AJ30" s="40">
+        <v>0</v>
+      </c>
+      <c r="AK30" s="40">
+        <v>0</v>
+      </c>
+      <c r="AL30" s="40">
+        <v>0</v>
+      </c>
+      <c r="AM30" s="40">
         <v>7.7525000000000004</v>
       </c>
-      <c r="AN30" s="45">
+      <c r="AN30" s="40">
         <v>17.4922</v>
       </c>
-      <c r="AO30" s="45">
+      <c r="AO30" s="40">
         <v>20.453900000000001</v>
       </c>
-      <c r="AP30" s="45">
+      <c r="AP30" s="40">
         <v>22.773800000000001</v>
       </c>
-      <c r="AQ30" s="45">
+      <c r="AQ30" s="40">
         <v>23.786100000000001</v>
       </c>
-      <c r="AR30" s="45">
+      <c r="AR30" s="40">
         <v>24.974699999999999</v>
       </c>
-      <c r="AS30" s="45">
+      <c r="AS30" s="40">
         <v>24.350899999999999</v>
       </c>
-      <c r="AT30" s="45">
+      <c r="AT30" s="40">
         <v>29.445900000000002</v>
       </c>
-      <c r="AU30" s="45">
+      <c r="AU30" s="40">
         <v>31.3566</v>
       </c>
-      <c r="AV30" s="45">
+      <c r="AV30" s="40">
         <v>26.920400000000001</v>
       </c>
-      <c r="AW30" s="45">
+      <c r="AW30" s="40">
         <v>29.0212</v>
       </c>
-      <c r="AX30" s="45">
+      <c r="AX30" s="40">
         <v>28.322500000000002</v>
       </c>
     </row>
     <row r="31" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A31" s="43">
+      <c r="A31" s="38">
         <v>5</v>
       </c>
-      <c r="B31" s="44" t="s">
+      <c r="B31" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="45">
+      <c r="C31" s="40">
         <v>1.5586</v>
       </c>
-      <c r="D31" s="45">
+      <c r="D31" s="40">
         <v>1.5488</v>
       </c>
-      <c r="E31" s="45">
+      <c r="E31" s="40">
         <v>1.5414000000000001</v>
       </c>
-      <c r="F31" s="45">
+      <c r="F31" s="40">
         <v>3.1949999999999998</v>
       </c>
-      <c r="G31" s="45">
+      <c r="G31" s="40">
         <v>2.9529000000000001</v>
       </c>
-      <c r="H31" s="45">
+      <c r="H31" s="40">
         <v>2.1137999999999999</v>
       </c>
-      <c r="I31" s="45">
+      <c r="I31" s="40">
         <v>3.9763000000000002</v>
       </c>
-      <c r="J31" s="45">
+      <c r="J31" s="40">
         <v>9.8012999999999995</v>
       </c>
-      <c r="K31" s="45">
+      <c r="K31" s="40">
         <v>13.5871</v>
       </c>
-      <c r="L31" s="45">
+      <c r="L31" s="40">
         <v>13.8225</v>
       </c>
-      <c r="M31" s="45">
+      <c r="M31" s="40">
         <v>6.8529</v>
       </c>
-      <c r="N31" s="45">
+      <c r="N31" s="40">
         <v>75.618799999999993</v>
       </c>
-      <c r="O31" s="45">
+      <c r="O31" s="40">
         <v>35.4343</v>
       </c>
-      <c r="P31" s="45">
+      <c r="P31" s="40">
         <v>13.2988</v>
       </c>
-      <c r="Q31" s="45">
+      <c r="Q31" s="40">
         <v>20.038799999999998</v>
       </c>
-      <c r="R31" s="45">
+      <c r="R31" s="40">
         <v>41.256300000000003</v>
       </c>
-      <c r="S31" s="45">
+      <c r="S31" s="40">
         <v>31.737100000000002</v>
       </c>
-      <c r="T31" s="45">
+      <c r="T31" s="40">
         <v>25.15</v>
       </c>
-      <c r="U31" s="45">
+      <c r="U31" s="40">
         <v>130.7938</v>
       </c>
-      <c r="V31" s="45">
+      <c r="V31" s="40">
         <v>67.722499999999997</v>
       </c>
-      <c r="W31" s="45">
+      <c r="W31" s="40">
         <v>51.3643</v>
       </c>
-      <c r="X31" s="45">
+      <c r="X31" s="40">
         <v>80.007499999999993</v>
       </c>
-      <c r="Y31" s="45">
+      <c r="Y31" s="40">
         <v>85.581400000000002</v>
       </c>
-      <c r="Z31" s="45">
+      <c r="Z31" s="40">
         <v>42.351300000000002</v>
       </c>
-      <c r="AA31" s="45">
+      <c r="AA31" s="40">
         <v>33.397100000000002</v>
       </c>
-      <c r="AB31" s="45">
+      <c r="AB31" s="40">
         <v>25.975000000000001</v>
       </c>
-      <c r="AC31" s="45">
+      <c r="AC31" s="40">
         <v>25.9513</v>
       </c>
-      <c r="AD31" s="45">
+      <c r="AD31" s="40">
         <v>31.504999999999999</v>
       </c>
-      <c r="AE31" s="45">
+      <c r="AE31" s="40">
         <v>30.1129</v>
       </c>
-      <c r="AF31" s="45">
+      <c r="AF31" s="40">
         <v>31.4588</v>
       </c>
-      <c r="AG31" s="45">
+      <c r="AG31" s="40">
         <v>35.185699999999997</v>
       </c>
-      <c r="AH31" s="45">
+      <c r="AH31" s="40">
         <v>35.352499999999999</v>
       </c>
-      <c r="AI31" s="45">
+      <c r="AI31" s="40">
         <v>30.222899999999999</v>
       </c>
-      <c r="AJ31" s="45">
+      <c r="AJ31" s="40">
         <v>26.004999999999999</v>
       </c>
-      <c r="AK31" s="45">
+      <c r="AK31" s="40">
         <v>21.0075</v>
       </c>
-      <c r="AL31" s="45">
+      <c r="AL31" s="40">
         <v>17.5288</v>
       </c>
-      <c r="AM31" s="45">
+      <c r="AM31" s="40">
         <v>14.154299999999999</v>
       </c>
-      <c r="AN31" s="45">
+      <c r="AN31" s="40">
         <v>13.016299999999999</v>
       </c>
-      <c r="AO31" s="45">
+      <c r="AO31" s="40">
         <v>11.946300000000001</v>
       </c>
-      <c r="AP31" s="45">
+      <c r="AP31" s="40">
         <v>10.3688</v>
       </c>
-      <c r="AQ31" s="45">
+      <c r="AQ31" s="40">
         <v>9.1670999999999996</v>
       </c>
-      <c r="AR31" s="45">
+      <c r="AR31" s="40">
         <v>8.6670999999999996</v>
       </c>
-      <c r="AS31" s="45">
+      <c r="AS31" s="40">
         <v>7.7385999999999999</v>
       </c>
-      <c r="AT31" s="45">
+      <c r="AT31" s="40">
         <v>7.1688000000000001</v>
       </c>
-      <c r="AU31" s="45">
+      <c r="AU31" s="40">
         <v>6.4470999999999998</v>
       </c>
-      <c r="AV31" s="45">
+      <c r="AV31" s="40">
         <v>5.8550000000000004</v>
       </c>
-      <c r="AW31" s="45">
+      <c r="AW31" s="40">
         <v>6.1375000000000002</v>
       </c>
-      <c r="AX31" s="45">
+      <c r="AX31" s="40">
         <v>5.4462999999999999</v>
       </c>
     </row>
     <row r="32" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A32" s="43">
+      <c r="A32" s="38">
         <v>5</v>
       </c>
-      <c r="B32" s="44" t="s">
+      <c r="B32" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="C32" s="45">
-        <v>0</v>
-      </c>
-      <c r="D32" s="45">
+      <c r="C32" s="40">
+        <v>0</v>
+      </c>
+      <c r="D32" s="40">
         <v>0.41439999999999999</v>
       </c>
-      <c r="E32" s="45">
-        <v>0</v>
-      </c>
-      <c r="F32" s="45">
+      <c r="E32" s="40">
+        <v>0</v>
+      </c>
+      <c r="F32" s="40">
         <v>4.2305000000000001</v>
       </c>
-      <c r="G32" s="45">
+      <c r="G32" s="40">
         <v>22.868300000000001</v>
       </c>
-      <c r="H32" s="45">
+      <c r="H32" s="40">
         <v>11.2712</v>
       </c>
-      <c r="I32" s="45">
+      <c r="I32" s="40">
         <v>14.9282</v>
       </c>
-      <c r="J32" s="45">
+      <c r="J32" s="40">
         <v>42.6873</v>
       </c>
-      <c r="K32" s="45">
+      <c r="K32" s="40">
         <v>60.828899999999997</v>
       </c>
-      <c r="L32" s="45">
+      <c r="L32" s="40">
         <v>84.741100000000003</v>
       </c>
-      <c r="M32" s="45">
+      <c r="M32" s="40">
         <v>20.628799999999998</v>
       </c>
-      <c r="N32" s="45">
+      <c r="N32" s="40">
         <v>313.75189999999998</v>
       </c>
-      <c r="O32" s="45">
+      <c r="O32" s="40">
         <v>129.73660000000001</v>
       </c>
-      <c r="P32" s="45">
+      <c r="P32" s="40">
         <v>103.4714</v>
       </c>
-      <c r="Q32" s="45">
+      <c r="Q32" s="40">
         <v>96.967500000000001</v>
       </c>
-      <c r="R32" s="45">
+      <c r="R32" s="40">
         <v>94.388800000000003</v>
       </c>
-      <c r="S32" s="45">
+      <c r="S32" s="40">
         <v>66.02</v>
       </c>
-      <c r="T32" s="45">
+      <c r="T32" s="40">
         <v>53.8825</v>
       </c>
-      <c r="U32" s="45">
+      <c r="U32" s="40">
         <v>103.8313</v>
       </c>
-      <c r="V32" s="45">
+      <c r="V32" s="40">
         <v>147.11500000000001</v>
       </c>
-      <c r="W32" s="45">
+      <c r="W32" s="40">
         <v>129.2629</v>
       </c>
-      <c r="X32" s="45">
+      <c r="X32" s="40">
         <v>126.9688</v>
       </c>
-      <c r="Y32" s="45">
+      <c r="Y32" s="40">
         <v>125.6914</v>
       </c>
-      <c r="Z32" s="45">
+      <c r="Z32" s="40">
         <v>104.75749999999999</v>
       </c>
-      <c r="AA32" s="45">
+      <c r="AA32" s="40">
         <v>68.404300000000006</v>
       </c>
-      <c r="AB32" s="45">
+      <c r="AB32" s="40">
         <v>38.643799999999999</v>
       </c>
-      <c r="AC32" s="45">
+      <c r="AC32" s="40">
         <v>20.801300000000001</v>
       </c>
-      <c r="AD32" s="45">
+      <c r="AD32" s="40">
         <v>26.664999999999999</v>
       </c>
-      <c r="AE32" s="45">
+      <c r="AE32" s="40">
         <v>10.6557</v>
       </c>
-      <c r="AF32" s="45">
+      <c r="AF32" s="40">
         <v>13.8263</v>
       </c>
-      <c r="AG32" s="45">
+      <c r="AG32" s="40">
         <v>35.278599999999997</v>
       </c>
-      <c r="AH32" s="45">
+      <c r="AH32" s="40">
         <v>1.61E-2</v>
       </c>
-      <c r="AI32" s="45">
+      <c r="AI32" s="40">
         <v>1.61E-2</v>
       </c>
-      <c r="AJ32" s="45">
+      <c r="AJ32" s="40">
         <v>1.61E-2</v>
       </c>
-      <c r="AK32" s="45">
+      <c r="AK32" s="40">
         <v>1.61E-2</v>
       </c>
-      <c r="AL32" s="45">
+      <c r="AL32" s="40">
         <v>1.61E-2</v>
       </c>
-      <c r="AM32" s="45">
+      <c r="AM32" s="40">
         <v>1.61E-2</v>
       </c>
-      <c r="AN32" s="45">
+      <c r="AN32" s="40">
         <v>1.61E-2</v>
       </c>
-      <c r="AO32" s="45">
+      <c r="AO32" s="40">
         <v>1.61E-2</v>
       </c>
-      <c r="AP32" s="45">
+      <c r="AP32" s="40">
         <v>1.0161</v>
       </c>
-      <c r="AQ32" s="45">
+      <c r="AQ32" s="40">
         <v>2.0160999999999998</v>
       </c>
-      <c r="AR32" s="45">
+      <c r="AR32" s="40">
         <v>3.0160999999999998</v>
       </c>
-      <c r="AS32" s="45">
+      <c r="AS32" s="40">
         <v>4.0160999999999998</v>
       </c>
-      <c r="AT32" s="45">
-        <v>0</v>
-      </c>
-      <c r="AU32" s="45">
-        <v>0</v>
-      </c>
-      <c r="AV32" s="45">
-        <v>0</v>
-      </c>
-      <c r="AW32" s="45">
-        <v>0</v>
-      </c>
-      <c r="AX32" s="45">
+      <c r="AT32" s="40">
+        <v>0</v>
+      </c>
+      <c r="AU32" s="40">
+        <v>0</v>
+      </c>
+      <c r="AV32" s="40">
+        <v>0</v>
+      </c>
+      <c r="AW32" s="40">
+        <v>0</v>
+      </c>
+      <c r="AX32" s="40">
         <v>0</v>
       </c>
     </row>
@@ -10372,154 +10403,154 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="42" t="s">
         <v>85</v>
       </c>
-      <c r="C1" s="48">
+      <c r="C1" s="43">
         <v>1</v>
       </c>
-      <c r="D1" s="48">
+      <c r="D1" s="43">
         <v>2</v>
       </c>
-      <c r="E1" s="48">
+      <c r="E1" s="43">
         <v>3</v>
       </c>
-      <c r="F1" s="48">
+      <c r="F1" s="43">
         <v>4</v>
       </c>
-      <c r="G1" s="48">
+      <c r="G1" s="43">
         <v>5</v>
       </c>
-      <c r="H1" s="48">
+      <c r="H1" s="43">
         <v>6</v>
       </c>
-      <c r="I1" s="48">
+      <c r="I1" s="43">
         <v>7</v>
       </c>
-      <c r="J1" s="48">
+      <c r="J1" s="43">
         <v>8</v>
       </c>
-      <c r="K1" s="48">
+      <c r="K1" s="43">
         <v>9</v>
       </c>
-      <c r="L1" s="48">
+      <c r="L1" s="43">
         <v>10</v>
       </c>
-      <c r="M1" s="48">
+      <c r="M1" s="43">
         <v>11</v>
       </c>
-      <c r="N1" s="48">
+      <c r="N1" s="43">
         <v>12</v>
       </c>
-      <c r="O1" s="48">
+      <c r="O1" s="43">
         <v>13</v>
       </c>
-      <c r="P1" s="48">
+      <c r="P1" s="43">
         <v>14</v>
       </c>
-      <c r="Q1" s="48">
+      <c r="Q1" s="43">
         <v>15</v>
       </c>
-      <c r="R1" s="48">
+      <c r="R1" s="43">
         <v>16</v>
       </c>
-      <c r="S1" s="48">
+      <c r="S1" s="43">
         <v>17</v>
       </c>
-      <c r="T1" s="48">
+      <c r="T1" s="43">
         <v>18</v>
       </c>
-      <c r="U1" s="48">
+      <c r="U1" s="43">
         <v>19</v>
       </c>
-      <c r="V1" s="48">
+      <c r="V1" s="43">
         <v>20</v>
       </c>
-      <c r="W1" s="48">
+      <c r="W1" s="43">
         <v>21</v>
       </c>
-      <c r="X1" s="48">
+      <c r="X1" s="43">
         <v>22</v>
       </c>
-      <c r="Y1" s="48">
+      <c r="Y1" s="43">
         <v>23</v>
       </c>
-      <c r="Z1" s="48">
+      <c r="Z1" s="43">
         <v>24</v>
       </c>
-      <c r="AA1" s="48">
+      <c r="AA1" s="43">
         <v>25</v>
       </c>
-      <c r="AB1" s="48">
+      <c r="AB1" s="43">
         <v>26</v>
       </c>
-      <c r="AC1" s="48">
+      <c r="AC1" s="43">
         <v>27</v>
       </c>
-      <c r="AD1" s="48">
+      <c r="AD1" s="43">
         <v>28</v>
       </c>
-      <c r="AE1" s="48">
+      <c r="AE1" s="43">
         <v>29</v>
       </c>
-      <c r="AF1" s="48">
+      <c r="AF1" s="43">
         <v>30</v>
       </c>
-      <c r="AG1" s="48">
+      <c r="AG1" s="43">
         <v>31</v>
       </c>
-      <c r="AH1" s="48">
+      <c r="AH1" s="43">
         <v>32</v>
       </c>
-      <c r="AI1" s="48">
+      <c r="AI1" s="43">
         <v>33</v>
       </c>
-      <c r="AJ1" s="48">
+      <c r="AJ1" s="43">
         <v>34</v>
       </c>
-      <c r="AK1" s="48">
+      <c r="AK1" s="43">
         <v>35</v>
       </c>
-      <c r="AL1" s="48">
+      <c r="AL1" s="43">
         <v>36</v>
       </c>
-      <c r="AM1" s="48">
+      <c r="AM1" s="43">
         <v>37</v>
       </c>
-      <c r="AN1" s="48">
+      <c r="AN1" s="43">
         <v>38</v>
       </c>
-      <c r="AO1" s="48">
+      <c r="AO1" s="43">
         <v>39</v>
       </c>
-      <c r="AP1" s="48">
+      <c r="AP1" s="43">
         <v>40</v>
       </c>
-      <c r="AQ1" s="48">
+      <c r="AQ1" s="43">
         <v>41</v>
       </c>
-      <c r="AR1" s="48">
+      <c r="AR1" s="43">
         <v>42</v>
       </c>
-      <c r="AS1" s="48">
+      <c r="AS1" s="43">
         <v>43</v>
       </c>
-      <c r="AT1" s="48">
+      <c r="AT1" s="43">
         <v>44</v>
       </c>
-      <c r="AU1" s="48">
+      <c r="AU1" s="43">
         <v>45</v>
       </c>
-      <c r="AV1" s="48">
+      <c r="AV1" s="43">
         <v>46</v>
       </c>
-      <c r="AW1" s="48">
+      <c r="AW1" s="43">
         <v>47</v>
       </c>
-      <c r="AX1" s="48">
+      <c r="AX1" s="43">
         <v>48</v>
       </c>
     </row>
@@ -10527,151 +10558,151 @@
       <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="46">
+      <c r="B2" s="41">
         <v>1</v>
       </c>
-      <c r="C2" s="49">
+      <c r="C2" s="44">
         <v>33.479999999999997</v>
       </c>
-      <c r="D2" s="49">
+      <c r="D2" s="44">
         <v>33.479999999999997</v>
       </c>
-      <c r="E2" s="49">
+      <c r="E2" s="44">
         <v>33.479999999999997</v>
       </c>
-      <c r="F2" s="49">
+      <c r="F2" s="44">
         <v>33.479999999999997</v>
       </c>
-      <c r="G2" s="49">
-        <v>0</v>
-      </c>
-      <c r="H2" s="49">
-        <v>0</v>
-      </c>
-      <c r="I2" s="49">
-        <v>0</v>
-      </c>
-      <c r="J2" s="49">
-        <v>0</v>
-      </c>
-      <c r="K2" s="49">
-        <v>0</v>
-      </c>
-      <c r="L2" s="49">
-        <v>0</v>
-      </c>
-      <c r="M2" s="49">
-        <v>0</v>
-      </c>
-      <c r="N2" s="49">
-        <v>0</v>
-      </c>
-      <c r="O2" s="49">
-        <v>0</v>
-      </c>
-      <c r="P2" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="49">
-        <v>0</v>
-      </c>
-      <c r="R2" s="49">
-        <v>0</v>
-      </c>
-      <c r="S2" s="49">
-        <v>0</v>
-      </c>
-      <c r="T2" s="49">
-        <v>0</v>
-      </c>
-      <c r="U2" s="49">
-        <v>0</v>
-      </c>
-      <c r="V2" s="49">
-        <v>0</v>
-      </c>
-      <c r="W2" s="49">
+      <c r="G2" s="44">
+        <v>0</v>
+      </c>
+      <c r="H2" s="44">
+        <v>0</v>
+      </c>
+      <c r="I2" s="44">
+        <v>0</v>
+      </c>
+      <c r="J2" s="44">
+        <v>0</v>
+      </c>
+      <c r="K2" s="44">
+        <v>0</v>
+      </c>
+      <c r="L2" s="44">
+        <v>0</v>
+      </c>
+      <c r="M2" s="44">
+        <v>0</v>
+      </c>
+      <c r="N2" s="44">
+        <v>0</v>
+      </c>
+      <c r="O2" s="44">
+        <v>0</v>
+      </c>
+      <c r="P2" s="44">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="44">
+        <v>0</v>
+      </c>
+      <c r="R2" s="44">
+        <v>0</v>
+      </c>
+      <c r="S2" s="44">
+        <v>0</v>
+      </c>
+      <c r="T2" s="44">
+        <v>0</v>
+      </c>
+      <c r="U2" s="44">
+        <v>0</v>
+      </c>
+      <c r="V2" s="44">
+        <v>0</v>
+      </c>
+      <c r="W2" s="44">
         <v>33.479999999999997</v>
       </c>
-      <c r="X2" s="49">
+      <c r="X2" s="44">
         <v>33.479999999999997</v>
       </c>
-      <c r="Y2" s="49">
+      <c r="Y2" s="44">
         <v>33.479999999999997</v>
       </c>
-      <c r="Z2" s="49">
+      <c r="Z2" s="44">
         <v>33.479999999999997</v>
       </c>
-      <c r="AA2" s="49">
+      <c r="AA2" s="44">
         <v>33.479999999999997</v>
       </c>
-      <c r="AB2" s="49">
+      <c r="AB2" s="44">
         <v>33.479999999999997</v>
       </c>
-      <c r="AC2" s="49">
+      <c r="AC2" s="44">
         <v>33.479999999999997</v>
       </c>
-      <c r="AD2" s="49">
+      <c r="AD2" s="44">
         <v>33.479999999999997</v>
       </c>
-      <c r="AE2" s="49">
+      <c r="AE2" s="44">
         <v>33.479999999999997</v>
       </c>
-      <c r="AF2" s="49">
+      <c r="AF2" s="44">
         <v>33.479999999999997</v>
       </c>
-      <c r="AG2" s="49">
+      <c r="AG2" s="44">
         <v>33.479999999999997</v>
       </c>
-      <c r="AH2" s="49">
+      <c r="AH2" s="44">
         <v>33.479999999999997</v>
       </c>
-      <c r="AI2" s="49">
+      <c r="AI2" s="44">
         <v>33.479999999999997</v>
       </c>
-      <c r="AJ2" s="49">
+      <c r="AJ2" s="44">
         <v>33.479999999999997</v>
       </c>
-      <c r="AK2" s="49">
+      <c r="AK2" s="44">
         <v>33.479999999999997</v>
       </c>
-      <c r="AL2" s="49">
+      <c r="AL2" s="44">
         <v>33.479999999999997</v>
       </c>
-      <c r="AM2" s="49">
+      <c r="AM2" s="44">
         <v>33.479999999999997</v>
       </c>
-      <c r="AN2" s="49">
+      <c r="AN2" s="44">
         <v>33.479999999999997</v>
       </c>
-      <c r="AO2" s="49">
+      <c r="AO2" s="44">
         <v>33.479999999999997</v>
       </c>
-      <c r="AP2" s="49">
+      <c r="AP2" s="44">
         <v>33.479999999999997</v>
       </c>
-      <c r="AQ2" s="49">
+      <c r="AQ2" s="44">
         <v>33.479999999999997</v>
       </c>
-      <c r="AR2" s="49">
+      <c r="AR2" s="44">
         <v>33.479999999999997</v>
       </c>
-      <c r="AS2" s="49">
+      <c r="AS2" s="44">
         <v>33.479999999999997</v>
       </c>
-      <c r="AT2" s="49">
+      <c r="AT2" s="44">
         <v>33.479999999999997</v>
       </c>
-      <c r="AU2" s="49">
+      <c r="AU2" s="44">
         <v>33.479999999999997</v>
       </c>
-      <c r="AV2" s="49">
+      <c r="AV2" s="44">
         <v>33.479999999999997</v>
       </c>
-      <c r="AW2" s="49">
+      <c r="AW2" s="44">
         <v>33.479999999999997</v>
       </c>
-      <c r="AX2" s="49">
+      <c r="AX2" s="44">
         <v>33.479999999999997</v>
       </c>
     </row>
@@ -10679,7 +10710,7 @@
       <c r="A3" s="6">
         <v>1</v>
       </c>
-      <c r="B3" s="46">
+      <c r="B3" s="41">
         <v>2</v>
       </c>
       <c r="C3" s="6">
@@ -10831,7 +10862,7 @@
       <c r="A4" s="6">
         <v>1</v>
       </c>
-      <c r="B4" s="46">
+      <c r="B4" s="41">
         <v>3</v>
       </c>
       <c r="C4" s="6">
@@ -10983,7 +11014,7 @@
       <c r="A5" s="6">
         <v>2</v>
       </c>
-      <c r="B5" s="46">
+      <c r="B5" s="41">
         <v>1</v>
       </c>
       <c r="C5" s="6">
@@ -11135,7 +11166,7 @@
       <c r="A6" s="6">
         <v>2</v>
       </c>
-      <c r="B6" s="46">
+      <c r="B6" s="41">
         <v>2</v>
       </c>
       <c r="C6" s="6">
@@ -11287,7 +11318,7 @@
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="46">
+      <c r="B7" s="41">
         <v>3</v>
       </c>
       <c r="C7" s="6">
@@ -11439,7 +11470,7 @@
       <c r="A8" s="6">
         <v>3</v>
       </c>
-      <c r="B8" s="46">
+      <c r="B8" s="41">
         <v>1</v>
       </c>
       <c r="C8" s="6">
@@ -11591,7 +11622,7 @@
       <c r="A9" s="6">
         <v>3</v>
       </c>
-      <c r="B9" s="46">
+      <c r="B9" s="41">
         <v>2</v>
       </c>
       <c r="C9" s="6">
@@ -11743,7 +11774,7 @@
       <c r="A10" s="6">
         <v>3</v>
       </c>
-      <c r="B10" s="46">
+      <c r="B10" s="41">
         <v>3</v>
       </c>
       <c r="C10" s="6">
@@ -11895,7 +11926,7 @@
       <c r="A11" s="6">
         <v>4</v>
       </c>
-      <c r="B11" s="46">
+      <c r="B11" s="41">
         <v>1</v>
       </c>
       <c r="C11" s="6">
@@ -12095,7 +12126,7 @@
       <c r="A12" s="6">
         <v>4</v>
       </c>
-      <c r="B12" s="46">
+      <c r="B12" s="41">
         <v>2</v>
       </c>
       <c r="C12" s="6">
@@ -12247,7 +12278,7 @@
       <c r="A13" s="6">
         <v>4</v>
       </c>
-      <c r="B13" s="46">
+      <c r="B13" s="41">
         <v>3</v>
       </c>
       <c r="C13" s="6">
@@ -12735,12 +12766,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010074FAD0E770E69846A722597CB473E680" ma:contentTypeVersion="3" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1d9d48dd8293e3806cc8128788dc7591">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="90937ab4-9f3a-4840-8cd4-584cb9dae1db" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8defcec0cf3b60fb897fc7d90de816c1" ns2:_="">
     <xsd:import namespace="90937ab4-9f3a-4840-8cd4-584cb9dae1db"/>
@@ -12878,6 +12903,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -12888,15 +12919,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AEDC7CA4-BC55-4665-B0C3-C553BA3B5335}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37DBC317-4159-4409-B68E-EBF6721F329A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12914,6 +12936,15 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AEDC7CA4-BC55-4665-B0C3-C553BA3B5335}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2785286A-65E9-4423-9A34-AC506660010A}">
   <ds:schemaRefs>

--- a/Parametros_Finales.xlsx
+++ b/Parametros_Finales.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pedroirarrazaval/Desktop/Modelo-Capstone/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{458BCDC4-08A0-BF4C-9C27-C4302FABCC7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B94BF2E8-A287-E449-A46C-0EEECCFD64D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12460" yWindow="500" windowWidth="16340" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2917,7 +2917,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2944,7 +2944,7 @@
         <v>93</v>
       </c>
       <c r="B2" s="6">
-        <v>4800</v>
+        <v>1923</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>27</v>
@@ -2961,7 +2961,7 @@
         <v>107</v>
       </c>
       <c r="B3" s="6">
-        <v>5000</v>
+        <v>2307</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>27</v>
@@ -2978,7 +2978,7 @@
         <v>112</v>
       </c>
       <c r="B4" s="6">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>27</v>

--- a/Parametros_Finales.xlsx
+++ b/Parametros_Finales.xlsx
@@ -63220,7 +63220,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -63238,7 +63238,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -65908,148 +65908,148 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>27.52896249863221</v>
+        <v>14.66692182502717</v>
       </c>
       <c r="D3" t="n">
-        <v>17.1719861678182</v>
+        <v>19.70082511899603</v>
       </c>
       <c r="E3" t="n">
-        <v>21.84560612438369</v>
+        <v>71.45220504010308</v>
       </c>
       <c r="F3" t="n">
-        <v>27.3920105770839</v>
+        <v>19.7771375540409</v>
       </c>
       <c r="G3" t="n">
-        <v>10.2556681742101</v>
+        <v>68.42888760292534</v>
       </c>
       <c r="H3" t="n">
-        <v>19.68497479604437</v>
+        <v>41.95468748785302</v>
       </c>
       <c r="I3" t="n">
-        <v>7.461479753431075</v>
+        <v>70.32058334508238</v>
       </c>
       <c r="J3" t="n">
-        <v>21.11629254885083</v>
+        <v>95.55902604030445</v>
       </c>
       <c r="K3" t="n">
-        <v>105.7935000741623</v>
+        <v>48.0553935202588</v>
       </c>
       <c r="L3" t="n">
-        <v>23.60454267383604</v>
+        <v>40.43900145400633</v>
       </c>
       <c r="M3" t="n">
-        <v>30.58595848858382</v>
+        <v>213.2488153068679</v>
       </c>
       <c r="N3" t="n">
-        <v>22.06408655207596</v>
+        <v>37.0544140654065</v>
       </c>
       <c r="O3" t="n">
-        <v>29.53538765471</v>
+        <v>39.41020877398722</v>
       </c>
       <c r="P3" t="n">
-        <v>90.75910737771449</v>
+        <v>55.04638398510847</v>
       </c>
       <c r="Q3" t="n">
-        <v>49.907062693737</v>
+        <v>81.52576113528207</v>
       </c>
       <c r="R3" t="n">
-        <v>86.35630923615531</v>
+        <v>19.27427187462105</v>
       </c>
       <c r="S3" t="n">
-        <v>27.59676442630259</v>
+        <v>71.34487474233023</v>
       </c>
       <c r="T3" t="n">
-        <v>23.70781536689896</v>
+        <v>37.91962090546359</v>
       </c>
       <c r="U3" t="n">
-        <v>42.02222880802499</v>
+        <v>19.28098108390932</v>
       </c>
       <c r="V3" t="n">
-        <v>41.84832115498386</v>
+        <v>55.66820835867413</v>
       </c>
       <c r="W3" t="n">
-        <v>67.96093588163875</v>
+        <v>69.10918002335669</v>
       </c>
       <c r="X3" t="n">
-        <v>87.67152370542122</v>
+        <v>57.30025840674109</v>
       </c>
       <c r="Y3" t="n">
-        <v>104.4923488166587</v>
+        <v>74.69754022783735</v>
       </c>
       <c r="Z3" t="n">
-        <v>107.9833221481955</v>
+        <v>52.35262402861587</v>
       </c>
       <c r="AA3" t="n">
-        <v>48.49847479535657</v>
+        <v>108.8048995245257</v>
       </c>
       <c r="AB3" t="n">
-        <v>125.0689644239536</v>
+        <v>98.67983383192187</v>
       </c>
       <c r="AC3" t="n">
-        <v>103.448775383208</v>
+        <v>105.4048263844914</v>
       </c>
       <c r="AD3" t="n">
-        <v>95.81658503225408</v>
+        <v>185.2988632882627</v>
       </c>
       <c r="AE3" t="n">
-        <v>157.8265597803841</v>
+        <v>108.5673589941871</v>
       </c>
       <c r="AF3" t="n">
-        <v>28.05175658481666</v>
+        <v>169.8425903070112</v>
       </c>
       <c r="AG3" t="n">
-        <v>164.3674939321645</v>
+        <v>182.7396577118661</v>
       </c>
       <c r="AH3" t="n">
-        <v>28.55024861364836</v>
+        <v>83.80285161058873</v>
       </c>
       <c r="AI3" t="n">
-        <v>113.7622015462458</v>
+        <v>80.87295623526586</v>
       </c>
       <c r="AJ3" t="n">
-        <v>133.8798431889718</v>
+        <v>82.59224090261462</v>
       </c>
       <c r="AK3" t="n">
-        <v>38.60046148136438</v>
+        <v>31.9147023888172</v>
       </c>
       <c r="AL3" t="n">
-        <v>36.53404477196508</v>
+        <v>50.29050929002576</v>
       </c>
       <c r="AM3" t="n">
-        <v>19.67805740440994</v>
+        <v>35.30465431966898</v>
       </c>
       <c r="AN3" t="n">
-        <v>37.84404813032473</v>
+        <v>19.86501252567705</v>
       </c>
       <c r="AO3" t="n">
-        <v>34.87397922618154</v>
+        <v>48.71925495181615</v>
       </c>
       <c r="AP3" t="n">
-        <v>26.72784217625677</v>
+        <v>38.88043904197787</v>
       </c>
       <c r="AQ3" t="n">
-        <v>22.36205726482657</v>
+        <v>23.37756988665694</v>
       </c>
       <c r="AR3" t="n">
-        <v>25.29201908530942</v>
+        <v>16.14659027187303</v>
       </c>
       <c r="AS3" t="n">
-        <v>19.04835198915258</v>
+        <v>24.83771343289492</v>
       </c>
       <c r="AT3" t="n">
-        <v>22.04720042393198</v>
+        <v>19.97403939007943</v>
       </c>
       <c r="AU3" t="n">
-        <v>26.53620514144054</v>
+        <v>24.52261033073713</v>
       </c>
       <c r="AV3" t="n">
-        <v>25.39390644338883</v>
+        <v>31.26971496926692</v>
       </c>
       <c r="AW3" t="n">
-        <v>25.6444776769859</v>
+        <v>24.97243432825424</v>
       </c>
       <c r="AX3" t="n">
-        <v>20.86138538449975</v>
+        <v>18.56998664119703</v>
       </c>
     </row>
     <row r="4">
@@ -66062,148 +66062,148 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5.77271451713558</v>
+        <v>2.456340351000247</v>
       </c>
       <c r="D4" t="n">
-        <v>2.519176832359004</v>
+        <v>22.70982661968063</v>
       </c>
       <c r="E4" t="n">
-        <v>2.692579445428129</v>
+        <v>3.311444606010316</v>
       </c>
       <c r="F4" t="n">
-        <v>2.278223221697359</v>
+        <v>3.879877242545223</v>
       </c>
       <c r="G4" t="n">
-        <v>1.636519491732807</v>
+        <v>0.4106690462414463</v>
       </c>
       <c r="H4" t="n">
-        <v>2.017417193896539</v>
+        <v>1.259346649105027</v>
       </c>
       <c r="I4" t="n">
-        <v>7.466413309049428</v>
+        <v>7.161380210985513</v>
       </c>
       <c r="J4" t="n">
-        <v>2.315444733903982</v>
+        <v>27.38923806763699</v>
       </c>
       <c r="K4" t="n">
-        <v>2.339073249021733</v>
+        <v>2.312784266012483</v>
       </c>
       <c r="L4" t="n">
-        <v>9.967790006843018</v>
+        <v>1.894141278932569</v>
       </c>
       <c r="M4" t="n">
-        <v>5.150009971408671</v>
+        <v>1.095124639399448</v>
       </c>
       <c r="N4" t="n">
-        <v>4.64278151975526</v>
+        <v>1.049871696572038</v>
       </c>
       <c r="O4" t="n">
-        <v>4.375383698405603</v>
+        <v>0.7663058067494917</v>
       </c>
       <c r="P4" t="n">
-        <v>2.142455982793177</v>
+        <v>2.799274683745474</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.591182652948335</v>
+        <v>11.07807636852949</v>
       </c>
       <c r="R4" t="n">
-        <v>3.638981045299279</v>
+        <v>3.018528565667648</v>
       </c>
       <c r="S4" t="n">
-        <v>3.451174164597331</v>
+        <v>4.217708841362291</v>
       </c>
       <c r="T4" t="n">
-        <v>7.379042940148307</v>
+        <v>2.184442569712625</v>
       </c>
       <c r="U4" t="n">
-        <v>4.141220865914681</v>
+        <v>17.02707964865625</v>
       </c>
       <c r="V4" t="n">
-        <v>4.730603808443738</v>
+        <v>3.92701825324358</v>
       </c>
       <c r="W4" t="n">
-        <v>6.104051844225062</v>
+        <v>2.434381922901838</v>
       </c>
       <c r="X4" t="n">
-        <v>2.596395636914016</v>
+        <v>3.614612498076227</v>
       </c>
       <c r="Y4" t="n">
-        <v>4.126463061362672</v>
+        <v>4.246071618487396</v>
       </c>
       <c r="Z4" t="n">
-        <v>3.781125995708755</v>
+        <v>4.057366682130208</v>
       </c>
       <c r="AA4" t="n">
-        <v>5.348028871368796</v>
+        <v>4.549895723387031</v>
       </c>
       <c r="AB4" t="n">
-        <v>6.883982512787758</v>
+        <v>4.213471586360689</v>
       </c>
       <c r="AC4" t="n">
-        <v>4.590484490336888</v>
+        <v>4.148429835638512</v>
       </c>
       <c r="AD4" t="n">
-        <v>3.548554632696934</v>
+        <v>4.59934488671492</v>
       </c>
       <c r="AE4" t="n">
-        <v>4.716271362300938</v>
+        <v>3.751517201188253</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.668413508043375</v>
+        <v>3.999036203604063</v>
       </c>
       <c r="AG4" t="n">
-        <v>5.606073377540284</v>
+        <v>3.748235325848051</v>
       </c>
       <c r="AH4" t="n">
-        <v>8.030468443007228</v>
+        <v>3.660286413060469</v>
       </c>
       <c r="AI4" t="n">
-        <v>3.945804140657801</v>
+        <v>5.388485924670225</v>
       </c>
       <c r="AJ4" t="n">
-        <v>6.258060395089825</v>
+        <v>7.060528178678545</v>
       </c>
       <c r="AK4" t="n">
-        <v>6.404929835613037</v>
+        <v>7.081331045002587</v>
       </c>
       <c r="AL4" t="n">
-        <v>5.250377854812492</v>
+        <v>3.130705489019117</v>
       </c>
       <c r="AM4" t="n">
-        <v>4.083284004632608</v>
+        <v>1.560914984699554</v>
       </c>
       <c r="AN4" t="n">
-        <v>2.430247390800155</v>
+        <v>2.066680589713127</v>
       </c>
       <c r="AO4" t="n">
-        <v>2.697502941927576</v>
+        <v>1.826822199915176</v>
       </c>
       <c r="AP4" t="n">
-        <v>2.682248347663333</v>
+        <v>3.154413705256774</v>
       </c>
       <c r="AQ4" t="n">
-        <v>4.107126507231071</v>
+        <v>0.7990596742125945</v>
       </c>
       <c r="AR4" t="n">
-        <v>4.053993746621367</v>
+        <v>5.333450874384082</v>
       </c>
       <c r="AS4" t="n">
-        <v>2.619321639854697</v>
+        <v>2.044403706394326</v>
       </c>
       <c r="AT4" t="n">
-        <v>6.422414022042227</v>
+        <v>1.073263462672476</v>
       </c>
       <c r="AU4" t="n">
-        <v>0.03693088770429429</v>
+        <v>3.688463576933396</v>
       </c>
       <c r="AV4" t="n">
-        <v>2.83766866763952</v>
+        <v>11.02845990082651</v>
       </c>
       <c r="AW4" t="n">
-        <v>5.982359087714822</v>
+        <v>0.3365131831208453</v>
       </c>
       <c r="AX4" t="n">
-        <v>1.945</v>
+        <v>10.29933638052016</v>
       </c>
     </row>
     <row r="5">
@@ -66216,148 +66216,148 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>9.283932501834187</v>
+        <v>10.12102260674634</v>
       </c>
       <c r="D5" t="n">
-        <v>15.16540708422687</v>
+        <v>8.505436675001665</v>
       </c>
       <c r="E5" t="n">
-        <v>10.67448753788686</v>
+        <v>10.8578942362149</v>
       </c>
       <c r="F5" t="n">
-        <v>5.407241119725395</v>
+        <v>14.58234430323402</v>
       </c>
       <c r="G5" t="n">
-        <v>94.82356422896127</v>
+        <v>31.35371826826901</v>
       </c>
       <c r="H5" t="n">
-        <v>29.29741232348775</v>
+        <v>28.40759250197809</v>
       </c>
       <c r="I5" t="n">
-        <v>76.74972762059153</v>
+        <v>16.28210200616345</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7188272181434</v>
+        <v>1162.482271933773</v>
       </c>
       <c r="K5" t="n">
-        <v>103.7607615131816</v>
+        <v>63.69416120674445</v>
       </c>
       <c r="L5" t="n">
-        <v>70.78979807151852</v>
+        <v>47.78153522074653</v>
       </c>
       <c r="M5" t="n">
-        <v>43.10775336762831</v>
+        <v>47.97656814210343</v>
       </c>
       <c r="N5" t="n">
-        <v>78.32670325444819</v>
+        <v>102.5857723403451</v>
       </c>
       <c r="O5" t="n">
-        <v>65.94881176759446</v>
+        <v>229.1677288966857</v>
       </c>
       <c r="P5" t="n">
-        <v>54.92496659920047</v>
+        <v>14.6759245149391</v>
       </c>
       <c r="Q5" t="n">
-        <v>56.77609243139815</v>
+        <v>39.05032257657647</v>
       </c>
       <c r="R5" t="n">
-        <v>106.5671543312313</v>
+        <v>14.85021224878172</v>
       </c>
       <c r="S5" t="n">
-        <v>90.75027476944905</v>
+        <v>68.32879820832051</v>
       </c>
       <c r="T5" t="n">
-        <v>59.3623800131647</v>
+        <v>51.88924843931478</v>
       </c>
       <c r="U5" t="n">
-        <v>53.35401160105594</v>
+        <v>22.56598403539878</v>
       </c>
       <c r="V5" t="n">
-        <v>124.5653049197013</v>
+        <v>54.96798516171107</v>
       </c>
       <c r="W5" t="n">
-        <v>105.6360086066457</v>
+        <v>41.98582062014298</v>
       </c>
       <c r="X5" t="n">
-        <v>48.68616420331844</v>
+        <v>47.50683772586236</v>
       </c>
       <c r="Y5" t="n">
-        <v>85.20754229962394</v>
+        <v>100.7267236835867</v>
       </c>
       <c r="Z5" t="n">
-        <v>40.53064754932345</v>
+        <v>30.15734959440613</v>
       </c>
       <c r="AA5" t="n">
-        <v>92.45129695696578</v>
+        <v>73.86187118339369</v>
       </c>
       <c r="AB5" t="n">
-        <v>51.50667639760618</v>
+        <v>51.50903072022435</v>
       </c>
       <c r="AC5" t="n">
-        <v>120.3686079398096</v>
+        <v>29.33450503581813</v>
       </c>
       <c r="AD5" t="n">
-        <v>88.75064345915696</v>
+        <v>83.6669470458869</v>
       </c>
       <c r="AE5" t="n">
-        <v>47.27999356619065</v>
+        <v>113.8711133361683</v>
       </c>
       <c r="AF5" t="n">
-        <v>55.35658484385594</v>
+        <v>48.19751727539417</v>
       </c>
       <c r="AG5" t="n">
-        <v>38.34736306741647</v>
+        <v>95.85128039661956</v>
       </c>
       <c r="AH5" t="n">
-        <v>32.91135852612494</v>
+        <v>38.34430366495786</v>
       </c>
       <c r="AI5" t="n">
-        <v>37.76695623894612</v>
+        <v>150.6134189331054</v>
       </c>
       <c r="AJ5" t="n">
-        <v>55.44350453959782</v>
+        <v>46.11388777084198</v>
       </c>
       <c r="AK5" t="n">
-        <v>36.59443515863691</v>
+        <v>28.4557576066189</v>
       </c>
       <c r="AL5" t="n">
-        <v>20.68201899529531</v>
+        <v>28.65196715453586</v>
       </c>
       <c r="AM5" t="n">
-        <v>25.06591774718699</v>
+        <v>45.80872681700861</v>
       </c>
       <c r="AN5" t="n">
-        <v>24.86346074842639</v>
+        <v>11.65525334600885</v>
       </c>
       <c r="AO5" t="n">
-        <v>47.58011697292384</v>
+        <v>24.36116366895188</v>
       </c>
       <c r="AP5" t="n">
-        <v>18.83700847502693</v>
+        <v>21.39359456104998</v>
       </c>
       <c r="AQ5" t="n">
-        <v>28.63395029308322</v>
+        <v>35.59743154741993</v>
       </c>
       <c r="AR5" t="n">
-        <v>9.038048018406673</v>
+        <v>24.92581853587116</v>
       </c>
       <c r="AS5" t="n">
-        <v>7.692462493105824</v>
+        <v>26.72054051591978</v>
       </c>
       <c r="AT5" t="n">
-        <v>17.19499534327597</v>
+        <v>18.50984929914824</v>
       </c>
       <c r="AU5" t="n">
-        <v>9.935495785241866</v>
+        <v>15.88052002478428</v>
       </c>
       <c r="AV5" t="n">
-        <v>5.94405</v>
+        <v>13.1880472466047</v>
       </c>
       <c r="AW5" t="n">
-        <v>9.827888202314462</v>
+        <v>10.5770950269977</v>
       </c>
       <c r="AX5" t="n">
-        <v>7.011340540961548</v>
+        <v>7.840417142139768</v>
       </c>
     </row>
     <row r="6">
@@ -66370,148 +66370,148 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>10.71093653235864</v>
+        <v>10.76551031922467</v>
       </c>
       <c r="D6" t="n">
-        <v>14.19121846935174</v>
+        <v>17.36693713629161</v>
       </c>
       <c r="E6" t="n">
-        <v>30.83063403500807</v>
+        <v>43.42373102381831</v>
       </c>
       <c r="F6" t="n">
-        <v>0.003452031706557612</v>
+        <v>7.488152826912737</v>
       </c>
       <c r="G6" t="n">
-        <v>28.14308495295175</v>
+        <v>29.21970523645125</v>
       </c>
       <c r="H6" t="n">
-        <v>22.38239983666493</v>
+        <v>18.54721296829047</v>
       </c>
       <c r="I6" t="n">
-        <v>29.11814441596209</v>
+        <v>41.20306535619326</v>
       </c>
       <c r="J6" t="n">
-        <v>44.70095920652794</v>
+        <v>82.9972470313843</v>
       </c>
       <c r="K6" t="n">
-        <v>26.0573205632851</v>
+        <v>111.0212764217508</v>
       </c>
       <c r="L6" t="n">
-        <v>59.04197424023734</v>
+        <v>17.81770064093696</v>
       </c>
       <c r="M6" t="n">
-        <v>42.9968035827989</v>
+        <v>70.84466029182489</v>
       </c>
       <c r="N6" t="n">
-        <v>77.09366828129512</v>
+        <v>81.61986366371552</v>
       </c>
       <c r="O6" t="n">
-        <v>76.85633612570943</v>
+        <v>16.30337063059734</v>
       </c>
       <c r="P6" t="n">
-        <v>19.10124848813992</v>
+        <v>25.87235240397626</v>
       </c>
       <c r="Q6" t="n">
-        <v>19.66956703549058</v>
+        <v>130.010627995857</v>
       </c>
       <c r="R6" t="n">
-        <v>25.2462335621059</v>
+        <v>36.09395776076451</v>
       </c>
       <c r="S6" t="n">
-        <v>12.804004466933</v>
+        <v>81.37052894379455</v>
       </c>
       <c r="T6" t="n">
-        <v>54.24303745206528</v>
+        <v>20.6502481757575</v>
       </c>
       <c r="U6" t="n">
-        <v>22.2271469423378</v>
+        <v>23.92555788003193</v>
       </c>
       <c r="V6" t="n">
-        <v>43.2372079800719</v>
+        <v>36.00183080983686</v>
       </c>
       <c r="W6" t="n">
-        <v>39.38335829901108</v>
+        <v>49.15859166553898</v>
       </c>
       <c r="X6" t="n">
-        <v>108.5258803498454</v>
+        <v>55.63165757856616</v>
       </c>
       <c r="Y6" t="n">
-        <v>31.34375219913309</v>
+        <v>70.65260867800436</v>
       </c>
       <c r="Z6" t="n">
-        <v>52.80810889765005</v>
+        <v>36.41409366394902</v>
       </c>
       <c r="AA6" t="n">
-        <v>19.32930820757073</v>
+        <v>98.83341961091654</v>
       </c>
       <c r="AB6" t="n">
-        <v>33.81735750555394</v>
+        <v>16.28168954049784</v>
       </c>
       <c r="AC6" t="n">
-        <v>25.83105918534343</v>
+        <v>7.920934729494014</v>
       </c>
       <c r="AD6" t="n">
-        <v>28.40488360069805</v>
+        <v>24.81758249787481</v>
       </c>
       <c r="AE6" t="n">
-        <v>56.2342829628857</v>
+        <v>29.19295305237479</v>
       </c>
       <c r="AF6" t="n">
-        <v>32.15553472183807</v>
+        <v>59.65491504813851</v>
       </c>
       <c r="AG6" t="n">
-        <v>0</v>
+        <v>76.71604761349512</v>
       </c>
       <c r="AH6" t="n">
-        <v>23.85273772590844</v>
+        <v>66.81184632908386</v>
       </c>
       <c r="AI6" t="n">
-        <v>22.08593904350622</v>
+        <v>23.90778543195943</v>
       </c>
       <c r="AJ6" t="n">
-        <v>23.61995045860251</v>
+        <v>16.2303113114315</v>
       </c>
       <c r="AK6" t="n">
-        <v>13.57076650882996</v>
+        <v>4.764297532373719</v>
       </c>
       <c r="AL6" t="n">
-        <v>31.33673040751156</v>
+        <v>26.52942037635394</v>
       </c>
       <c r="AM6" t="n">
-        <v>7.752495142857141</v>
+        <v>29.267486455225</v>
       </c>
       <c r="AN6" t="n">
-        <v>8.507579404428725</v>
+        <v>5.818670252172331</v>
       </c>
       <c r="AO6" t="n">
-        <v>19.06931234815834</v>
+        <v>23.50505539000698</v>
       </c>
       <c r="AP6" t="n">
-        <v>24.17576667672956</v>
+        <v>13.70335242153943</v>
       </c>
       <c r="AQ6" t="n">
-        <v>44.18123243335264</v>
+        <v>58.25758932057641</v>
       </c>
       <c r="AR6" t="n">
-        <v>5.231153188958706</v>
+        <v>17.61429250477958</v>
       </c>
       <c r="AS6" t="n">
-        <v>13.06344795535026</v>
+        <v>17.77287489113587</v>
       </c>
       <c r="AT6" t="n">
-        <v>38.65886790081698</v>
+        <v>22.27209958446027</v>
       </c>
       <c r="AU6" t="n">
-        <v>28.76506086316268</v>
+        <v>56.83154663623527</v>
       </c>
       <c r="AV6" t="n">
-        <v>7.745055429972685</v>
+        <v>16.37777839848827</v>
       </c>
       <c r="AW6" t="n">
-        <v>24.05157836988653</v>
+        <v>12.52779623581227</v>
       </c>
       <c r="AX6" t="n">
-        <v>19.48629493614937</v>
+        <v>78.40545988266933</v>
       </c>
     </row>
     <row r="7">
@@ -66524,148 +66524,148 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2.614318574271985</v>
+        <v>1.715308109591062</v>
       </c>
       <c r="D7" t="n">
-        <v>1.185241012680291</v>
+        <v>3.938738780566648</v>
       </c>
       <c r="E7" t="n">
-        <v>1.191717099931441</v>
+        <v>1.504226360080784</v>
       </c>
       <c r="F7" t="n">
-        <v>5.647418691700723</v>
+        <v>4.02569031160616</v>
       </c>
       <c r="G7" t="n">
-        <v>15.36088428249599</v>
+        <v>13.68448330499862</v>
       </c>
       <c r="H7" t="n">
-        <v>19.2715551194675</v>
+        <v>6.743410238033832</v>
       </c>
       <c r="I7" t="n">
-        <v>8.546351035233254</v>
+        <v>5.004380059068684</v>
       </c>
       <c r="J7" t="n">
-        <v>9.991090079747289</v>
+        <v>11.74211480984576</v>
       </c>
       <c r="K7" t="n">
-        <v>16.05314436323822</v>
+        <v>27.09705184899978</v>
       </c>
       <c r="L7" t="n">
-        <v>20.139349443439</v>
+        <v>22.11301612957952</v>
       </c>
       <c r="M7" t="n">
-        <v>44.56801502905748</v>
+        <v>7.223767509240761</v>
       </c>
       <c r="N7" t="n">
-        <v>11.43638846532535</v>
+        <v>19.16154291070581</v>
       </c>
       <c r="O7" t="n">
-        <v>31.55353720443851</v>
+        <v>61.83165153457626</v>
       </c>
       <c r="P7" t="n">
-        <v>47.21720738199723</v>
+        <v>18.5308722032937</v>
       </c>
       <c r="Q7" t="n">
-        <v>8.131406572441005</v>
+        <v>20.20922430519488</v>
       </c>
       <c r="R7" t="n">
-        <v>17.3777977134353</v>
+        <v>16.84981470548032</v>
       </c>
       <c r="S7" t="n">
-        <v>31.73714285714286</v>
+        <v>21.96783432716806</v>
       </c>
       <c r="T7" t="n">
-        <v>18.96342013422263</v>
+        <v>15.62981452109</v>
       </c>
       <c r="U7" t="n">
-        <v>13.17291719396289</v>
+        <v>18.25783362650121</v>
       </c>
       <c r="V7" t="n">
-        <v>30.88176178877798</v>
+        <v>33.11411499604328</v>
       </c>
       <c r="W7" t="n">
-        <v>8.179714285714285</v>
+        <v>50.55535463901433</v>
       </c>
       <c r="X7" t="n">
-        <v>14.65159427090048</v>
+        <v>11.99359859811526</v>
       </c>
       <c r="Y7" t="n">
-        <v>13.64327478140243</v>
+        <v>31.92909885438997</v>
       </c>
       <c r="Z7" t="n">
-        <v>7.232208514090219</v>
+        <v>27.99329397782244</v>
       </c>
       <c r="AA7" t="n">
-        <v>16.30888301689879</v>
+        <v>21.87884582460925</v>
       </c>
       <c r="AB7" t="n">
-        <v>41.66336131050137</v>
+        <v>28.10059866297782</v>
       </c>
       <c r="AC7" t="n">
-        <v>62.407398674151</v>
+        <v>21.20518715661576</v>
       </c>
       <c r="AD7" t="n">
-        <v>15.47085457708814</v>
+        <v>14.08556624895615</v>
       </c>
       <c r="AE7" t="n">
-        <v>27.7119606277658</v>
+        <v>39.24964039345556</v>
       </c>
       <c r="AF7" t="n">
-        <v>19.98888661760824</v>
+        <v>14.47237745740437</v>
       </c>
       <c r="AG7" t="n">
-        <v>31.02353069824231</v>
+        <v>16.81660052042524</v>
       </c>
       <c r="AH7" t="n">
-        <v>19.1422806604814</v>
+        <v>9.801231667148242</v>
       </c>
       <c r="AI7" t="n">
-        <v>6.414136322456334</v>
+        <v>25.0380358412657</v>
       </c>
       <c r="AJ7" t="n">
-        <v>14.07384259976392</v>
+        <v>12.19952704392768</v>
       </c>
       <c r="AK7" t="n">
-        <v>14.79073217503021</v>
+        <v>4.845854395781345</v>
       </c>
       <c r="AL7" t="n">
-        <v>4.839324211310766</v>
+        <v>11.7327207547206</v>
       </c>
       <c r="AM7" t="n">
-        <v>7.197017320620321</v>
+        <v>7.760803191844801</v>
       </c>
       <c r="AN7" t="n">
-        <v>2.480416005640754</v>
+        <v>4.67870889305129</v>
       </c>
       <c r="AO7" t="n">
-        <v>7.084279221193371</v>
+        <v>2.290388385100706</v>
       </c>
       <c r="AP7" t="n">
-        <v>3.008183646458544</v>
+        <v>6.060391975312942</v>
       </c>
       <c r="AQ7" t="n">
-        <v>5.403102933774844</v>
+        <v>1.258312557496369</v>
       </c>
       <c r="AR7" t="n">
-        <v>7.372412146799427</v>
+        <v>2.169671694955505</v>
       </c>
       <c r="AS7" t="n">
-        <v>4.710927162893101</v>
+        <v>3.396245994659177</v>
       </c>
       <c r="AT7" t="n">
-        <v>3.812724914233631</v>
+        <v>1.635402325617282</v>
       </c>
       <c r="AU7" t="n">
-        <v>12.60973042461757</v>
+        <v>7.776350806281578</v>
       </c>
       <c r="AV7" t="n">
-        <v>2.128696176050547</v>
+        <v>0.6819921530631377</v>
       </c>
       <c r="AW7" t="n">
-        <v>1.354980194980779</v>
+        <v>1.170914853371694</v>
       </c>
       <c r="AX7" t="n">
-        <v>2.930539094111506</v>
+        <v>9.044167525423184</v>
       </c>
     </row>
     <row r="8">
@@ -66678,148 +66678,148 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>9.460000000000001</v>
+        <v>2.672521545338999</v>
       </c>
       <c r="D8" t="n">
-        <v>17.9</v>
+        <v>51.14096079622126</v>
       </c>
       <c r="E8" t="n">
-        <v>14.18</v>
+        <v>16.71870645129171</v>
       </c>
       <c r="F8" t="n">
-        <v>11.35</v>
+        <v>22.25311983626041</v>
       </c>
       <c r="G8" t="n">
-        <v>20.47</v>
+        <v>24.74550459324007</v>
       </c>
       <c r="H8" t="n">
-        <v>1.78</v>
+        <v>5.353275603368794</v>
       </c>
       <c r="I8" t="n">
-        <v>27.08</v>
+        <v>14.10151251901317</v>
       </c>
       <c r="J8" t="n">
-        <v>21.45</v>
+        <v>37.72269774017228</v>
       </c>
       <c r="K8" t="n">
-        <v>50.3</v>
+        <v>10.5157253075074</v>
       </c>
       <c r="L8" t="n">
-        <v>28.7</v>
+        <v>66.12168255283592</v>
       </c>
       <c r="M8" t="n">
-        <v>32.47</v>
+        <v>189.0815454852766</v>
       </c>
       <c r="N8" t="n">
-        <v>38.6</v>
+        <v>44.8725601367323</v>
       </c>
       <c r="O8" t="n">
-        <v>30.39</v>
+        <v>44.06562469085588</v>
       </c>
       <c r="P8" t="n">
-        <v>67.03</v>
+        <v>13.27330925292128</v>
       </c>
       <c r="Q8" t="n">
-        <v>60.1</v>
+        <v>41.60582444790453</v>
       </c>
       <c r="R8" t="n">
-        <v>33.81</v>
+        <v>8.587541857124409</v>
       </c>
       <c r="S8" t="n">
-        <v>25.16</v>
+        <v>61.63431135868841</v>
       </c>
       <c r="T8" t="n">
-        <v>10.68</v>
+        <v>16.82872688839157</v>
       </c>
       <c r="U8" t="n">
-        <v>83.54000000000001</v>
+        <v>9.258404502770462</v>
       </c>
       <c r="V8" t="n">
-        <v>1</v>
+        <v>13.39588059450229</v>
       </c>
       <c r="W8" t="n">
-        <v>2.42</v>
+        <v>11.8425552594201</v>
       </c>
       <c r="X8" t="n">
-        <v>126.96875</v>
+        <v>10.80792509611458</v>
       </c>
       <c r="Y8" t="n">
-        <v>10.33903554973049</v>
+        <v>18.21336474202738</v>
       </c>
       <c r="Z8" t="n">
-        <v>4.27</v>
+        <v>15.92290544916241</v>
       </c>
       <c r="AA8" t="n">
-        <v>32.36</v>
+        <v>13.27515525187976</v>
       </c>
       <c r="AB8" t="n">
-        <v>52.29</v>
+        <v>12.59474316486341</v>
       </c>
       <c r="AC8" t="n">
-        <v>8.504221103961719</v>
+        <v>7.276728804911464</v>
       </c>
       <c r="AD8" t="n">
-        <v>10.26</v>
+        <v>9.513322732040359</v>
       </c>
       <c r="AE8" t="n">
-        <v>8.27</v>
+        <v>7.544154417336695</v>
       </c>
       <c r="AF8" t="n">
-        <v>20.67</v>
+        <v>7.013536917843264</v>
       </c>
       <c r="AG8" t="n">
-        <v>13.94</v>
+        <v>10.57244134526563</v>
       </c>
       <c r="AH8" t="n">
-        <v>3.23</v>
+        <v>3.652540981031073</v>
       </c>
       <c r="AI8" t="n">
-        <v>9.65</v>
+        <v>42.16774250423664</v>
       </c>
       <c r="AJ8" t="n">
-        <v>9.83</v>
+        <v>0.547281389774257</v>
       </c>
       <c r="AK8" t="n">
-        <v>2.21</v>
+        <v>53.27035043032708</v>
       </c>
       <c r="AL8" t="n">
-        <v>2.92</v>
+        <v>38.468756102792</v>
       </c>
       <c r="AM8" t="n">
-        <v>4.85</v>
+        <v>3.736251503471286</v>
       </c>
       <c r="AN8" t="n">
-        <v>14.85</v>
+        <v>15.7831306470215</v>
       </c>
       <c r="AO8" t="n">
-        <v>7.64</v>
+        <v>25.76652859072656</v>
       </c>
       <c r="AP8" t="n">
-        <v>14.85</v>
+        <v>1.935906734848303</v>
       </c>
       <c r="AQ8" t="n">
-        <v>1</v>
+        <v>0.4983790887943618</v>
       </c>
       <c r="AR8" t="n">
-        <v>2.854359925788498</v>
+        <v>3.301023297422496</v>
       </c>
       <c r="AS8" t="n">
-        <v>11.02</v>
+        <v>2.957560649356116</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.59</v>
+        <v>8.304864324775844</v>
       </c>
       <c r="AU8" t="n">
-        <v>1.84</v>
+        <v>30.41603088755982</v>
       </c>
       <c r="AV8" t="n">
-        <v>1.97</v>
+        <v>1.176878167177212</v>
       </c>
       <c r="AW8" t="n">
-        <v>11</v>
+        <v>13.26597565131732</v>
       </c>
       <c r="AX8" t="n">
-        <v>12.94</v>
+        <v>2.771660399786657</v>
       </c>
     </row>
     <row r="9">
@@ -66832,148 +66832,148 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>20.06925278378606</v>
+        <v>19.70933514922612</v>
       </c>
       <c r="D9" t="n">
-        <v>19.54575779076989</v>
+        <v>18.36037936282039</v>
       </c>
       <c r="E9" t="n">
-        <v>20.9137444510737</v>
+        <v>17.4274673196757</v>
       </c>
       <c r="F9" t="n">
-        <v>32.48084539460153</v>
+        <v>93.52595564086052</v>
       </c>
       <c r="G9" t="n">
-        <v>18.38081036307453</v>
+        <v>53.19881507718281</v>
       </c>
       <c r="H9" t="n">
-        <v>17.36577953538166</v>
+        <v>30.45286304526851</v>
       </c>
       <c r="I9" t="n">
-        <v>344.8507385517119</v>
+        <v>37.4545275381882</v>
       </c>
       <c r="J9" t="n">
-        <v>38.89873096315214</v>
+        <v>409.8562621922295</v>
       </c>
       <c r="K9" t="n">
-        <v>112.0329370977575</v>
+        <v>68.08054574843149</v>
       </c>
       <c r="L9" t="n">
-        <v>16.74194863974772</v>
+        <v>66.67063741879649</v>
       </c>
       <c r="M9" t="n">
-        <v>16.16058981326202</v>
+        <v>123.2805749441167</v>
       </c>
       <c r="N9" t="n">
-        <v>110.5520300519574</v>
+        <v>52.06406295192439</v>
       </c>
       <c r="O9" t="n">
-        <v>144.7803011867098</v>
+        <v>304.5319252244708</v>
       </c>
       <c r="P9" t="n">
-        <v>194.3362136993567</v>
+        <v>117.5240047233089</v>
       </c>
       <c r="Q9" t="n">
-        <v>56.13558137219615</v>
+        <v>95.70014946675204</v>
       </c>
       <c r="R9" t="n">
-        <v>77.73013832985794</v>
+        <v>94.96566403102644</v>
       </c>
       <c r="S9" t="n">
-        <v>92.19783234983574</v>
+        <v>37.20969212618179</v>
       </c>
       <c r="T9" t="n">
-        <v>40.07791328081171</v>
+        <v>77.45863025547314</v>
       </c>
       <c r="U9" t="n">
-        <v>53.19100182087713</v>
+        <v>59.5139224306402</v>
       </c>
       <c r="V9" t="n">
-        <v>174.7819444936817</v>
+        <v>51.60322399803179</v>
       </c>
       <c r="W9" t="n">
-        <v>38.311288498449</v>
+        <v>49.03479515814355</v>
       </c>
       <c r="X9" t="n">
-        <v>190.4824048214074</v>
+        <v>115.0750956413945</v>
       </c>
       <c r="Y9" t="n">
-        <v>86.93610190304207</v>
+        <v>82.12957447756594</v>
       </c>
       <c r="Z9" t="n">
-        <v>49.58615751214796</v>
+        <v>48.44487138498</v>
       </c>
       <c r="AA9" t="n">
-        <v>95.47843436237184</v>
+        <v>102.2266591259832</v>
       </c>
       <c r="AB9" t="n">
-        <v>132.1782586981354</v>
+        <v>123.8580549277424</v>
       </c>
       <c r="AC9" t="n">
-        <v>91.27269318259494</v>
+        <v>124.9780300891133</v>
       </c>
       <c r="AD9" t="n">
-        <v>98.80893633734684</v>
+        <v>126.9527288152755</v>
       </c>
       <c r="AE9" t="n">
-        <v>55.03494428090943</v>
+        <v>50.28026062577123</v>
       </c>
       <c r="AF9" t="n">
-        <v>117.8364220936629</v>
+        <v>115.7799807654326</v>
       </c>
       <c r="AG9" t="n">
-        <v>141.3743983904823</v>
+        <v>139.7855004011837</v>
       </c>
       <c r="AH9" t="n">
-        <v>114.2887890577091</v>
+        <v>134.7377898180007</v>
       </c>
       <c r="AI9" t="n">
-        <v>39.50835320565558</v>
+        <v>63.3550858765481</v>
       </c>
       <c r="AJ9" t="n">
-        <v>74.49115717949603</v>
+        <v>52.72889992267102</v>
       </c>
       <c r="AK9" t="n">
-        <v>36.52670391475018</v>
+        <v>36.6028944443078</v>
       </c>
       <c r="AL9" t="n">
-        <v>37.94210207307724</v>
+        <v>80.10393300681265</v>
       </c>
       <c r="AM9" t="n">
-        <v>26.52609968723878</v>
+        <v>44.42884897286374</v>
       </c>
       <c r="AN9" t="n">
-        <v>36.86199999999999</v>
+        <v>69.9223821800897</v>
       </c>
       <c r="AO9" t="n">
-        <v>56.5045443153544</v>
+        <v>95.11718668526478</v>
       </c>
       <c r="AP9" t="n">
-        <v>22.36330512450368</v>
+        <v>30.79494254086759</v>
       </c>
       <c r="AQ9" t="n">
-        <v>20.20445816834264</v>
+        <v>16.66178350995372</v>
       </c>
       <c r="AR9" t="n">
-        <v>25.34691920038222</v>
+        <v>16.22153945700289</v>
       </c>
       <c r="AS9" t="n">
-        <v>20.90350967130698</v>
+        <v>23.1794130418538</v>
       </c>
       <c r="AT9" t="n">
-        <v>23.50738664515814</v>
+        <v>20.51229438859427</v>
       </c>
       <c r="AU9" t="n">
-        <v>16.73518576205965</v>
+        <v>20.67667427080665</v>
       </c>
       <c r="AV9" t="n">
-        <v>21.75201662723719</v>
+        <v>27.9582222850342</v>
       </c>
       <c r="AW9" t="n">
-        <v>21.48064124047156</v>
+        <v>13.04933247469641</v>
       </c>
       <c r="AX9" t="n">
-        <v>18.44224958393027</v>
+        <v>25.34912839778454</v>
       </c>
     </row>
     <row r="10">
@@ -66986,148 +66986,148 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.7806730926310559</v>
+        <v>1.893318164749771</v>
       </c>
       <c r="D10" t="n">
-        <v>1.733047911158937</v>
+        <v>2.866846796632077</v>
       </c>
       <c r="E10" t="n">
-        <v>1.18212452319725</v>
+        <v>1.410645627141033</v>
       </c>
       <c r="F10" t="n">
-        <v>3.157789506680109</v>
+        <v>7.311276986154835</v>
       </c>
       <c r="G10" t="n">
-        <v>0.4083506670807235</v>
+        <v>4.573933423565144</v>
       </c>
       <c r="H10" t="n">
-        <v>4.121996009941364</v>
+        <v>17.63183545539517</v>
       </c>
       <c r="I10" t="n">
-        <v>2.475921101600298</v>
+        <v>3.899125552340407</v>
       </c>
       <c r="J10" t="n">
-        <v>5.262592489669444</v>
+        <v>7.485152434813985</v>
       </c>
       <c r="K10" t="n">
-        <v>3.220144765752592</v>
+        <v>3.44191291529308</v>
       </c>
       <c r="L10" t="n">
-        <v>3.090797944982766</v>
+        <v>1.326754714681638</v>
       </c>
       <c r="M10" t="n">
-        <v>2.217338090473975</v>
+        <v>5.069433755316521</v>
       </c>
       <c r="N10" t="n">
-        <v>4.2172976247561</v>
+        <v>1.843884114203861</v>
       </c>
       <c r="O10" t="n">
-        <v>5.694326860633698</v>
+        <v>10.77113823662813</v>
       </c>
       <c r="P10" t="n">
-        <v>4.82032864267278</v>
+        <v>4.516942250223703</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.07920028569094</v>
+        <v>5.18405246529633</v>
       </c>
       <c r="R10" t="n">
-        <v>3.035649766493429</v>
+        <v>4.754188734872129</v>
       </c>
       <c r="S10" t="n">
-        <v>2.264920794304953</v>
+        <v>3.878963139957498</v>
       </c>
       <c r="T10" t="n">
-        <v>1.252474698522575</v>
+        <v>2.153088282036446</v>
       </c>
       <c r="U10" t="n">
-        <v>5.123510997317479</v>
+        <v>4.915499315122189</v>
       </c>
       <c r="V10" t="n">
-        <v>2.586338145983162</v>
+        <v>2.329892407530499</v>
       </c>
       <c r="W10" t="n">
-        <v>7.804885006032088</v>
+        <v>3.189857122037608</v>
       </c>
       <c r="X10" t="n">
-        <v>1.147385639070449</v>
+        <v>0.8377457896787168</v>
       </c>
       <c r="Y10" t="n">
-        <v>4.396460972831342</v>
+        <v>5.815773102566932</v>
       </c>
       <c r="Z10" t="n">
-        <v>3.445506557977633</v>
+        <v>1.719089111212146</v>
       </c>
       <c r="AA10" t="n">
-        <v>6.281121533062955</v>
+        <v>2.428041919650874</v>
       </c>
       <c r="AB10" t="n">
-        <v>7.948784034099253</v>
+        <v>6.600491307866412</v>
       </c>
       <c r="AC10" t="n">
-        <v>2.237842447957147</v>
+        <v>6.656444876480863</v>
       </c>
       <c r="AD10" t="n">
-        <v>3.460397540327052</v>
+        <v>5.836864922405646</v>
       </c>
       <c r="AE10" t="n">
-        <v>5.91425623047599</v>
+        <v>6.511167158661766</v>
       </c>
       <c r="AF10" t="n">
-        <v>6.299286143869466</v>
+        <v>4.413867839399989</v>
       </c>
       <c r="AG10" t="n">
-        <v>3.680056869374023</v>
+        <v>3.220638540514935</v>
       </c>
       <c r="AH10" t="n">
-        <v>7.103560853390023</v>
+        <v>1.773461963308449</v>
       </c>
       <c r="AI10" t="n">
-        <v>4.638977080012064</v>
+        <v>5.721638976463082</v>
       </c>
       <c r="AJ10" t="n">
-        <v>3.671269731490906</v>
+        <v>2.314213126961735</v>
       </c>
       <c r="AK10" t="n">
-        <v>4.702809221215204</v>
+        <v>4.574928212989249</v>
       </c>
       <c r="AL10" t="n">
-        <v>4.718148144509182</v>
+        <v>4.612487229593642</v>
       </c>
       <c r="AM10" t="n">
-        <v>10.71712924733791</v>
+        <v>2.733002713762096</v>
       </c>
       <c r="AN10" t="n">
-        <v>5.299010283767132</v>
+        <v>1.755801070132934</v>
       </c>
       <c r="AO10" t="n">
-        <v>3.866181818181818</v>
+        <v>2.889994371294332</v>
       </c>
       <c r="AP10" t="n">
-        <v>6.098854825348214</v>
+        <v>1.509448148090782</v>
       </c>
       <c r="AQ10" t="n">
-        <v>3.338850253976279</v>
+        <v>2.531952698965142</v>
       </c>
       <c r="AR10" t="n">
-        <v>3.892318132013503</v>
+        <v>6.780167834592106</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.849218199726427</v>
+        <v>5.06442080548877</v>
       </c>
       <c r="AT10" t="n">
-        <v>3.417491744540367</v>
+        <v>3.264323034585903</v>
       </c>
       <c r="AU10" t="n">
-        <v>4.831650135644518</v>
+        <v>9.120730053268495</v>
       </c>
       <c r="AV10" t="n">
-        <v>1.900309098837158</v>
+        <v>0.9398746800852186</v>
       </c>
       <c r="AW10" t="n">
-        <v>4.210630149822202</v>
+        <v>0.5924346901280367</v>
       </c>
       <c r="AX10" t="n">
-        <v>3.740584953396156</v>
+        <v>4.804785209149574</v>
       </c>
     </row>
     <row r="11">
@@ -67140,148 +67140,148 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>20.64905164682586</v>
+        <v>22.51457427676196</v>
       </c>
       <c r="D11" t="n">
-        <v>8.691988742635022</v>
+        <v>23.37425238095988</v>
       </c>
       <c r="E11" t="n">
-        <v>11.62432937106754</v>
+        <v>13.6076458316158</v>
       </c>
       <c r="F11" t="n">
-        <v>9.56096770684208</v>
+        <v>17.1103487542578</v>
       </c>
       <c r="G11" t="n">
-        <v>33.07038472356247</v>
+        <v>47.84701894059086</v>
       </c>
       <c r="H11" t="n">
-        <v>138.9992778540684</v>
+        <v>64.40983460487165</v>
       </c>
       <c r="I11" t="n">
-        <v>39.98310906657591</v>
+        <v>7.692436935371714</v>
       </c>
       <c r="J11" t="n">
-        <v>127.1498756686104</v>
+        <v>37.24521374795851</v>
       </c>
       <c r="K11" t="n">
-        <v>15.21367149340291</v>
+        <v>62.14465897537492</v>
       </c>
       <c r="L11" t="n">
-        <v>32.08682162474356</v>
+        <v>104.0189202567099</v>
       </c>
       <c r="M11" t="n">
-        <v>101.8643723348289</v>
+        <v>189.9697927824667</v>
       </c>
       <c r="N11" t="n">
-        <v>19.08402352520015</v>
+        <v>156.3654976693481</v>
       </c>
       <c r="O11" t="n">
-        <v>60.20528060349451</v>
+        <v>51.731443074389</v>
       </c>
       <c r="P11" t="n">
-        <v>45.63259204094938</v>
+        <v>23.88098048467934</v>
       </c>
       <c r="Q11" t="n">
-        <v>92.32990665287259</v>
+        <v>45.78407263998961</v>
       </c>
       <c r="R11" t="n">
-        <v>79.04898434599896</v>
+        <v>54.81666834035632</v>
       </c>
       <c r="S11" t="n">
-        <v>39.61006865188904</v>
+        <v>89.38231966009521</v>
       </c>
       <c r="T11" t="n">
-        <v>70.00731090000001</v>
+        <v>43.70239840216365</v>
       </c>
       <c r="U11" t="n">
-        <v>47.99565550520106</v>
+        <v>61.93842973146324</v>
       </c>
       <c r="V11" t="n">
-        <v>57.51734690464966</v>
+        <v>35.47436281798262</v>
       </c>
       <c r="W11" t="n">
-        <v>43.98226946533521</v>
+        <v>68.98502568508702</v>
       </c>
       <c r="X11" t="n">
-        <v>47.68244398567112</v>
+        <v>47.04747865419282</v>
       </c>
       <c r="Y11" t="n">
-        <v>62.55267119827517</v>
+        <v>88.26773702271552</v>
       </c>
       <c r="Z11" t="n">
-        <v>54.94766600666165</v>
+        <v>119.4643223071222</v>
       </c>
       <c r="AA11" t="n">
-        <v>57.52422237637498</v>
+        <v>81.85005057362152</v>
       </c>
       <c r="AB11" t="n">
-        <v>67.0982440829663</v>
+        <v>57.51983348969744</v>
       </c>
       <c r="AC11" t="n">
-        <v>122.6422263371373</v>
+        <v>43.05603646373201</v>
       </c>
       <c r="AD11" t="n">
-        <v>85.29636046152321</v>
+        <v>142.1954012864731</v>
       </c>
       <c r="AE11" t="n">
-        <v>54.67006037177788</v>
+        <v>72.08336786178931</v>
       </c>
       <c r="AF11" t="n">
-        <v>97.4631592709777</v>
+        <v>28.78742489369664</v>
       </c>
       <c r="AG11" t="n">
-        <v>82.31994723011337</v>
+        <v>118.6024234657214</v>
       </c>
       <c r="AH11" t="n">
-        <v>41.39188494148718</v>
+        <v>60.19974818417957</v>
       </c>
       <c r="AI11" t="n">
-        <v>44.70734455263351</v>
+        <v>23.44409593145994</v>
       </c>
       <c r="AJ11" t="n">
-        <v>31.62388541381859</v>
+        <v>50.36646404573493</v>
       </c>
       <c r="AK11" t="n">
-        <v>75.50940348583472</v>
+        <v>37.33159068718173</v>
       </c>
       <c r="AL11" t="n">
-        <v>33.42018368574917</v>
+        <v>33.16677330816211</v>
       </c>
       <c r="AM11" t="n">
-        <v>34.80860838893734</v>
+        <v>42.15296097087188</v>
       </c>
       <c r="AN11" t="n">
-        <v>38.28261723109263</v>
+        <v>10.22136715934058</v>
       </c>
       <c r="AO11" t="n">
-        <v>11.70064217574019</v>
+        <v>17.03776531022894</v>
       </c>
       <c r="AP11" t="n">
-        <v>8.219643518207087</v>
+        <v>15.66866118674154</v>
       </c>
       <c r="AQ11" t="n">
-        <v>9.523420926085704</v>
+        <v>17.77392836741437</v>
       </c>
       <c r="AR11" t="n">
-        <v>16.10091799896854</v>
+        <v>11.89801673028157</v>
       </c>
       <c r="AS11" t="n">
-        <v>13.1249082815735</v>
+        <v>8.543077392933929</v>
       </c>
       <c r="AT11" t="n">
-        <v>10.8140748730672</v>
+        <v>12.66276294943692</v>
       </c>
       <c r="AU11" t="n">
-        <v>14.60390051103989</v>
+        <v>10.24404374554661</v>
       </c>
       <c r="AV11" t="n">
-        <v>8.87545082636502</v>
+        <v>17.2012643217816</v>
       </c>
       <c r="AW11" t="n">
-        <v>9.447001143294781</v>
+        <v>7.917804101938524</v>
       </c>
       <c r="AX11" t="n">
-        <v>10.34558242428865</v>
+        <v>9.260754314753964</v>
       </c>
     </row>
     <row r="12">
@@ -67294,148 +67294,148 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>14.99237939626155</v>
+        <v>17.086289012835</v>
       </c>
       <c r="D12" t="n">
-        <v>15.85766421024038</v>
+        <v>31.20834737267702</v>
       </c>
       <c r="E12" t="n">
-        <v>10.38425388559824</v>
+        <v>31.65502707933783</v>
       </c>
       <c r="F12" t="n">
-        <v>22.68922032511036</v>
+        <v>20.35537738626309</v>
       </c>
       <c r="G12" t="n">
-        <v>15.91703871921058</v>
+        <v>8.688680844299219</v>
       </c>
       <c r="H12" t="n">
-        <v>15.5362693330775</v>
+        <v>62.80117295647052</v>
       </c>
       <c r="I12" t="n">
-        <v>34.65469839160359</v>
+        <v>15.28343589985856</v>
       </c>
       <c r="J12" t="n">
-        <v>26.50874217826016</v>
+        <v>233.1116941557084</v>
       </c>
       <c r="K12" t="n">
-        <v>15.56646966008948</v>
+        <v>115.8833516022461</v>
       </c>
       <c r="L12" t="n">
-        <v>86.24584048049969</v>
+        <v>64.7515094469835</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>16.31983063226551</v>
       </c>
       <c r="N12" t="n">
-        <v>3.405511761228489</v>
+        <v>91.06153053083338</v>
       </c>
       <c r="O12" t="n">
-        <v>160.3638598555828</v>
+        <v>17.66240896406079</v>
       </c>
       <c r="P12" t="n">
-        <v>36.18456057496433</v>
+        <v>193.8329621739854</v>
       </c>
       <c r="Q12" t="n">
-        <v>78.05315317836596</v>
+        <v>73.62810756263281</v>
       </c>
       <c r="R12" t="n">
-        <v>17.26720541097422</v>
+        <v>17.23454518446034</v>
       </c>
       <c r="S12" t="n">
-        <v>32.12449017636673</v>
+        <v>73.49330147251732</v>
       </c>
       <c r="T12" t="n">
-        <v>52.35293320151482</v>
+        <v>142.324389943389</v>
       </c>
       <c r="U12" t="n">
-        <v>92.94823001991787</v>
+        <v>69.86623127730283</v>
       </c>
       <c r="V12" t="n">
-        <v>28.81018491319159</v>
+        <v>50.68317000827177</v>
       </c>
       <c r="W12" t="n">
-        <v>60.50550085456418</v>
+        <v>60.97701110189293</v>
       </c>
       <c r="X12" t="n">
-        <v>42.92063024360945</v>
+        <v>25.64319340895095</v>
       </c>
       <c r="Y12" t="n">
-        <v>55.51194896618198</v>
+        <v>18.01412000516152</v>
       </c>
       <c r="Z12" t="n">
-        <v>36.61854338780558</v>
+        <v>25.10548355593325</v>
       </c>
       <c r="AA12" t="n">
-        <v>45.05575338891903</v>
+        <v>17.79296285489415</v>
       </c>
       <c r="AB12" t="n">
-        <v>17.17648612475866</v>
+        <v>49.24134624593194</v>
       </c>
       <c r="AC12" t="n">
-        <v>33.11119963316996</v>
+        <v>14.20165465611959</v>
       </c>
       <c r="AD12" t="n">
-        <v>13.84028428816124</v>
+        <v>31.79148522489177</v>
       </c>
       <c r="AE12" t="n">
-        <v>14.16784489254639</v>
+        <v>28.94715277954949</v>
       </c>
       <c r="AF12" t="n">
-        <v>9.929473897655377</v>
+        <v>23.03218430804476</v>
       </c>
       <c r="AG12" t="n">
-        <v>0</v>
+        <v>351.8868799587192</v>
       </c>
       <c r="AH12" t="n">
-        <v>11.8853901946651</v>
+        <v>13.76594992041768</v>
       </c>
       <c r="AI12" t="n">
-        <v>2.96670608502888</v>
+        <v>35.57385471361842</v>
       </c>
       <c r="AJ12" t="n">
-        <v>24.59550763111941</v>
+        <v>16.11207314003353</v>
       </c>
       <c r="AK12" t="n">
-        <v>0</v>
+        <v>5.540213795776585</v>
       </c>
       <c r="AL12" t="n">
-        <v>38.3205801567693</v>
+        <v>63.10291924175505</v>
       </c>
       <c r="AM12" t="n">
-        <v>7.124886490578378</v>
+        <v>10.5687499832937</v>
       </c>
       <c r="AN12" t="n">
-        <v>26.73162799490159</v>
+        <v>7.097008892531735</v>
       </c>
       <c r="AO12" t="n">
-        <v>14.90896615243436</v>
+        <v>16.98133204526684</v>
       </c>
       <c r="AP12" t="n">
-        <v>46.06256971000364</v>
+        <v>29.06768228854322</v>
       </c>
       <c r="AQ12" t="n">
-        <v>30.98935323414176</v>
+        <v>10.99341840851065</v>
       </c>
       <c r="AR12" t="n">
-        <v>31.83249482693018</v>
+        <v>12.14887377247061</v>
       </c>
       <c r="AS12" t="n">
-        <v>5.941135263926229</v>
+        <v>38.59109280821843</v>
       </c>
       <c r="AT12" t="n">
-        <v>29.93033880511908</v>
+        <v>12.24231670236014</v>
       </c>
       <c r="AU12" t="n">
-        <v>34.26220657508238</v>
+        <v>47.27752783726776</v>
       </c>
       <c r="AV12" t="n">
-        <v>19.60942080468404</v>
+        <v>215.9084324039943</v>
       </c>
       <c r="AW12" t="n">
-        <v>35.3657148531569</v>
+        <v>11.89396955136301</v>
       </c>
       <c r="AX12" t="n">
-        <v>26.29870191924638</v>
+        <v>13.8903959189622</v>
       </c>
     </row>
     <row r="13">
@@ -67448,148 +67448,148 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.9913763310104181</v>
+        <v>8.864702722762086</v>
       </c>
       <c r="D13" t="n">
-        <v>2.315135263165778</v>
+        <v>12.86512785950643</v>
       </c>
       <c r="E13" t="n">
-        <v>3.953571428571428</v>
+        <v>1.653856123170359</v>
       </c>
       <c r="F13" t="n">
-        <v>2.207154949882882</v>
+        <v>4.225052761722113</v>
       </c>
       <c r="G13" t="n">
-        <v>5.987907638068124</v>
+        <v>54.25448506468734</v>
       </c>
       <c r="H13" t="n">
-        <v>3.82059944458059</v>
+        <v>5.853508487316005</v>
       </c>
       <c r="I13" t="n">
-        <v>48.08331068827936</v>
+        <v>9.341097163130982</v>
       </c>
       <c r="J13" t="n">
-        <v>19.5199789828312</v>
+        <v>73.57672268181793</v>
       </c>
       <c r="K13" t="n">
-        <v>61.73830583832513</v>
+        <v>10.22378765196203</v>
       </c>
       <c r="L13" t="n">
-        <v>16.6515426</v>
+        <v>88.67621333025397</v>
       </c>
       <c r="M13" t="n">
-        <v>20.88827665600845</v>
+        <v>6.911350566939721</v>
       </c>
       <c r="N13" t="n">
-        <v>9.11408913843246</v>
+        <v>15.86828319108294</v>
       </c>
       <c r="O13" t="n">
-        <v>65.21785557575431</v>
+        <v>25.1257079115272</v>
       </c>
       <c r="P13" t="n">
-        <v>12.79452084619357</v>
+        <v>9.946102139365202</v>
       </c>
       <c r="Q13" t="n">
-        <v>33.5268902186955</v>
+        <v>9.596165573332954</v>
       </c>
       <c r="R13" t="n">
-        <v>26.07839610318297</v>
+        <v>11.10823565560185</v>
       </c>
       <c r="S13" t="n">
-        <v>28.3301436366003</v>
+        <v>22.5708821259133</v>
       </c>
       <c r="T13" t="n">
-        <v>42.25508041176957</v>
+        <v>22.72693539488899</v>
       </c>
       <c r="U13" t="n">
-        <v>10.441125</v>
+        <v>16.13098917614663</v>
       </c>
       <c r="V13" t="n">
-        <v>9.399288814010019</v>
+        <v>38.22794722275418</v>
       </c>
       <c r="W13" t="n">
-        <v>24.12353290219088</v>
+        <v>7.003888003908313</v>
       </c>
       <c r="X13" t="n">
-        <v>9.613331254449777</v>
+        <v>36.93660610417397</v>
       </c>
       <c r="Y13" t="n">
-        <v>13.74826566762033</v>
+        <v>10.95994402562466</v>
       </c>
       <c r="Z13" t="n">
-        <v>37.86199858273573</v>
+        <v>21.71654987996258</v>
       </c>
       <c r="AA13" t="n">
-        <v>15.08581278843451</v>
+        <v>14.33393799477178</v>
       </c>
       <c r="AB13" t="n">
-        <v>12.61753009481441</v>
+        <v>23.81355556682492</v>
       </c>
       <c r="AC13" t="n">
-        <v>23.66388484748139</v>
+        <v>10.27327224312504</v>
       </c>
       <c r="AD13" t="n">
-        <v>10.75164087332853</v>
+        <v>21.89147836007168</v>
       </c>
       <c r="AE13" t="n">
-        <v>38.37872274301418</v>
+        <v>7.272255160481258</v>
       </c>
       <c r="AF13" t="n">
-        <v>31.42037901185239</v>
+        <v>17.36981534988194</v>
       </c>
       <c r="AG13" t="n">
-        <v>30.32316455623264</v>
+        <v>35.95063255654904</v>
       </c>
       <c r="AH13" t="n">
-        <v>8.383953778398125</v>
+        <v>5.329338750318181</v>
       </c>
       <c r="AI13" t="n">
-        <v>7.832781279305113</v>
+        <v>9.627138961055493</v>
       </c>
       <c r="AJ13" t="n">
-        <v>12.89521946822154</v>
+        <v>4.992524571428362</v>
       </c>
       <c r="AK13" t="n">
-        <v>3.636226268074812</v>
+        <v>1.851134470701316</v>
       </c>
       <c r="AL13" t="n">
-        <v>9.624178428137537</v>
+        <v>7.851173302067933</v>
       </c>
       <c r="AM13" t="n">
-        <v>3.278537142857143</v>
+        <v>8.760179679060982</v>
       </c>
       <c r="AN13" t="n">
-        <v>6.052164748508582</v>
+        <v>4.916550450251743</v>
       </c>
       <c r="AO13" t="n">
-        <v>1.393545627905665</v>
+        <v>4.585479573484255</v>
       </c>
       <c r="AP13" t="n">
-        <v>1.734622725</v>
+        <v>2.95452784370896</v>
       </c>
       <c r="AQ13" t="n">
-        <v>3.630025798947289</v>
+        <v>2.746273606081426</v>
       </c>
       <c r="AR13" t="n">
-        <v>4.716900710686439</v>
+        <v>1.604192620048744</v>
       </c>
       <c r="AS13" t="n">
-        <v>3.548556521410173</v>
+        <v>0.8957194920952392</v>
       </c>
       <c r="AT13" t="n">
-        <v>2.431513079156453</v>
+        <v>3.393560135062877</v>
       </c>
       <c r="AU13" t="n">
-        <v>0.11091270785083</v>
+        <v>2.980939841389064</v>
       </c>
       <c r="AV13" t="n">
-        <v>1.169544429205383</v>
+        <v>0.9042825002771957</v>
       </c>
       <c r="AW13" t="n">
-        <v>5.327646703531906</v>
+        <v>0.5797234589372851</v>
       </c>
       <c r="AX13" t="n">
-        <v>1.046118111198306</v>
+        <v>0.849385365551251</v>
       </c>
     </row>
     <row r="14">
@@ -67602,148 +67602,148 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>17.9</v>
+        <v>2.274855597066288</v>
       </c>
       <c r="D14" t="n">
-        <v>11.32</v>
+        <v>7.462599774898752</v>
       </c>
       <c r="E14" t="n">
-        <v>12.07</v>
+        <v>1.644848581933267</v>
       </c>
       <c r="F14" t="n">
-        <v>14.18</v>
+        <v>5.934170969708943</v>
       </c>
       <c r="G14" t="n">
-        <v>2.4</v>
+        <v>83.43621313967614</v>
       </c>
       <c r="H14" t="n">
-        <v>29.95</v>
+        <v>10.07557372683126</v>
       </c>
       <c r="I14" t="n">
-        <v>29.95</v>
+        <v>51.23381024330972</v>
       </c>
       <c r="J14" t="n">
-        <v>1</v>
+        <v>49.39521007854329</v>
       </c>
       <c r="K14" t="n">
-        <v>60.82890737323049</v>
+        <v>15.49827464750012</v>
       </c>
       <c r="L14" t="n">
-        <v>2.2</v>
+        <v>147.6946978047798</v>
       </c>
       <c r="M14" t="n">
-        <v>5.2</v>
+        <v>79.44441711986751</v>
       </c>
       <c r="N14" t="n">
-        <v>5.2</v>
+        <v>16.31322636937534</v>
       </c>
       <c r="O14" t="n">
-        <v>3.121187208249147</v>
+        <v>7.95146846864368</v>
       </c>
       <c r="P14" t="n">
-        <v>24.35</v>
+        <v>18.96594529915156</v>
       </c>
       <c r="Q14" t="n">
-        <v>43.94</v>
+        <v>5.243763113545022</v>
       </c>
       <c r="R14" t="n">
-        <v>51.06</v>
+        <v>20.07877281600657</v>
       </c>
       <c r="S14" t="n">
-        <v>7.738136715274744</v>
+        <v>10.83617025438763</v>
       </c>
       <c r="T14" t="n">
-        <v>53.45</v>
+        <v>26.1989081811194</v>
       </c>
       <c r="U14" t="n">
-        <v>58.87</v>
+        <v>24.05806712760877</v>
       </c>
       <c r="V14" t="n">
-        <v>17.35</v>
+        <v>97.96649797825116</v>
       </c>
       <c r="W14" t="n">
-        <v>67.40000000000001</v>
+        <v>6.796023345045124</v>
       </c>
       <c r="X14" t="n">
-        <v>35.2</v>
+        <v>11.67665741520536</v>
       </c>
       <c r="Y14" t="n">
-        <v>34.63</v>
+        <v>3.077663256455377</v>
       </c>
       <c r="Z14" t="n">
-        <v>6.714151450000006</v>
+        <v>8.885143168240448</v>
       </c>
       <c r="AA14" t="n">
-        <v>1</v>
+        <v>1.986562588248163</v>
       </c>
       <c r="AB14" t="n">
-        <v>38.64375</v>
+        <v>10.44666517413092</v>
       </c>
       <c r="AC14" t="n">
-        <v>1</v>
+        <v>19.17431631982699</v>
       </c>
       <c r="AD14" t="n">
-        <v>1.04</v>
+        <v>20.67339489563203</v>
       </c>
       <c r="AE14" t="n">
-        <v>4.051488228571429</v>
+        <v>25.82208380354388</v>
       </c>
       <c r="AF14" t="n">
-        <v>18.62</v>
+        <v>25.3018015485174</v>
       </c>
       <c r="AG14" t="n">
-        <v>1.21</v>
+        <v>4.42409333472316</v>
       </c>
       <c r="AH14" t="n">
-        <v>9.369999999999999</v>
+        <v>11.85755130431158</v>
       </c>
       <c r="AI14" t="n">
-        <v>1</v>
+        <v>2.099356666518619</v>
       </c>
       <c r="AJ14" t="n">
-        <v>7.27</v>
+        <v>12.39105483330753</v>
       </c>
       <c r="AK14" t="n">
-        <v>13.05</v>
+        <v>11.20743448489081</v>
       </c>
       <c r="AL14" t="n">
-        <v>15.74</v>
+        <v>3.61362304503974</v>
       </c>
       <c r="AM14" t="n">
-        <v>4.85</v>
+        <v>35.88181360827519</v>
       </c>
       <c r="AN14" t="n">
-        <v>2.62</v>
+        <v>2.728869678197515</v>
       </c>
       <c r="AO14" t="n">
-        <v>6.58</v>
+        <v>3.463692383628508</v>
       </c>
       <c r="AP14" t="n">
-        <v>7.43</v>
+        <v>5.910019850963836</v>
       </c>
       <c r="AQ14" t="n">
-        <v>1</v>
+        <v>3.253615885309438</v>
       </c>
       <c r="AR14" t="n">
-        <v>1.13</v>
+        <v>4.865600080530601</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.53</v>
+        <v>21.01115694872703</v>
       </c>
       <c r="AT14" t="n">
-        <v>3.796865257142858</v>
+        <v>13.47891915248154</v>
       </c>
       <c r="AU14" t="n">
-        <v>4.65</v>
+        <v>5.592715621812372</v>
       </c>
       <c r="AV14" t="n">
-        <v>3.820123212942061</v>
+        <v>3.395228169769505</v>
       </c>
       <c r="AW14" t="n">
-        <v>2.52</v>
+        <v>1.824312960396761</v>
       </c>
       <c r="AX14" t="n">
-        <v>9.52</v>
+        <v>4.402036056535904</v>
       </c>
     </row>
     <row r="15">
@@ -67756,148 +67756,148 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>14.99899264995137</v>
+        <v>13.99691709640101</v>
       </c>
       <c r="D15" t="n">
-        <v>16.93620242028238</v>
+        <v>45.42576638387169</v>
       </c>
       <c r="E15" t="n">
-        <v>15.26992833883938</v>
+        <v>24.10719501183042</v>
       </c>
       <c r="F15" t="n">
-        <v>43.01852736641651</v>
+        <v>47.43167547165082</v>
       </c>
       <c r="G15" t="n">
-        <v>112.4862875255553</v>
+        <v>40.35018470368135</v>
       </c>
       <c r="H15" t="n">
-        <v>20.72782085480565</v>
+        <v>12.77098495146731</v>
       </c>
       <c r="I15" t="n">
-        <v>81.35100511467041</v>
+        <v>19.69590689847081</v>
       </c>
       <c r="J15" t="n">
-        <v>22.52186144174598</v>
+        <v>48.00942740501075</v>
       </c>
       <c r="K15" t="n">
-        <v>105.7935000741623</v>
+        <v>98.06904976073756</v>
       </c>
       <c r="L15" t="n">
-        <v>48.02246850912512</v>
+        <v>16.63214389477349</v>
       </c>
       <c r="M15" t="n">
-        <v>81.23687853423823</v>
+        <v>10.39923301380145</v>
       </c>
       <c r="N15" t="n">
-        <v>237.5474013449129</v>
+        <v>173.4038900489284</v>
       </c>
       <c r="O15" t="n">
-        <v>42.39787304688231</v>
+        <v>99.8180983935285</v>
       </c>
       <c r="P15" t="n">
-        <v>38.70509575589104</v>
+        <v>81.40514083313755</v>
       </c>
       <c r="Q15" t="n">
-        <v>142.2721265863246</v>
+        <v>158.757251281676</v>
       </c>
       <c r="R15" t="n">
-        <v>38.64921067717739</v>
+        <v>49.50802438156516</v>
       </c>
       <c r="S15" t="n">
-        <v>43.84619498499794</v>
+        <v>30.49842104831557</v>
       </c>
       <c r="T15" t="n">
-        <v>43.47082399293194</v>
+        <v>45.49780475212433</v>
       </c>
       <c r="U15" t="n">
-        <v>41.31453830488172</v>
+        <v>53.00101650423318</v>
       </c>
       <c r="V15" t="n">
-        <v>54.33764925132299</v>
+        <v>90.61843211206602</v>
       </c>
       <c r="W15" t="n">
-        <v>87.5675199177789</v>
+        <v>38.9221876174839</v>
       </c>
       <c r="X15" t="n">
-        <v>63.8589671021864</v>
+        <v>141.0367460052751</v>
       </c>
       <c r="Y15" t="n">
-        <v>60.68519657193191</v>
+        <v>158.9888234311292</v>
       </c>
       <c r="Z15" t="n">
-        <v>73.4861186801617</v>
+        <v>111.7650569565262</v>
       </c>
       <c r="AA15" t="n">
-        <v>63.15134015511184</v>
+        <v>98.53497177550135</v>
       </c>
       <c r="AB15" t="n">
-        <v>77.55211751484816</v>
+        <v>68.23720109472497</v>
       </c>
       <c r="AC15" t="n">
-        <v>107.4351257569969</v>
+        <v>94.42853573119909</v>
       </c>
       <c r="AD15" t="n">
-        <v>101.8910674558143</v>
+        <v>62.99291889279255</v>
       </c>
       <c r="AE15" t="n">
-        <v>149.3908833014175</v>
+        <v>93.24710637521805</v>
       </c>
       <c r="AF15" t="n">
-        <v>164.7725292557918</v>
+        <v>66.57047217620359</v>
       </c>
       <c r="AG15" t="n">
-        <v>24.85414076513671</v>
+        <v>124.7333693696237</v>
       </c>
       <c r="AH15" t="n">
-        <v>116.2862530257087</v>
+        <v>274.046842395676</v>
       </c>
       <c r="AI15" t="n">
-        <v>128.6710213983123</v>
+        <v>24.57141198384859</v>
       </c>
       <c r="AJ15" t="n">
-        <v>22.26320135033827</v>
+        <v>78.25099671959305</v>
       </c>
       <c r="AK15" t="n">
-        <v>92.059350390406</v>
+        <v>82.82206949123379</v>
       </c>
       <c r="AL15" t="n">
-        <v>58.1131875</v>
+        <v>120.3403928536724</v>
       </c>
       <c r="AM15" t="n">
-        <v>45.72811824296239</v>
+        <v>77.66492204388959</v>
       </c>
       <c r="AN15" t="n">
-        <v>68.47329454955106</v>
+        <v>62.79861774757801</v>
       </c>
       <c r="AO15" t="n">
-        <v>26.97459326685404</v>
+        <v>16.46060194351501</v>
       </c>
       <c r="AP15" t="n">
-        <v>34.55071645601984</v>
+        <v>22.94364868303078</v>
       </c>
       <c r="AQ15" t="n">
-        <v>24.23812199027173</v>
+        <v>19.71424384797274</v>
       </c>
       <c r="AR15" t="n">
-        <v>33.31457870332755</v>
+        <v>56.56583908723719</v>
       </c>
       <c r="AS15" t="n">
-        <v>23.27692866308923</v>
+        <v>16.51194148115986</v>
       </c>
       <c r="AT15" t="n">
-        <v>28.92167253773035</v>
+        <v>10.95186356050633</v>
       </c>
       <c r="AU15" t="n">
-        <v>17.65725714285714</v>
+        <v>16.26244907220665</v>
       </c>
       <c r="AV15" t="n">
-        <v>26.3237587476936</v>
+        <v>15.58820787303367</v>
       </c>
       <c r="AW15" t="n">
-        <v>29.25463712884692</v>
+        <v>16.51535087175525</v>
       </c>
       <c r="AX15" t="n">
-        <v>13.58828168659173</v>
+        <v>19.91146115649341</v>
       </c>
     </row>
     <row r="16">
@@ -67910,148 +67910,148 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3.642687747035573</v>
+        <v>1.040749946572331</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8828675302601182</v>
+        <v>14.26128706350406</v>
       </c>
       <c r="E16" t="n">
-        <v>5.143777497036566</v>
+        <v>4.185097020208031</v>
       </c>
       <c r="F16" t="n">
-        <v>2.824873096446701</v>
+        <v>14.14053001545565</v>
       </c>
       <c r="G16" t="n">
-        <v>0.001</v>
+        <v>1.048490808579777</v>
       </c>
       <c r="H16" t="n">
-        <v>0.4738716462860859</v>
+        <v>1.147017442475409</v>
       </c>
       <c r="I16" t="n">
-        <v>2.379562193928106</v>
+        <v>31.48362906194428</v>
       </c>
       <c r="J16" t="n">
-        <v>2.164552892597813</v>
+        <v>1.788030160455795</v>
       </c>
       <c r="K16" t="n">
-        <v>3.888283164499752</v>
+        <v>0.7627166937990671</v>
       </c>
       <c r="L16" t="n">
-        <v>1.239930370595498</v>
+        <v>3.054515890841156</v>
       </c>
       <c r="M16" t="n">
-        <v>1.339888977002379</v>
+        <v>3.811032296023202</v>
       </c>
       <c r="N16" t="n">
-        <v>4.657914641854297</v>
+        <v>2.999241159446169</v>
       </c>
       <c r="O16" t="n">
-        <v>5.953029833277117</v>
+        <v>5.921941221406748</v>
       </c>
       <c r="P16" t="n">
-        <v>1.216272186271896</v>
+        <v>2.641517188871603</v>
       </c>
       <c r="Q16" t="n">
-        <v>5.884298481435734</v>
+        <v>3.962156203582469</v>
       </c>
       <c r="R16" t="n">
-        <v>1.232596147845855</v>
+        <v>7.466569604067665</v>
       </c>
       <c r="S16" t="n">
-        <v>3.752959999999999</v>
+        <v>5.356535588484297</v>
       </c>
       <c r="T16" t="n">
-        <v>8.111353294280191</v>
+        <v>2.420813094116542</v>
       </c>
       <c r="U16" t="n">
-        <v>10.9055151939359</v>
+        <v>9.603166408846848</v>
       </c>
       <c r="V16" t="n">
-        <v>4.572243225547553</v>
+        <v>2.79150280222619</v>
       </c>
       <c r="W16" t="n">
-        <v>2.421452887485725</v>
+        <v>4.452803833197848</v>
       </c>
       <c r="X16" t="n">
-        <v>2.399055895155994</v>
+        <v>3.781777181358135</v>
       </c>
       <c r="Y16" t="n">
-        <v>4.470154347255064</v>
+        <v>5.844965548202274</v>
       </c>
       <c r="Z16" t="n">
-        <v>5.769441627929996</v>
+        <v>5.350491992259288</v>
       </c>
       <c r="AA16" t="n">
-        <v>4.604870595567194</v>
+        <v>9.653213524255845</v>
       </c>
       <c r="AB16" t="n">
-        <v>7.359916634155473</v>
+        <v>2.663700361753099</v>
       </c>
       <c r="AC16" t="n">
-        <v>5.090475011128595</v>
+        <v>4.504038910229082</v>
       </c>
       <c r="AD16" t="n">
-        <v>5.331005891819218</v>
+        <v>4.352490511492422</v>
       </c>
       <c r="AE16" t="n">
-        <v>7.165779389408102</v>
+        <v>6.20354947422122</v>
       </c>
       <c r="AF16" t="n">
-        <v>4.668413508043375</v>
+        <v>3.598216683258465</v>
       </c>
       <c r="AG16" t="n">
-        <v>5.866547676784469</v>
+        <v>5.165859871662224</v>
       </c>
       <c r="AH16" t="n">
-        <v>2.341364172695628</v>
+        <v>2.533196309790475</v>
       </c>
       <c r="AI16" t="n">
-        <v>5.935671556519542</v>
+        <v>9.023538487138524</v>
       </c>
       <c r="AJ16" t="n">
-        <v>4.741646223308291</v>
+        <v>3.767953537199156</v>
       </c>
       <c r="AK16" t="n">
-        <v>3.364686749810931</v>
+        <v>6.135382294175665</v>
       </c>
       <c r="AL16" t="n">
-        <v>5.756778580535487</v>
+        <v>4.108763306407003</v>
       </c>
       <c r="AM16" t="n">
-        <v>4.219333143390298</v>
+        <v>3.027449026064272</v>
       </c>
       <c r="AN16" t="n">
-        <v>3.744254473769151</v>
+        <v>6.060432640243554</v>
       </c>
       <c r="AO16" t="n">
-        <v>5.684638116897418</v>
+        <v>1.948960479987109</v>
       </c>
       <c r="AP16" t="n">
-        <v>3.314390304425201</v>
+        <v>2.741037164784729</v>
       </c>
       <c r="AQ16" t="n">
-        <v>2.489255384404967</v>
+        <v>0.7924859729053279</v>
       </c>
       <c r="AR16" t="n">
-        <v>4.097420838072301</v>
+        <v>1.687275569754812</v>
       </c>
       <c r="AS16" t="n">
-        <v>2.135071707953064</v>
+        <v>3.462774370654548</v>
       </c>
       <c r="AT16" t="n">
-        <v>3.358044961650402</v>
+        <v>1.725412422324589</v>
       </c>
       <c r="AU16" t="n">
-        <v>2.599020615091508</v>
+        <v>3.138121115559338</v>
       </c>
       <c r="AV16" t="n">
-        <v>1.797516891978597</v>
+        <v>0.7376411554640584</v>
       </c>
       <c r="AW16" t="n">
-        <v>2.02217479197028</v>
+        <v>0.0274546634410408</v>
       </c>
       <c r="AX16" t="n">
-        <v>2.694607179066692</v>
+        <v>3.278098335996136</v>
       </c>
     </row>
     <row r="17">
@@ -68064,148 +68064,148 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>10.28511124300349</v>
+        <v>8.563218825569686</v>
       </c>
       <c r="D17" t="n">
-        <v>8.726403840755767</v>
+        <v>18.4208838090513</v>
       </c>
       <c r="E17" t="n">
-        <v>12.36281890113141</v>
+        <v>17.9578651610804</v>
       </c>
       <c r="F17" t="n">
-        <v>9.094691317643733</v>
+        <v>5.316404803419438</v>
       </c>
       <c r="G17" t="n">
-        <v>13.15177399241581</v>
+        <v>7.005943452398562</v>
       </c>
       <c r="H17" t="n">
-        <v>25.13296968966107</v>
+        <v>15.90607193097835</v>
       </c>
       <c r="I17" t="n">
-        <v>9.893327263863668</v>
+        <v>74.7539532859108</v>
       </c>
       <c r="J17" t="n">
-        <v>72.73113462834925</v>
+        <v>5.271934707124013</v>
       </c>
       <c r="K17" t="n">
-        <v>11.19488537766006</v>
+        <v>148.6948717379774</v>
       </c>
       <c r="L17" t="n">
-        <v>15.83443394950532</v>
+        <v>72.63758600999014</v>
       </c>
       <c r="M17" t="n">
-        <v>27.42877717305158</v>
+        <v>53.5174414106307</v>
       </c>
       <c r="N17" t="n">
-        <v>89.04300329164101</v>
+        <v>29.23546721289111</v>
       </c>
       <c r="O17" t="n">
-        <v>37.00012856903768</v>
+        <v>74.17349136689845</v>
       </c>
       <c r="P17" t="n">
-        <v>31.16986827213991</v>
+        <v>88.48284486290027</v>
       </c>
       <c r="Q17" t="n">
-        <v>164.8437237762238</v>
+        <v>43.0814229636091</v>
       </c>
       <c r="R17" t="n">
-        <v>99.7101087588353</v>
+        <v>63.29329730159788</v>
       </c>
       <c r="S17" t="n">
-        <v>36.4850684208032</v>
+        <v>43.24337717763115</v>
       </c>
       <c r="T17" t="n">
-        <v>42.14743067142586</v>
+        <v>90.18659183606037</v>
       </c>
       <c r="U17" t="n">
-        <v>70.2357352440922</v>
+        <v>32.49833822254303</v>
       </c>
       <c r="V17" t="n">
-        <v>68.02454565851468</v>
+        <v>85.42275938370152</v>
       </c>
       <c r="W17" t="n">
-        <v>118.7557736373997</v>
+        <v>34.85428974522366</v>
       </c>
       <c r="X17" t="n">
-        <v>51.02844772050742</v>
+        <v>74.88361199826865</v>
       </c>
       <c r="Y17" t="n">
-        <v>43.12355014216806</v>
+        <v>108.8027011435456</v>
       </c>
       <c r="Z17" t="n">
-        <v>81.6918508896879</v>
+        <v>55.00107490164877</v>
       </c>
       <c r="AA17" t="n">
-        <v>50.71386489269258</v>
+        <v>52.33959926707158</v>
       </c>
       <c r="AB17" t="n">
-        <v>67.97116393995763</v>
+        <v>119.0186653029495</v>
       </c>
       <c r="AC17" t="n">
-        <v>56.37011177458788</v>
+        <v>46.18581233340834</v>
       </c>
       <c r="AD17" t="n">
-        <v>82.97059967727189</v>
+        <v>188.6665918847304</v>
       </c>
       <c r="AE17" t="n">
-        <v>76.18367163435353</v>
+        <v>92.28212608104442</v>
       </c>
       <c r="AF17" t="n">
-        <v>69.4269703323518</v>
+        <v>56.50490048731258</v>
       </c>
       <c r="AG17" t="n">
-        <v>13.91974610498153</v>
+        <v>66.59935514712878</v>
       </c>
       <c r="AH17" t="n">
-        <v>44.23154311225176</v>
+        <v>44.71931708560146</v>
       </c>
       <c r="AI17" t="n">
-        <v>48.18061365997735</v>
+        <v>57.93490943331164</v>
       </c>
       <c r="AJ17" t="n">
-        <v>48.01449552845146</v>
+        <v>27.30011150841134</v>
       </c>
       <c r="AK17" t="n">
-        <v>80.79447421437089</v>
+        <v>23.83827134800422</v>
       </c>
       <c r="AL17" t="n">
-        <v>21.71763213889712</v>
+        <v>32.36560469105606</v>
       </c>
       <c r="AM17" t="n">
-        <v>29.46978159571433</v>
+        <v>38.21578380348847</v>
       </c>
       <c r="AN17" t="n">
-        <v>21.8797537105981</v>
+        <v>39.30911856070885</v>
       </c>
       <c r="AO17" t="n">
-        <v>15.30141106326599</v>
+        <v>32.90465938131351</v>
       </c>
       <c r="AP17" t="n">
-        <v>18.13409832947665</v>
+        <v>18.34903489052066</v>
       </c>
       <c r="AQ17" t="n">
-        <v>12.31413650912616</v>
+        <v>11.19146683888805</v>
       </c>
       <c r="AR17" t="n">
-        <v>9.725591205973407</v>
+        <v>14.95457670438863</v>
       </c>
       <c r="AS17" t="n">
-        <v>9.83725264169068</v>
+        <v>18.3065100107612</v>
       </c>
       <c r="AT17" t="n">
-        <v>12.04528766045549</v>
+        <v>12.8256115138352</v>
       </c>
       <c r="AU17" t="n">
-        <v>13.98484049146921</v>
+        <v>24.45466376377554</v>
       </c>
       <c r="AV17" t="n">
-        <v>12.62224458414525</v>
+        <v>6.322026315015226</v>
       </c>
       <c r="AW17" t="n">
-        <v>11.12818672302902</v>
+        <v>12.49478265144387</v>
       </c>
       <c r="AX17" t="n">
-        <v>11.37734692511125</v>
+        <v>12.94313097401328</v>
       </c>
     </row>
     <row r="18">
@@ -68218,148 +68218,148 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>26.09457539728785</v>
       </c>
       <c r="D18" t="n">
-        <v>10.16943040143417</v>
+        <v>8.206063292289516</v>
       </c>
       <c r="E18" t="n">
-        <v>16.17589191401854</v>
+        <v>8.40784840449599</v>
       </c>
       <c r="F18" t="n">
-        <v>38.00048157771893</v>
+        <v>1.928500527297463</v>
       </c>
       <c r="G18" t="n">
-        <v>2.378992763516445</v>
+        <v>24.38309880205046</v>
       </c>
       <c r="H18" t="n">
-        <v>23.83511820193634</v>
+        <v>5.414792650367108</v>
       </c>
       <c r="I18" t="n">
-        <v>17.50596507210155</v>
+        <v>30.76813692422015</v>
       </c>
       <c r="J18" t="n">
-        <v>146.7966612230682</v>
+        <v>30.56951805989825</v>
       </c>
       <c r="K18" t="n">
-        <v>81.10464948649158</v>
+        <v>5.518291899002849</v>
       </c>
       <c r="L18" t="n">
-        <v>55.03401450962363</v>
+        <v>147.2796842697302</v>
       </c>
       <c r="M18" t="n">
-        <v>38.7335857283722</v>
+        <v>28.72627764457434</v>
       </c>
       <c r="N18" t="n">
-        <v>49.49599112515518</v>
+        <v>118.1207962012023</v>
       </c>
       <c r="O18" t="n">
-        <v>179.1372182556523</v>
+        <v>190.8573608807561</v>
       </c>
       <c r="P18" t="n">
-        <v>36.18456057496433</v>
+        <v>37.39303081456605</v>
       </c>
       <c r="Q18" t="n">
-        <v>58.06316039845766</v>
+        <v>142.235120449294</v>
       </c>
       <c r="R18" t="n">
-        <v>10.44391207770066</v>
+        <v>3.961571699024972</v>
       </c>
       <c r="S18" t="n">
-        <v>48.12969992989484</v>
+        <v>53.93663745658462</v>
       </c>
       <c r="T18" t="n">
-        <v>33.77211873000567</v>
+        <v>84.66361896627639</v>
       </c>
       <c r="U18" t="n">
-        <v>20.16807487163968</v>
+        <v>44.06319751447572</v>
       </c>
       <c r="V18" t="n">
-        <v>95.89491874999993</v>
+        <v>15.94944796843168</v>
       </c>
       <c r="W18" t="n">
-        <v>48.13624475155261</v>
+        <v>102.7078803711566</v>
       </c>
       <c r="X18" t="n">
-        <v>144.8042472855522</v>
+        <v>28.90823032633626</v>
       </c>
       <c r="Y18" t="n">
-        <v>35.6932174003815</v>
+        <v>81.96042522974336</v>
       </c>
       <c r="Z18" t="n">
-        <v>125.8509354395503</v>
+        <v>19.20745010861849</v>
       </c>
       <c r="AA18" t="n">
-        <v>23.10483971428569</v>
+        <v>25.44616170550197</v>
       </c>
       <c r="AB18" t="n">
-        <v>50.61824238978009</v>
+        <v>40.89319878816335</v>
       </c>
       <c r="AC18" t="n">
-        <v>0</v>
+        <v>14.74861543578398</v>
       </c>
       <c r="AD18" t="n">
-        <v>111.1021680485949</v>
+        <v>25.65647460785712</v>
       </c>
       <c r="AE18" t="n">
-        <v>69.41741275496764</v>
+        <v>31.29882500727268</v>
       </c>
       <c r="AF18" t="n">
-        <v>13.18705234500246</v>
+        <v>71.25510512699759</v>
       </c>
       <c r="AG18" t="n">
-        <v>46.63471870669922</v>
+        <v>91.81475892956112</v>
       </c>
       <c r="AH18" t="n">
-        <v>18.66739505602644</v>
+        <v>39.28709484620793</v>
       </c>
       <c r="AI18" t="n">
-        <v>59.5987313788586</v>
+        <v>19.78859913377581</v>
       </c>
       <c r="AJ18" t="n">
-        <v>24.59550763111941</v>
+        <v>16.4216889745621</v>
       </c>
       <c r="AK18" t="n">
-        <v>11.59420651889152</v>
+        <v>18.11828843813279</v>
       </c>
       <c r="AL18" t="n">
-        <v>32.0148105730553</v>
+        <v>15.86484204402461</v>
       </c>
       <c r="AM18" t="n">
-        <v>21.63680353296658</v>
+        <v>44.08176374355665</v>
       </c>
       <c r="AN18" t="n">
-        <v>22.23437392958552</v>
+        <v>14.74811509363706</v>
       </c>
       <c r="AO18" t="n">
-        <v>30.28306764996595</v>
+        <v>50.41366698070609</v>
       </c>
       <c r="AP18" t="n">
-        <v>30.26810904328883</v>
+        <v>28.52388479826218</v>
       </c>
       <c r="AQ18" t="n">
-        <v>38.82116596136864</v>
+        <v>103.5728659433202</v>
       </c>
       <c r="AR18" t="n">
-        <v>27.72970992845519</v>
+        <v>22.11616726119976</v>
       </c>
       <c r="AS18" t="n">
-        <v>25.4817182808437</v>
+        <v>15.5930085532308</v>
       </c>
       <c r="AT18" t="n">
-        <v>4.200047212860041</v>
+        <v>10.3320999824892</v>
       </c>
       <c r="AU18" t="n">
-        <v>18.34399184753836</v>
+        <v>15.98299354147527</v>
       </c>
       <c r="AV18" t="n">
-        <v>2.193156953975894</v>
+        <v>162.5793242961387</v>
       </c>
       <c r="AW18" t="n">
-        <v>31.17564467136161</v>
+        <v>36.04027468552078</v>
       </c>
       <c r="AX18" t="n">
-        <v>28.71957295453763</v>
+        <v>68.12783566313593</v>
       </c>
     </row>
     <row r="19">
@@ -68372,148 +68372,148 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1.558571428571428</v>
+        <v>11.42949854406043</v>
       </c>
       <c r="D19" t="n">
-        <v>4.726792092920956</v>
+        <v>1.632849926497545</v>
       </c>
       <c r="E19" t="n">
-        <v>3.70072017834663</v>
+        <v>4.163212445762449</v>
       </c>
       <c r="F19" t="n">
-        <v>46.36511175025648</v>
+        <v>1.618982554630652</v>
       </c>
       <c r="G19" t="n">
-        <v>5.489493940037812</v>
+        <v>20.12083347447994</v>
       </c>
       <c r="H19" t="n">
-        <v>2.871972448428071</v>
+        <v>7.537740376558247</v>
       </c>
       <c r="I19" t="n">
-        <v>30.20173809823867</v>
+        <v>129.1137998938151</v>
       </c>
       <c r="J19" t="n">
-        <v>8.76598143965429</v>
+        <v>18.7374313059276</v>
       </c>
       <c r="K19" t="n">
-        <v>28.74567460954635</v>
+        <v>91.02837121987717</v>
       </c>
       <c r="L19" t="n">
-        <v>38.80041724692353</v>
+        <v>11.15886606548362</v>
       </c>
       <c r="M19" t="n">
-        <v>50.23824681756828</v>
+        <v>59.06064824941406</v>
       </c>
       <c r="N19" t="n">
-        <v>79.70559441894619</v>
+        <v>24.5261671150731</v>
       </c>
       <c r="O19" t="n">
-        <v>8.000438493363776</v>
+        <v>15.10412695875753</v>
       </c>
       <c r="P19" t="n">
-        <v>25.3003128</v>
+        <v>38.45812674694691</v>
       </c>
       <c r="Q19" t="n">
-        <v>19.06993273805335</v>
+        <v>16.81455257417225</v>
       </c>
       <c r="R19" t="n">
-        <v>13.24885998078943</v>
+        <v>14.07282079570675</v>
       </c>
       <c r="S19" t="n">
-        <v>12.67469843826668</v>
+        <v>17.13146755535183</v>
       </c>
       <c r="T19" t="n">
-        <v>17.348625</v>
+        <v>67.27220757586366</v>
       </c>
       <c r="U19" t="n">
-        <v>37.02756268248473</v>
+        <v>16.09841007290092</v>
       </c>
       <c r="V19" t="n">
-        <v>17.48259874558246</v>
+        <v>43.62406177717106</v>
       </c>
       <c r="W19" t="n">
-        <v>46.49677125886982</v>
+        <v>17.15564283101211</v>
       </c>
       <c r="X19" t="n">
-        <v>14.27614357395386</v>
+        <v>22.75838328180788</v>
       </c>
       <c r="Y19" t="n">
-        <v>20.9957248</v>
+        <v>29.38669122744064</v>
       </c>
       <c r="Z19" t="n">
-        <v>14.13098958373392</v>
+        <v>12.49813857564829</v>
       </c>
       <c r="AA19" t="n">
-        <v>14.28414397758183</v>
+        <v>13.75698678716515</v>
       </c>
       <c r="AB19" t="n">
-        <v>14.95073859972895</v>
+        <v>23.1834178580025</v>
       </c>
       <c r="AC19" t="n">
-        <v>19.6107067031053</v>
+        <v>15.46163814484084</v>
       </c>
       <c r="AD19" t="n">
-        <v>17.1513</v>
+        <v>32.66013136923224</v>
       </c>
       <c r="AE19" t="n">
-        <v>17.44229142857143</v>
+        <v>11.40884309765229</v>
       </c>
       <c r="AF19" t="n">
-        <v>6.287317943937408</v>
+        <v>24.30976306901721</v>
       </c>
       <c r="AG19" t="n">
-        <v>22.67249197268325</v>
+        <v>16.86555682998116</v>
       </c>
       <c r="AH19" t="n">
-        <v>10.77308209647393</v>
+        <v>10.99344319825772</v>
       </c>
       <c r="AI19" t="n">
-        <v>14.15823105947055</v>
+        <v>15.7532114389859</v>
       </c>
       <c r="AJ19" t="n">
-        <v>7.357799878786603</v>
+        <v>15.90513782653369</v>
       </c>
       <c r="AK19" t="n">
-        <v>3.429477708623769</v>
+        <v>20.26530468463771</v>
       </c>
       <c r="AL19" t="n">
-        <v>4.423487745477446</v>
+        <v>10.8759518994131</v>
       </c>
       <c r="AM19" t="n">
-        <v>8.017693539907869</v>
+        <v>3.306707085848836</v>
       </c>
       <c r="AN19" t="n">
-        <v>2.703769302920551</v>
+        <v>4.354698099205017</v>
       </c>
       <c r="AO19" t="n">
-        <v>6.488644734478833</v>
+        <v>5.297355786922939</v>
       </c>
       <c r="AP19" t="n">
-        <v>5.288270349391934</v>
+        <v>4.957059499539354</v>
       </c>
       <c r="AQ19" t="n">
-        <v>3.481993332684649</v>
+        <v>6.618342049424356</v>
       </c>
       <c r="AR19" t="n">
-        <v>1.558380058733309</v>
+        <v>6.465084542723966</v>
       </c>
       <c r="AS19" t="n">
-        <v>3.548556521410173</v>
+        <v>2.941567812470436</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.7574824590518755</v>
+        <v>1.242209181094615</v>
       </c>
       <c r="AU19" t="n">
-        <v>0.7627459149789666</v>
+        <v>6.009769664983804</v>
       </c>
       <c r="AV19" t="n">
-        <v>2.830415764588147</v>
+        <v>16.34565035060634</v>
       </c>
       <c r="AW19" t="n">
-        <v>1.873952499733101</v>
+        <v>2.072129436210856</v>
       </c>
       <c r="AX19" t="n">
-        <v>2.408912722784631</v>
+        <v>3.700967281925394</v>
       </c>
     </row>
     <row r="20">
@@ -68526,148 +68526,148 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3.55</v>
+        <v>85.32937402660967</v>
       </c>
       <c r="D20" t="n">
-        <v>8.77</v>
+        <v>1.994246863191441</v>
       </c>
       <c r="E20" t="n">
-        <v>5.91</v>
+        <v>2.764115634960602</v>
       </c>
       <c r="F20" t="n">
-        <v>30.39</v>
+        <v>1.740426911894534</v>
       </c>
       <c r="G20" t="n">
-        <v>22.86825543297943</v>
+        <v>14.240602794278</v>
       </c>
       <c r="H20" t="n">
-        <v>26.17</v>
+        <v>23.8607840313889</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>8.70965048720856</v>
       </c>
       <c r="J20" t="n">
-        <v>29.74</v>
+        <v>37.03859264504249</v>
       </c>
       <c r="K20" t="n">
-        <v>9.170328443314762</v>
+        <v>97.87995360925594</v>
       </c>
       <c r="L20" t="n">
-        <v>45.63</v>
+        <v>64.65171440387014</v>
       </c>
       <c r="M20" t="n">
-        <v>12.53</v>
+        <v>42.15809324045934</v>
       </c>
       <c r="N20" t="n">
-        <v>39.56</v>
+        <v>5.016533011720072</v>
       </c>
       <c r="O20" t="n">
-        <v>11.7</v>
+        <v>6.492157599103214</v>
       </c>
       <c r="P20" t="n">
-        <v>30.52</v>
+        <v>36.25428146937055</v>
       </c>
       <c r="Q20" t="n">
-        <v>118.71</v>
+        <v>42.4274716261551</v>
       </c>
       <c r="R20" t="n">
-        <v>44.9</v>
+        <v>10.99453250065376</v>
       </c>
       <c r="S20" t="n">
-        <v>58.87</v>
+        <v>26.02485859001641</v>
       </c>
       <c r="T20" t="n">
-        <v>16.23</v>
+        <v>80.6819774065153</v>
       </c>
       <c r="U20" t="n">
-        <v>25.42</v>
+        <v>15.77222083862153</v>
       </c>
       <c r="V20" t="n">
-        <v>37.39</v>
+        <v>32.00451344068613</v>
       </c>
       <c r="W20" t="n">
-        <v>20.63</v>
+        <v>7.543824010056565</v>
       </c>
       <c r="X20" t="n">
-        <v>9.33</v>
+        <v>12.15267551877664</v>
       </c>
       <c r="Y20" t="n">
-        <v>37.13</v>
+        <v>8.458438539307577</v>
       </c>
       <c r="Z20" t="n">
-        <v>1</v>
+        <v>2.265711375811961</v>
       </c>
       <c r="AA20" t="n">
-        <v>2.74</v>
+        <v>1.99631615998041</v>
       </c>
       <c r="AB20" t="n">
-        <v>14.32</v>
+        <v>7.767796817421955</v>
       </c>
       <c r="AC20" t="n">
-        <v>35.87</v>
+        <v>5.848826692141027</v>
       </c>
       <c r="AD20" t="n">
-        <v>3.52</v>
+        <v>4.992115150046728</v>
       </c>
       <c r="AE20" t="n">
-        <v>9.91</v>
+        <v>27.6215851417552</v>
       </c>
       <c r="AF20" t="n">
-        <v>13.82625</v>
+        <v>16.99853594994145</v>
       </c>
       <c r="AG20" t="n">
-        <v>1.87</v>
+        <v>9.495219355456532</v>
       </c>
       <c r="AH20" t="n">
-        <v>15.69</v>
+        <v>13.2519664937862</v>
       </c>
       <c r="AI20" t="n">
-        <v>5.879125033756412</v>
+        <v>30.56203785254251</v>
       </c>
       <c r="AJ20" t="n">
-        <v>16.81</v>
+        <v>4.087350953013104</v>
       </c>
       <c r="AK20" t="n">
-        <v>2.66</v>
+        <v>6.178984586259165</v>
       </c>
       <c r="AL20" t="n">
-        <v>8.48</v>
+        <v>11.43461471927649</v>
       </c>
       <c r="AM20" t="n">
-        <v>3.797861379773617</v>
+        <v>6.592929405109713</v>
       </c>
       <c r="AN20" t="n">
-        <v>3.45</v>
+        <v>3.882421966702427</v>
       </c>
       <c r="AO20" t="n">
-        <v>22.74</v>
+        <v>11.68152695544715</v>
       </c>
       <c r="AP20" t="n">
-        <v>8.720000000000001</v>
+        <v>6.13285327420527</v>
       </c>
       <c r="AQ20" t="n">
-        <v>17.01</v>
+        <v>15.51749785216939</v>
       </c>
       <c r="AR20" t="n">
-        <v>1.02</v>
+        <v>4.555280778032695</v>
       </c>
       <c r="AS20" t="n">
-        <v>3.77</v>
+        <v>5.810627596103133</v>
       </c>
       <c r="AT20" t="n">
-        <v>13.7</v>
+        <v>10.85381490989304</v>
       </c>
       <c r="AU20" t="n">
-        <v>3.91</v>
+        <v>1.76542039634289</v>
       </c>
       <c r="AV20" t="n">
-        <v>0.5085520552548197</v>
+        <v>2.627446099174728</v>
       </c>
       <c r="AW20" t="n">
-        <v>2.03</v>
+        <v>35.70598600210097</v>
       </c>
       <c r="AX20" t="n">
-        <v>1.97</v>
+        <v>39.4014213593121</v>
       </c>
     </row>
     <row r="21">
@@ -68680,148 +68680,148 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>16.00839506235691</v>
+        <v>13.19393718714279</v>
       </c>
       <c r="D21" t="n">
-        <v>25.89045906962602</v>
+        <v>20.67402572540121</v>
       </c>
       <c r="E21" t="n">
-        <v>18.69429185994582</v>
+        <v>34.16154165003683</v>
       </c>
       <c r="F21" t="n">
-        <v>15.43304137373142</v>
+        <v>6.704504174534642</v>
       </c>
       <c r="G21" t="n">
-        <v>17.85130984493525</v>
+        <v>66.35997156026771</v>
       </c>
       <c r="H21" t="n">
-        <v>20.87759811722354</v>
+        <v>10.27949384282165</v>
       </c>
       <c r="I21" t="n">
-        <v>24.20511669141777</v>
+        <v>15.87211772820948</v>
       </c>
       <c r="J21" t="n">
-        <v>23.57487300035998</v>
+        <v>64.54176807703334</v>
       </c>
       <c r="K21" t="n">
-        <v>72.72420771318419</v>
+        <v>122.8770651618495</v>
       </c>
       <c r="L21" t="n">
-        <v>28.34512801893633</v>
+        <v>71.17873844780244</v>
       </c>
       <c r="M21" t="n">
-        <v>66.50841312934293</v>
+        <v>171.6348510258944</v>
       </c>
       <c r="N21" t="n">
-        <v>38.60490892508807</v>
+        <v>70.16260896064335</v>
       </c>
       <c r="O21" t="n">
-        <v>71.24885224461588</v>
+        <v>52.43481546626333</v>
       </c>
       <c r="P21" t="n">
-        <v>66.51101705645263</v>
+        <v>47.62834268294237</v>
       </c>
       <c r="Q21" t="n">
-        <v>68.68774472844143</v>
+        <v>226.829349146298</v>
       </c>
       <c r="R21" t="n">
-        <v>43.39164998434924</v>
+        <v>21.82216229084112</v>
       </c>
       <c r="S21" t="n">
-        <v>27.08584092547852</v>
+        <v>117.6386830759226</v>
       </c>
       <c r="T21" t="n">
-        <v>22.89149348468512</v>
+        <v>73.10282824877585</v>
       </c>
       <c r="U21" t="n">
-        <v>43.5213152773387</v>
+        <v>41.61052011283904</v>
       </c>
       <c r="V21" t="n">
-        <v>54.45653881546649</v>
+        <v>57.97329203831913</v>
       </c>
       <c r="W21" t="n">
-        <v>49.40707353185734</v>
+        <v>156.6358181848876</v>
       </c>
       <c r="X21" t="n">
-        <v>75.18575490777181</v>
+        <v>116.6790552965418</v>
       </c>
       <c r="Y21" t="n">
-        <v>50.71345570199709</v>
+        <v>76.90821758839787</v>
       </c>
       <c r="Z21" t="n">
-        <v>89.7131647530299</v>
+        <v>80.9084020804348</v>
       </c>
       <c r="AA21" t="n">
-        <v>64.87766804028217</v>
+        <v>96.17914132871138</v>
       </c>
       <c r="AB21" t="n">
-        <v>89.84995036005198</v>
+        <v>65.82373264903637</v>
       </c>
       <c r="AC21" t="n">
-        <v>121.2789773901935</v>
+        <v>80.10593564675071</v>
       </c>
       <c r="AD21" t="n">
-        <v>185.7772521924817</v>
+        <v>122.6504498389807</v>
       </c>
       <c r="AE21" t="n">
-        <v>142.2233042106196</v>
+        <v>134.7275427098378</v>
       </c>
       <c r="AF21" t="n">
-        <v>152.7978345349406</v>
+        <v>153.3354414763284</v>
       </c>
       <c r="AG21" t="n">
-        <v>85.42807572824213</v>
+        <v>62.25883205947082</v>
       </c>
       <c r="AH21" t="n">
-        <v>83.79418712711312</v>
+        <v>164.5305548464416</v>
       </c>
       <c r="AI21" t="n">
-        <v>177.5622043654968</v>
+        <v>79.7994168009116</v>
       </c>
       <c r="AJ21" t="n">
-        <v>23.03140091076305</v>
+        <v>135.4647440442784</v>
       </c>
       <c r="AK21" t="n">
-        <v>31.39350436218596</v>
+        <v>85.64119467134469</v>
       </c>
       <c r="AL21" t="n">
-        <v>56.27439145144649</v>
+        <v>55.70820183968412</v>
       </c>
       <c r="AM21" t="n">
-        <v>46.671746477082</v>
+        <v>44.46130922673169</v>
       </c>
       <c r="AN21" t="n">
-        <v>57.90526886611089</v>
+        <v>31.77149214313624</v>
       </c>
       <c r="AO21" t="n">
-        <v>29.75316515618815</v>
+        <v>25.67942751577727</v>
       </c>
       <c r="AP21" t="n">
-        <v>26.72784217625677</v>
+        <v>16.8798446775794</v>
       </c>
       <c r="AQ21" t="n">
-        <v>16.61804550290326</v>
+        <v>21.58994967680392</v>
       </c>
       <c r="AR21" t="n">
-        <v>14.30034267845765</v>
+        <v>26.74423161080669</v>
       </c>
       <c r="AS21" t="n">
-        <v>23.31943588241873</v>
+        <v>11.98280392793463</v>
       </c>
       <c r="AT21" t="n">
-        <v>29.2633378470583</v>
+        <v>52.70897236010524</v>
       </c>
       <c r="AU21" t="n">
-        <v>13.06634568327597</v>
+        <v>25.89338635766936</v>
       </c>
       <c r="AV21" t="n">
-        <v>15.93783235868813</v>
+        <v>16.45165946448131</v>
       </c>
       <c r="AW21" t="n">
-        <v>11.8143693284839</v>
+        <v>18.41416365474707</v>
       </c>
       <c r="AX21" t="n">
-        <v>13.20386186816122</v>
+        <v>19.50086597475158</v>
       </c>
     </row>
     <row r="22">
@@ -68834,148 +68834,148 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3.187817258883249</v>
+        <v>0.4274918022335542</v>
       </c>
       <c r="D22" t="n">
-        <v>3.188552061758614</v>
+        <v>2.809581496965608</v>
       </c>
       <c r="E22" t="n">
-        <v>5.169330717264734</v>
+        <v>18.02789730139002</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0585630589405667</v>
+        <v>8.638013697141648</v>
       </c>
       <c r="G22" t="n">
-        <v>1.713082334148223</v>
+        <v>0.4865071148377927</v>
       </c>
       <c r="H22" t="n">
-        <v>3.644596430285131</v>
+        <v>0.7656303207178585</v>
       </c>
       <c r="I22" t="n">
-        <v>2.25288390952287</v>
+        <v>3.327137963732065</v>
       </c>
       <c r="J22" t="n">
-        <v>1.141540099850116</v>
+        <v>4.512266245395399</v>
       </c>
       <c r="K22" t="n">
-        <v>2.677947618857553</v>
+        <v>1.981975122868506</v>
       </c>
       <c r="L22" t="n">
-        <v>4.333756296475006</v>
+        <v>2.000073117275658</v>
       </c>
       <c r="M22" t="n">
-        <v>5.48735541377313</v>
+        <v>4.658591700334221</v>
       </c>
       <c r="N22" t="n">
-        <v>7.492409532215357</v>
+        <v>5.848508538814073</v>
       </c>
       <c r="O22" t="n">
-        <v>15.1759992</v>
+        <v>2.101382456978552</v>
       </c>
       <c r="P22" t="n">
-        <v>2.142455982793177</v>
+        <v>1.715650066766158</v>
       </c>
       <c r="Q22" t="n">
-        <v>4.648112285595019</v>
+        <v>3.339267969023392</v>
       </c>
       <c r="R22" t="n">
-        <v>4.865674446412602</v>
+        <v>7.658363530837056</v>
       </c>
       <c r="S22" t="n">
-        <v>2.251596177358937</v>
+        <v>3.869025459873976</v>
       </c>
       <c r="T22" t="n">
-        <v>2.178160790897221</v>
+        <v>4.262514915457838</v>
       </c>
       <c r="U22" t="n">
-        <v>5.386964226661363</v>
+        <v>9.146469382428911</v>
       </c>
       <c r="V22" t="n">
-        <v>0.7335999290765783</v>
+        <v>6.712447142795905</v>
       </c>
       <c r="W22" t="n">
-        <v>2.350331740193361</v>
+        <v>3.684960829163328</v>
       </c>
       <c r="X22" t="n">
-        <v>5.227424141481437</v>
+        <v>1.941601400975205</v>
       </c>
       <c r="Y22" t="n">
-        <v>5.114049708066386</v>
+        <v>9.562251130715209</v>
       </c>
       <c r="Z22" t="n">
-        <v>8.566495755011996</v>
+        <v>3.983478961150767</v>
       </c>
       <c r="AA22" t="n">
-        <v>5.624136058393977</v>
+        <v>3.567105628720119</v>
       </c>
       <c r="AB22" t="n">
-        <v>5.242062005573995</v>
+        <v>6.340201642464578</v>
       </c>
       <c r="AC22" t="n">
-        <v>4.708331249432795</v>
+        <v>6.081057289247743</v>
       </c>
       <c r="AD22" t="n">
-        <v>4.617439360918755</v>
+        <v>5.263664942020405</v>
       </c>
       <c r="AE22" t="n">
-        <v>5.793793164925567</v>
+        <v>3.04075026380844</v>
       </c>
       <c r="AF22" t="n">
-        <v>4.916114318843475</v>
+        <v>7.670571932078064</v>
       </c>
       <c r="AG22" t="n">
-        <v>11.82801836892298</v>
+        <v>9.011605117485145</v>
       </c>
       <c r="AH22" t="n">
-        <v>3.739525642050451</v>
+        <v>2.216488646155909</v>
       </c>
       <c r="AI22" t="n">
-        <v>9.417028569202905</v>
+        <v>11.61167719144583</v>
       </c>
       <c r="AJ22" t="n">
-        <v>6.024262241960747</v>
+        <v>9.801318329198555</v>
       </c>
       <c r="AK22" t="n">
-        <v>5.572556336512575</v>
+        <v>2.938552263178785</v>
       </c>
       <c r="AL22" t="n">
-        <v>5.05981151263214</v>
+        <v>7.078179444441529</v>
       </c>
       <c r="AM22" t="n">
-        <v>5.211580979119145</v>
+        <v>6.593951735995587</v>
       </c>
       <c r="AN22" t="n">
-        <v>4.763459640141178</v>
+        <v>1.153880960308343</v>
       </c>
       <c r="AO22" t="n">
-        <v>7.141315621817991</v>
+        <v>2.233525336329371</v>
       </c>
       <c r="AP22" t="n">
-        <v>3.726800184527022</v>
+        <v>3.576105213519008</v>
       </c>
       <c r="AQ22" t="n">
-        <v>8.913141935592254</v>
+        <v>2.477645056611507</v>
       </c>
       <c r="AR22" t="n">
-        <v>4.328248696659586</v>
+        <v>4.223017079952145</v>
       </c>
       <c r="AS22" t="n">
-        <v>3.860053943234414</v>
+        <v>2.712133060069887</v>
       </c>
       <c r="AT22" t="n">
-        <v>3.375038679731821</v>
+        <v>3.037041734813534</v>
       </c>
       <c r="AU22" t="n">
-        <v>5.186265735668497</v>
+        <v>7.528819220407201</v>
       </c>
       <c r="AV22" t="n">
-        <v>3.686018989045849</v>
+        <v>1.975341927671817</v>
       </c>
       <c r="AW22" t="n">
-        <v>2.451734211225928</v>
+        <v>0.4485612819766218</v>
       </c>
       <c r="AX22" t="n">
-        <v>0.1609774932586978</v>
+        <v>19.98636639398095</v>
       </c>
     </row>
     <row r="23">
@@ -68988,148 +68988,148 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>13.30857789149974</v>
+        <v>7.581084027429226</v>
       </c>
       <c r="D23" t="n">
-        <v>7.234421012991902</v>
+        <v>10.42884103526061</v>
       </c>
       <c r="E23" t="n">
-        <v>21.40600659115362</v>
+        <v>9.87986410549774</v>
       </c>
       <c r="F23" t="n">
-        <v>29.92213276655001</v>
+        <v>8.66917360903369</v>
       </c>
       <c r="G23" t="n">
-        <v>8.695089369708372</v>
+        <v>8.402709465039097</v>
       </c>
       <c r="H23" t="n">
-        <v>11.52585598330351</v>
+        <v>19.28379081524814</v>
       </c>
       <c r="I23" t="n">
-        <v>26.84247582434069</v>
+        <v>30.30744428658144</v>
       </c>
       <c r="J23" t="n">
-        <v>9.747946352275189</v>
+        <v>79.02771857726233</v>
       </c>
       <c r="K23" t="n">
-        <v>9.286477290837878</v>
+        <v>16.31245767740499</v>
       </c>
       <c r="L23" t="n">
-        <v>66.32764655699734</v>
+        <v>77.9324101349786</v>
       </c>
       <c r="M23" t="n">
-        <v>24.72317268919078</v>
+        <v>119.5268687868053</v>
       </c>
       <c r="N23" t="n">
-        <v>219.766967920006</v>
+        <v>133.2417709434245</v>
       </c>
       <c r="O23" t="n">
-        <v>72.57364339841843</v>
+        <v>55.465953943604</v>
       </c>
       <c r="P23" t="n">
-        <v>53.46717796158409</v>
+        <v>59.04639083355799</v>
       </c>
       <c r="Q23" t="n">
-        <v>33.47931465286455</v>
+        <v>109.6534640603728</v>
       </c>
       <c r="R23" t="n">
-        <v>52.67577323959254</v>
+        <v>23.6706655712589</v>
       </c>
       <c r="S23" t="n">
-        <v>124.2493422494738</v>
+        <v>35.88255636801215</v>
       </c>
       <c r="T23" t="n">
-        <v>56.83319763628317</v>
+        <v>235.1179988569914</v>
       </c>
       <c r="U23" t="n">
-        <v>71.61616568355386</v>
+        <v>47.26956992969426</v>
       </c>
       <c r="V23" t="n">
-        <v>63.74932576809319</v>
+        <v>20.64796387089762</v>
       </c>
       <c r="W23" t="n">
-        <v>168.4535078397076</v>
+        <v>67.62898951390149</v>
       </c>
       <c r="X23" t="n">
-        <v>51.78783727102319</v>
+        <v>67.88655070662033</v>
       </c>
       <c r="Y23" t="n">
-        <v>57.49206010605074</v>
+        <v>78.57781642412009</v>
       </c>
       <c r="Z23" t="n">
-        <v>118.1270760262807</v>
+        <v>51.67211257983956</v>
       </c>
       <c r="AA23" t="n">
-        <v>81.36711132533796</v>
+        <v>67.96299461848487</v>
       </c>
       <c r="AB23" t="n">
-        <v>30.61220347387765</v>
+        <v>35.83064542040935</v>
       </c>
       <c r="AC23" t="n">
-        <v>91.64299994585987</v>
+        <v>51.87478793600466</v>
       </c>
       <c r="AD23" t="n">
-        <v>182.0095345380677</v>
+        <v>48.54699217061205</v>
       </c>
       <c r="AE23" t="n">
-        <v>47.27999356619065</v>
+        <v>83.12926513722262</v>
       </c>
       <c r="AF23" t="n">
-        <v>34.46008781399014</v>
+        <v>47.60386950298356</v>
       </c>
       <c r="AG23" t="n">
-        <v>108.4497003942498</v>
+        <v>36.57062232474994</v>
       </c>
       <c r="AH23" t="n">
-        <v>37.16143153873701</v>
+        <v>89.0797637246209</v>
       </c>
       <c r="AI23" t="n">
-        <v>12.0688780075091</v>
+        <v>21.85246593533397</v>
       </c>
       <c r="AJ23" t="n">
-        <v>28.05413892839893</v>
+        <v>82.10885835479925</v>
       </c>
       <c r="AK23" t="n">
-        <v>70.80429257271958</v>
+        <v>22.89291273853825</v>
       </c>
       <c r="AL23" t="n">
-        <v>19.76086821111168</v>
+        <v>20.9350789396726</v>
       </c>
       <c r="AM23" t="n">
-        <v>66.77799649373416</v>
+        <v>8.382487249379324</v>
       </c>
       <c r="AN23" t="n">
-        <v>27.37115989323776</v>
+        <v>50.70556680330031</v>
       </c>
       <c r="AO23" t="n">
-        <v>17.62965728778974</v>
+        <v>22.43538521739531</v>
       </c>
       <c r="AP23" t="n">
-        <v>24.48387878787879</v>
+        <v>22.59989561828838</v>
       </c>
       <c r="AQ23" t="n">
-        <v>11.90497444213758</v>
+        <v>6.407451877830231</v>
       </c>
       <c r="AR23" t="n">
-        <v>18.38818896949616</v>
+        <v>16.94697367402812</v>
       </c>
       <c r="AS23" t="n">
-        <v>12.19622302725224</v>
+        <v>15.36195666636033</v>
       </c>
       <c r="AT23" t="n">
-        <v>10.98457113507961</v>
+        <v>15.09714922327043</v>
       </c>
       <c r="AU23" t="n">
-        <v>16.51334180432021</v>
+        <v>13.29647490261277</v>
       </c>
       <c r="AV23" t="n">
-        <v>9.211246504957529</v>
+        <v>19.16925046207599</v>
       </c>
       <c r="AW23" t="n">
-        <v>8.462189743170448</v>
+        <v>7.257170573429343</v>
       </c>
       <c r="AX23" t="n">
-        <v>10.06546478268944</v>
+        <v>9.450802821351958</v>
       </c>
     </row>
     <row r="24">
@@ -69142,148 +69142,148 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>14.99237939626155</v>
+        <v>29.23245152208296</v>
       </c>
       <c r="D24" t="n">
-        <v>15.05699858301803</v>
+        <v>71.76119431845835</v>
       </c>
       <c r="E24" t="n">
-        <v>15.72125190716943</v>
+        <v>16.54263589706435</v>
       </c>
       <c r="F24" t="n">
-        <v>43.70580609070261</v>
+        <v>26.27538565238648</v>
       </c>
       <c r="G24" t="n">
-        <v>28.14308495295175</v>
+        <v>13.46403048603576</v>
       </c>
       <c r="H24" t="n">
-        <v>6.213178270458754</v>
+        <v>8.661613993446002</v>
       </c>
       <c r="I24" t="n">
-        <v>12.6593837155174</v>
+        <v>10.96138037786366</v>
       </c>
       <c r="J24" t="n">
-        <v>70.41293157253097</v>
+        <v>5.496081915431395</v>
       </c>
       <c r="K24" t="n">
-        <v>41.59462456574006</v>
+        <v>38.2885544640226</v>
       </c>
       <c r="L24" t="n">
-        <v>29.14826177519171</v>
+        <v>43.4119616785314</v>
       </c>
       <c r="M24" t="n">
-        <v>13.47866890279074</v>
+        <v>42.32126134134615</v>
       </c>
       <c r="N24" t="n">
-        <v>31.10697634884485</v>
+        <v>171.8202822157251</v>
       </c>
       <c r="O24" t="n">
-        <v>19.0221309405204</v>
+        <v>172.7714852764079</v>
       </c>
       <c r="P24" t="n">
-        <v>97.90551906878605</v>
+        <v>58.88907421959963</v>
       </c>
       <c r="Q24" t="n">
-        <v>72.97646395094672</v>
+        <v>48.52583477734565</v>
       </c>
       <c r="R24" t="n">
-        <v>48.7198929454276</v>
+        <v>121.552390839837</v>
       </c>
       <c r="S24" t="n">
-        <v>48.12969992989484</v>
+        <v>93.73999906747466</v>
       </c>
       <c r="T24" t="n">
-        <v>22.89134053637403</v>
+        <v>21.90854438867386</v>
       </c>
       <c r="U24" t="n">
-        <v>163.902278954034</v>
+        <v>11.69152096259265</v>
       </c>
       <c r="V24" t="n">
-        <v>34.78798724215383</v>
+        <v>51.07576423436527</v>
       </c>
       <c r="W24" t="n">
-        <v>49.12076427213356</v>
+        <v>42.2804357521739</v>
       </c>
       <c r="X24" t="n">
-        <v>37.96322630377439</v>
+        <v>12.39466206391642</v>
       </c>
       <c r="Y24" t="n">
-        <v>71.8875309816833</v>
+        <v>20.04964515524664</v>
       </c>
       <c r="Z24" t="n">
-        <v>20.5074301951164</v>
+        <v>84.06811535271896</v>
       </c>
       <c r="AA24" t="n">
-        <v>19.97986652679449</v>
+        <v>33.29930829859443</v>
       </c>
       <c r="AB24" t="n">
-        <v>75.65531711484627</v>
+        <v>98.88711755194821</v>
       </c>
       <c r="AC24" t="n">
-        <v>27.80889807351681</v>
+        <v>21.59157930186623</v>
       </c>
       <c r="AD24" t="n">
-        <v>42.65273106826459</v>
+        <v>48.22549941171793</v>
       </c>
       <c r="AE24" t="n">
-        <v>21.48626709882363</v>
+        <v>22.14883929614036</v>
       </c>
       <c r="AF24" t="n">
-        <v>2.836665020761867</v>
+        <v>39.54597488475481</v>
       </c>
       <c r="AG24" t="n">
-        <v>27.22905025304686</v>
+        <v>59.53245764814572</v>
       </c>
       <c r="AH24" t="n">
-        <v>12.45044182421926</v>
+        <v>67.78706134132699</v>
       </c>
       <c r="AI24" t="n">
-        <v>42.75479488862374</v>
+        <v>14.25177123280207</v>
       </c>
       <c r="AJ24" t="n">
-        <v>70.33903265897027</v>
+        <v>12.9457727967844</v>
       </c>
       <c r="AK24" t="n">
-        <v>26.81725983346794</v>
+        <v>31.90065122173238</v>
       </c>
       <c r="AL24" t="n">
-        <v>52.66251469850337</v>
+        <v>10.55574934266826</v>
       </c>
       <c r="AM24" t="n">
-        <v>22.66016904242741</v>
+        <v>27.92063320285153</v>
       </c>
       <c r="AN24" t="n">
-        <v>8.507579404428725</v>
+        <v>7.486910940170292</v>
       </c>
       <c r="AO24" t="n">
-        <v>21.44021436363214</v>
+        <v>24.33053495261564</v>
       </c>
       <c r="AP24" t="n">
-        <v>22.77383599999998</v>
+        <v>31.20193229542386</v>
       </c>
       <c r="AQ24" t="n">
-        <v>20.77436843009319</v>
+        <v>75.23651197028289</v>
       </c>
       <c r="AR24" t="n">
-        <v>31.83249482693018</v>
+        <v>25.20190310565724</v>
       </c>
       <c r="AS24" t="n">
-        <v>21.30488739154395</v>
+        <v>20.67815807689152</v>
       </c>
       <c r="AT24" t="n">
-        <v>38.65886790081698</v>
+        <v>45.20388782503544</v>
       </c>
       <c r="AU24" t="n">
-        <v>18.34399184753836</v>
+        <v>42.55334876473317</v>
       </c>
       <c r="AV24" t="n">
-        <v>24.93455963110543</v>
+        <v>33.41125621282312</v>
       </c>
       <c r="AW24" t="n">
-        <v>27.94619177684429</v>
+        <v>25.3541619996854</v>
       </c>
       <c r="AX24" t="n">
-        <v>11.21995962732372</v>
+        <v>42.13868440294969</v>
       </c>
     </row>
     <row r="25">
@@ -69296,148 +69296,148 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2.2177584</v>
+        <v>3.452789455590345</v>
       </c>
       <c r="D25" t="n">
-        <v>7.299027239242291</v>
+        <v>8.336624825757911</v>
       </c>
       <c r="E25" t="n">
-        <v>1.191717099931441</v>
+        <v>1.923788887469201</v>
       </c>
       <c r="F25" t="n">
-        <v>0.583349504283377</v>
+        <v>1.355425779075436</v>
       </c>
       <c r="G25" t="n">
-        <v>6.082311466523849</v>
+        <v>4.354697306031175</v>
       </c>
       <c r="H25" t="n">
-        <v>10.75617172717107</v>
+        <v>8.913282094870567</v>
       </c>
       <c r="I25" t="n">
-        <v>13.45147338451332</v>
+        <v>19.48938003736277</v>
       </c>
       <c r="J25" t="n">
-        <v>7.769163687038245</v>
+        <v>35.58467410668317</v>
       </c>
       <c r="K25" t="n">
-        <v>16.92420540976795</v>
+        <v>10.1662430373815</v>
       </c>
       <c r="L25" t="n">
-        <v>27.92631574803504</v>
+        <v>16.76540565317912</v>
       </c>
       <c r="M25" t="n">
-        <v>37.42458550362162</v>
+        <v>23.9996716929199</v>
       </c>
       <c r="N25" t="n">
-        <v>27.31137674271486</v>
+        <v>28.34766468975845</v>
       </c>
       <c r="O25" t="n">
-        <v>78.52708665561889</v>
+        <v>44.83882191518074</v>
       </c>
       <c r="P25" t="n">
-        <v>10.47762166379077</v>
+        <v>52.4232885790089</v>
       </c>
       <c r="Q25" t="n">
-        <v>43.79011209280999</v>
+        <v>26.96610024196158</v>
       </c>
       <c r="R25" t="n">
-        <v>15.45655270694541</v>
+        <v>8.958842977375125</v>
       </c>
       <c r="S25" t="n">
-        <v>24.45630086480566</v>
+        <v>14.90252053969469</v>
       </c>
       <c r="T25" t="n">
-        <v>29.78413279177637</v>
+        <v>18.21714929847674</v>
       </c>
       <c r="U25" t="n">
-        <v>30.38196694217735</v>
+        <v>15.39149977307636</v>
       </c>
       <c r="V25" t="n">
-        <v>13.0786862069303</v>
+        <v>17.34647845068905</v>
       </c>
       <c r="W25" t="n">
-        <v>10.35091672409951</v>
+        <v>10.32980860971234</v>
       </c>
       <c r="X25" t="n">
-        <v>16.97729251826405</v>
+        <v>45.32039296223821</v>
       </c>
       <c r="Y25" t="n">
-        <v>11.04875984763351</v>
+        <v>17.23643778497553</v>
       </c>
       <c r="Z25" t="n">
-        <v>18.85101268584648</v>
+        <v>14.39547754421442</v>
       </c>
       <c r="AA25" t="n">
-        <v>14.93754398296894</v>
+        <v>17.83458797205898</v>
       </c>
       <c r="AB25" t="n">
-        <v>17.24255688904783</v>
+        <v>14.19059180796647</v>
       </c>
       <c r="AC25" t="n">
-        <v>15.90705756352656</v>
+        <v>15.95711107650341</v>
       </c>
       <c r="AD25" t="n">
-        <v>14.01461510854725</v>
+        <v>11.01697430641169</v>
       </c>
       <c r="AE25" t="n">
-        <v>17.89961567992946</v>
+        <v>17.22275756161486</v>
       </c>
       <c r="AF25" t="n">
-        <v>13.53078741234988</v>
+        <v>13.78743892014395</v>
       </c>
       <c r="AG25" t="n">
-        <v>10.87667567828844</v>
+        <v>21.41816783702907</v>
       </c>
       <c r="AH25" t="n">
-        <v>22.262076442088</v>
+        <v>25.25699925962544</v>
       </c>
       <c r="AI25" t="n">
-        <v>8.418322285714286</v>
+        <v>16.97423995366886</v>
       </c>
       <c r="AJ25" t="n">
-        <v>8.981033899037209</v>
+        <v>1.651843471374991</v>
       </c>
       <c r="AK25" t="n">
-        <v>3.943212437346951</v>
+        <v>16.19417572541198</v>
       </c>
       <c r="AL25" t="n">
-        <v>12.21364867631147</v>
+        <v>14.11892279145773</v>
       </c>
       <c r="AM25" t="n">
-        <v>5.130129028021569</v>
+        <v>4.053491136769302</v>
       </c>
       <c r="AN25" t="n">
-        <v>7.759104240047374</v>
+        <v>2.392794192481327</v>
       </c>
       <c r="AO25" t="n">
-        <v>6.56126220540675</v>
+        <v>1.147352564242175</v>
       </c>
       <c r="AP25" t="n">
-        <v>4.737107199412937</v>
+        <v>2.028108622553211</v>
       </c>
       <c r="AQ25" t="n">
-        <v>1.852056962090531</v>
+        <v>6.367019009291642</v>
       </c>
       <c r="AR25" t="n">
-        <v>5.289208502948188</v>
+        <v>2.420287243866439</v>
       </c>
       <c r="AS25" t="n">
-        <v>2.607346262127613</v>
+        <v>1.051234971060389</v>
       </c>
       <c r="AT25" t="n">
-        <v>2.53966939344292</v>
+        <v>1.595911575072537</v>
       </c>
       <c r="AU25" t="n">
-        <v>2.06137480847437</v>
+        <v>0.2232416117546856</v>
       </c>
       <c r="AV25" t="n">
-        <v>3.788252745226132</v>
+        <v>2.189517626053912</v>
       </c>
       <c r="AW25" t="n">
-        <v>1.140502745755815</v>
+        <v>1.505445193071359</v>
       </c>
       <c r="AX25" t="n">
-        <v>5.505314583371795</v>
+        <v>0.6801001607102091</v>
       </c>
     </row>
     <row r="26">
@@ -69450,148 +69450,148 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1.83</v>
+        <v>58.67667100079569</v>
       </c>
       <c r="D26" t="n">
-        <v>21.38</v>
+        <v>14.77359184375656</v>
       </c>
       <c r="E26" t="n">
-        <v>2.53</v>
+        <v>19.92203336276896</v>
       </c>
       <c r="F26" t="n">
-        <v>5.91</v>
+        <v>2.376718597414432</v>
       </c>
       <c r="G26" t="n">
-        <v>13.16</v>
+        <v>11.07422800145332</v>
       </c>
       <c r="H26" t="n">
-        <v>4.083714168</v>
+        <v>5.021207803262555</v>
       </c>
       <c r="I26" t="n">
-        <v>6.282781396285666</v>
+        <v>6.770641139362801</v>
       </c>
       <c r="J26" t="n">
-        <v>19.62</v>
+        <v>6.546608000249416</v>
       </c>
       <c r="K26" t="n">
-        <v>32.07</v>
+        <v>27.42213432332809</v>
       </c>
       <c r="L26" t="n">
-        <v>86.43000000000001</v>
+        <v>35.23160882585336</v>
       </c>
       <c r="M26" t="n">
-        <v>2.585714285714285</v>
+        <v>34.19393702243895</v>
       </c>
       <c r="N26" t="n">
-        <v>38.91</v>
+        <v>17.13089507093833</v>
       </c>
       <c r="O26" t="n">
-        <v>32.23</v>
+        <v>20.89294068467425</v>
       </c>
       <c r="P26" t="n">
-        <v>103.4714234332661</v>
+        <v>12.90415856355308</v>
       </c>
       <c r="Q26" t="n">
-        <v>112.61</v>
+        <v>24.36030080525903</v>
       </c>
       <c r="R26" t="n">
-        <v>55.58</v>
+        <v>667.163556425149</v>
       </c>
       <c r="S26" t="n">
-        <v>40.97</v>
+        <v>20.1615649113741</v>
       </c>
       <c r="T26" t="n">
-        <v>33.65</v>
+        <v>6.632855135755011</v>
       </c>
       <c r="U26" t="n">
-        <v>83.54000000000001</v>
+        <v>98.45839742229587</v>
       </c>
       <c r="V26" t="n">
-        <v>17.35</v>
+        <v>10.19759208251519</v>
       </c>
       <c r="W26" t="n">
-        <v>6.17</v>
+        <v>22.89836720269285</v>
       </c>
       <c r="X26" t="n">
-        <v>39.69</v>
+        <v>37.02304547946009</v>
       </c>
       <c r="Y26" t="n">
-        <v>9.869999999999999</v>
+        <v>3.795590764952166</v>
       </c>
       <c r="Z26" t="n">
-        <v>10.33</v>
+        <v>3.428715369860481</v>
       </c>
       <c r="AA26" t="n">
-        <v>11</v>
+        <v>64.4314191110284</v>
       </c>
       <c r="AB26" t="n">
-        <v>9.464862695297827</v>
+        <v>2.493627911614342</v>
       </c>
       <c r="AC26" t="n">
-        <v>2.74</v>
+        <v>13.05515898078347</v>
       </c>
       <c r="AD26" t="n">
-        <v>6.9</v>
+        <v>76.09601676775148</v>
       </c>
       <c r="AE26" t="n">
-        <v>10.65571428571429</v>
+        <v>10.4607214440872</v>
       </c>
       <c r="AF26" t="n">
-        <v>4.73</v>
+        <v>19.39494837907997</v>
       </c>
       <c r="AG26" t="n">
-        <v>1.816303733599114</v>
+        <v>7.053257909796678</v>
       </c>
       <c r="AH26" t="n">
-        <v>6.03</v>
+        <v>2.546201411456896</v>
       </c>
       <c r="AI26" t="n">
-        <v>10.68</v>
+        <v>1.785302271135909</v>
       </c>
       <c r="AJ26" t="n">
-        <v>9.1</v>
+        <v>0.5734163819599973</v>
       </c>
       <c r="AK26" t="n">
-        <v>2.97</v>
+        <v>10.64386330507968</v>
       </c>
       <c r="AL26" t="n">
-        <v>15.68</v>
+        <v>9.807701740268302</v>
       </c>
       <c r="AM26" t="n">
-        <v>11.35</v>
+        <v>1.01568482578771</v>
       </c>
       <c r="AN26" t="n">
-        <v>8.720000000000001</v>
+        <v>7.896245735785047</v>
       </c>
       <c r="AO26" t="n">
-        <v>8.529999999999999</v>
+        <v>2.149888221622066</v>
       </c>
       <c r="AP26" t="n">
-        <v>3.790752481463907</v>
+        <v>1.501463203578612</v>
       </c>
       <c r="AQ26" t="n">
-        <v>0.4720833565745357</v>
+        <v>39.06137637500454</v>
       </c>
       <c r="AR26" t="n">
-        <v>3.32</v>
+        <v>3.953780333585466</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.131927339901477</v>
+        <v>1.621071434030675</v>
       </c>
       <c r="AT26" t="n">
-        <v>4.99</v>
+        <v>3.831832784779178</v>
       </c>
       <c r="AU26" t="n">
-        <v>11.99</v>
+        <v>3.044283174061049</v>
       </c>
       <c r="AV26" t="n">
-        <v>5.62</v>
+        <v>2.918999680368733</v>
       </c>
       <c r="AW26" t="n">
-        <v>0.6436819436477933</v>
+        <v>6.2496078170001</v>
       </c>
       <c r="AX26" t="n">
-        <v>9.58</v>
+        <v>2.111021696451473</v>
       </c>
     </row>
     <row r="27">
@@ -69604,148 +69604,148 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>20.22171076881259</v>
+        <v>17.31331742943636</v>
       </c>
       <c r="D27" t="n">
-        <v>13.35370647754858</v>
+        <v>32.20176916313885</v>
       </c>
       <c r="E27" t="n">
-        <v>11.22406699874905</v>
+        <v>23.77602817423227</v>
       </c>
       <c r="F27" t="n">
-        <v>74.79999390569169</v>
+        <v>52.12035111856463</v>
       </c>
       <c r="G27" t="n">
-        <v>25.98113193298497</v>
+        <v>43.7998710205356</v>
       </c>
       <c r="H27" t="n">
-        <v>60.9525918192908</v>
+        <v>48.25866477013338</v>
       </c>
       <c r="I27" t="n">
-        <v>23.04173023797359</v>
+        <v>29.10351786525559</v>
       </c>
       <c r="J27" t="n">
-        <v>26.23742262748798</v>
+        <v>142.8233314957866</v>
       </c>
       <c r="K27" t="n">
-        <v>20.8890554446378</v>
+        <v>52.84391274810855</v>
       </c>
       <c r="L27" t="n">
-        <v>100.6817101156058</v>
+        <v>108.1735537953302</v>
       </c>
       <c r="M27" t="n">
-        <v>75.73072426284932</v>
+        <v>181.0220663805884</v>
       </c>
       <c r="N27" t="n">
-        <v>28.17929364979274</v>
+        <v>46.07323657386237</v>
       </c>
       <c r="O27" t="n">
-        <v>141.2772506233024</v>
+        <v>147.0131036410808</v>
       </c>
       <c r="P27" t="n">
-        <v>43.02014786813595</v>
+        <v>77.56485581833927</v>
       </c>
       <c r="Q27" t="n">
-        <v>28.88618745187415</v>
+        <v>75.40629424091925</v>
       </c>
       <c r="R27" t="n">
-        <v>48.81932225119522</v>
+        <v>85.37213067817738</v>
       </c>
       <c r="S27" t="n">
-        <v>80.34476243842261</v>
+        <v>73.87909488681871</v>
       </c>
       <c r="T27" t="n">
-        <v>42.17711069202292</v>
+        <v>65.26818920332221</v>
       </c>
       <c r="U27" t="n">
-        <v>32.92841324466569</v>
+        <v>33.36508928708871</v>
       </c>
       <c r="V27" t="n">
-        <v>40.33370421387338</v>
+        <v>66.09241907803438</v>
       </c>
       <c r="W27" t="n">
-        <v>44.98449213316717</v>
+        <v>57.977629254549</v>
       </c>
       <c r="X27" t="n">
-        <v>61.98509177284738</v>
+        <v>53.02962122165913</v>
       </c>
       <c r="Y27" t="n">
-        <v>40.43204013224678</v>
+        <v>78.28478957531946</v>
       </c>
       <c r="Z27" t="n">
-        <v>58.84780042146426</v>
+        <v>83.58129896148903</v>
       </c>
       <c r="AA27" t="n">
-        <v>113.1985938711357</v>
+        <v>83.60334402136783</v>
       </c>
       <c r="AB27" t="n">
-        <v>130.2669306104192</v>
+        <v>94.71954765233009</v>
       </c>
       <c r="AC27" t="n">
-        <v>168.853690848586</v>
+        <v>120.5194262276997</v>
       </c>
       <c r="AD27" t="n">
-        <v>136.202109612281</v>
+        <v>52.40970549784434</v>
       </c>
       <c r="AE27" t="n">
-        <v>124.7808974943988</v>
+        <v>98.67483064822483</v>
       </c>
       <c r="AF27" t="n">
-        <v>121.153750028868</v>
+        <v>140.5383182562115</v>
       </c>
       <c r="AG27" t="n">
-        <v>42.72974404175727</v>
+        <v>146.8267720223703</v>
       </c>
       <c r="AH27" t="n">
-        <v>186.5972231360792</v>
+        <v>103.9159188049251</v>
       </c>
       <c r="AI27" t="n">
-        <v>177.5622043654968</v>
+        <v>60.40059659169346</v>
       </c>
       <c r="AJ27" t="n">
-        <v>73.41453298192926</v>
+        <v>75.60094957678288</v>
       </c>
       <c r="AK27" t="n">
-        <v>85.77410414976518</v>
+        <v>35.80822754593278</v>
       </c>
       <c r="AL27" t="n">
-        <v>73.68198345162544</v>
+        <v>46.19498937810991</v>
       </c>
       <c r="AM27" t="n">
-        <v>48.73544843590224</v>
+        <v>52.1362488447875</v>
       </c>
       <c r="AN27" t="n">
-        <v>16.99318801505901</v>
+        <v>34.41839698221734</v>
       </c>
       <c r="AO27" t="n">
-        <v>20.96457950179374</v>
+        <v>26.84073516407595</v>
       </c>
       <c r="AP27" t="n">
-        <v>30.75895236148288</v>
+        <v>38.4907852677366</v>
       </c>
       <c r="AQ27" t="n">
-        <v>24.14529912525638</v>
+        <v>22.56734686136949</v>
       </c>
       <c r="AR27" t="n">
-        <v>26.92310148966179</v>
+        <v>20.37379410830678</v>
       </c>
       <c r="AS27" t="n">
-        <v>21.6737577691333</v>
+        <v>18.60652925835482</v>
       </c>
       <c r="AT27" t="n">
-        <v>23.47082562065345</v>
+        <v>51.24385643360705</v>
       </c>
       <c r="AU27" t="n">
-        <v>17.28673561010132</v>
+        <v>19.51212389514145</v>
       </c>
       <c r="AV27" t="n">
-        <v>26.30945061906687</v>
+        <v>28.47730363643526</v>
       </c>
       <c r="AW27" t="n">
-        <v>36.61643193559961</v>
+        <v>19.20552480805334</v>
       </c>
       <c r="AX27" t="n">
-        <v>21.37954097304186</v>
+        <v>14.91063979178763</v>
       </c>
     </row>
     <row r="28">
@@ -69758,148 +69758,148 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2.791015368448706</v>
+        <v>10.69923624039223</v>
       </c>
       <c r="D28" t="n">
-        <v>2.579764631100608</v>
+        <v>0.3179123838416289</v>
       </c>
       <c r="E28" t="n">
-        <v>4.212538001074274</v>
+        <v>1.128678082066966</v>
       </c>
       <c r="F28" t="n">
-        <v>3.10259940887258</v>
+        <v>0.5198617168186171</v>
       </c>
       <c r="G28" t="n">
-        <v>1.944874100719425</v>
+        <v>7.869030344741317</v>
       </c>
       <c r="H28" t="n">
-        <v>1.686578560939794</v>
+        <v>1.884135768926026</v>
       </c>
       <c r="I28" t="n">
-        <v>2.247067673362495</v>
+        <v>2.111548051851531</v>
       </c>
       <c r="J28" t="n">
-        <v>6.87455433712999</v>
+        <v>4.383215176083667</v>
       </c>
       <c r="K28" t="n">
-        <v>9.179916478239415</v>
+        <v>4.442020326560122</v>
       </c>
       <c r="L28" t="n">
-        <v>0.9433029491939365</v>
+        <v>0.8700496179507027</v>
       </c>
       <c r="M28" t="n">
-        <v>5.344180476771057</v>
+        <v>2.686229332930474</v>
       </c>
       <c r="N28" t="n">
-        <v>5.777554486319987</v>
+        <v>0.8533780205248469</v>
       </c>
       <c r="O28" t="n">
-        <v>5.188755545237359</v>
+        <v>3.29844137191547</v>
       </c>
       <c r="P28" t="n">
-        <v>5.558205103998763</v>
+        <v>5.166585646098164</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.17391435054287</v>
+        <v>2.377743655747546</v>
       </c>
       <c r="R28" t="n">
-        <v>6.478587517256412</v>
+        <v>4.191136242274788</v>
       </c>
       <c r="S28" t="n">
-        <v>1.831300130572654</v>
+        <v>3.90864231753386</v>
       </c>
       <c r="T28" t="n">
-        <v>7.128796224739793</v>
+        <v>3.058394821146709</v>
       </c>
       <c r="U28" t="n">
-        <v>5.731039144213063</v>
+        <v>5.018815872280721</v>
       </c>
       <c r="V28" t="n">
-        <v>3.166307680801735</v>
+        <v>4.743454415444742</v>
       </c>
       <c r="W28" t="n">
-        <v>4.00763293163025</v>
+        <v>3.129496152901239</v>
       </c>
       <c r="X28" t="n">
-        <v>9.100616645793357</v>
+        <v>4.683389117796049</v>
       </c>
       <c r="Y28" t="n">
-        <v>2.033863333355149</v>
+        <v>1.436337848505406</v>
       </c>
       <c r="Z28" t="n">
-        <v>10.02124191078397</v>
+        <v>3.476105746842422</v>
       </c>
       <c r="AA28" t="n">
-        <v>1.908501248725113</v>
+        <v>4.155646852963465</v>
       </c>
       <c r="AB28" t="n">
-        <v>2.319271264249571</v>
+        <v>3.566912952142239</v>
       </c>
       <c r="AC28" t="n">
-        <v>3.263685099507968</v>
+        <v>6.119828023651793</v>
       </c>
       <c r="AD28" t="n">
-        <v>2.896279346769896</v>
+        <v>6.441400493140029</v>
       </c>
       <c r="AE28" t="n">
-        <v>7.789470347984595</v>
+        <v>4.076773119108389</v>
       </c>
       <c r="AF28" t="n">
-        <v>2.30069507510132</v>
+        <v>8.051620249144339</v>
       </c>
       <c r="AG28" t="n">
-        <v>4.7053709011254</v>
+        <v>12.67700273211963</v>
       </c>
       <c r="AH28" t="n">
-        <v>4.040198476394726</v>
+        <v>5.999675215161533</v>
       </c>
       <c r="AI28" t="n">
-        <v>3.179011911629791</v>
+        <v>7.830074600877811</v>
       </c>
       <c r="AJ28" t="n">
-        <v>4.075928147185971</v>
+        <v>3.69063244128412</v>
       </c>
       <c r="AK28" t="n">
-        <v>5.502366106366258</v>
+        <v>6.080903331548194</v>
       </c>
       <c r="AL28" t="n">
-        <v>2.573581166626911</v>
+        <v>6.029643286943354</v>
       </c>
       <c r="AM28" t="n">
-        <v>4.083284004632608</v>
+        <v>3.287470372906852</v>
       </c>
       <c r="AN28" t="n">
-        <v>3.471450933655119</v>
+        <v>7.35875217380131</v>
       </c>
       <c r="AO28" t="n">
-        <v>3.637007723017381</v>
+        <v>3.266929509578289</v>
       </c>
       <c r="AP28" t="n">
-        <v>6.098854825348214</v>
+        <v>4.327447303488952</v>
       </c>
       <c r="AQ28" t="n">
-        <v>5.193952779888726</v>
+        <v>2.623931681859018</v>
       </c>
       <c r="AR28" t="n">
-        <v>3.475775891341256</v>
+        <v>5.430501909462221</v>
       </c>
       <c r="AS28" t="n">
-        <v>4.580811462500137</v>
+        <v>3.474770192372902</v>
       </c>
       <c r="AT28" t="n">
-        <v>5.255885784322247</v>
+        <v>2.293088659152464</v>
       </c>
       <c r="AU28" t="n">
-        <v>13.24231648463297</v>
+        <v>0.991231469688147</v>
       </c>
       <c r="AV28" t="n">
-        <v>1.918578097906563</v>
+        <v>1.665286182761255</v>
       </c>
       <c r="AW28" t="n">
-        <v>4.210630149822202</v>
+        <v>1.061139775014449</v>
       </c>
       <c r="AX28" t="n">
-        <v>4.693992965937964</v>
+        <v>0.4108224413864199</v>
       </c>
     </row>
     <row r="29">
@@ -69912,148 +69912,148 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5.24248445958057</v>
+        <v>14.16930630838674</v>
       </c>
       <c r="D29" t="n">
-        <v>8.781252490238257</v>
+        <v>20.01485940049344</v>
       </c>
       <c r="E29" t="n">
-        <v>15.53096247238173</v>
+        <v>31.66053719228908</v>
       </c>
       <c r="F29" t="n">
-        <v>14.16958274958884</v>
+        <v>15.60238693993519</v>
       </c>
       <c r="G29" t="n">
-        <v>15.83935493596418</v>
+        <v>6.143320306544396</v>
       </c>
       <c r="H29" t="n">
-        <v>6.317935206069306</v>
+        <v>20.59953896617951</v>
       </c>
       <c r="I29" t="n">
-        <v>32.89541977337571</v>
+        <v>15.04746256315116</v>
       </c>
       <c r="J29" t="n">
-        <v>127.1498756686104</v>
+        <v>4.545958068617667</v>
       </c>
       <c r="K29" t="n">
-        <v>98.55821252320368</v>
+        <v>31.47966117305764</v>
       </c>
       <c r="L29" t="n">
-        <v>50.4715998406619</v>
+        <v>139.5447778912547</v>
       </c>
       <c r="M29" t="n">
-        <v>12.47430084939264</v>
+        <v>38.37620523733395</v>
       </c>
       <c r="N29" t="n">
-        <v>30.68707475304274</v>
+        <v>75.12218800118593</v>
       </c>
       <c r="O29" t="n">
-        <v>49.65088383818395</v>
+        <v>94.17767332201926</v>
       </c>
       <c r="P29" t="n">
-        <v>87.19221989377399</v>
+        <v>16.43552318950049</v>
       </c>
       <c r="Q29" t="n">
-        <v>108.079597090145</v>
+        <v>135.8461232134709</v>
       </c>
       <c r="R29" t="n">
-        <v>98.07449847500001</v>
+        <v>127.7652961557736</v>
       </c>
       <c r="S29" t="n">
-        <v>48.25114551442116</v>
+        <v>40.35014368612472</v>
       </c>
       <c r="T29" t="n">
-        <v>96.36197582287615</v>
+        <v>75.64710935587087</v>
       </c>
       <c r="U29" t="n">
-        <v>48.86630561222069</v>
+        <v>56.51779354099141</v>
       </c>
       <c r="V29" t="n">
-        <v>153.9828487064975</v>
+        <v>79.12955347686369</v>
       </c>
       <c r="W29" t="n">
-        <v>168.4535078397076</v>
+        <v>109.4985480969763</v>
       </c>
       <c r="X29" t="n">
-        <v>55.62488608073807</v>
+        <v>33.52191804055251</v>
       </c>
       <c r="Y29" t="n">
-        <v>57.78094814838756</v>
+        <v>142.2101977729465</v>
       </c>
       <c r="Z29" t="n">
-        <v>102.4323774350281</v>
+        <v>48.22234169324472</v>
       </c>
       <c r="AA29" t="n">
-        <v>57.52422237637498</v>
+        <v>163.7084658817512</v>
       </c>
       <c r="AB29" t="n">
-        <v>43.83203554329366</v>
+        <v>74.32607862868481</v>
       </c>
       <c r="AC29" t="n">
-        <v>79.13722160023366</v>
+        <v>45.21879287148158</v>
       </c>
       <c r="AD29" t="n">
-        <v>86.11648459169085</v>
+        <v>105.6548120212641</v>
       </c>
       <c r="AE29" t="n">
-        <v>76.18367163435353</v>
+        <v>83.07653717415732</v>
       </c>
       <c r="AF29" t="n">
-        <v>50.90527800823908</v>
+        <v>58.1690810873549</v>
       </c>
       <c r="AG29" t="n">
-        <v>121.2612772099953</v>
+        <v>52.25645008089006</v>
       </c>
       <c r="AH29" t="n">
-        <v>116.2624274659456</v>
+        <v>36.91341212304287</v>
       </c>
       <c r="AI29" t="n">
-        <v>27.76956155010512</v>
+        <v>84.51639961953325</v>
       </c>
       <c r="AJ29" t="n">
-        <v>105.9589019693834</v>
+        <v>64.2007277422839</v>
       </c>
       <c r="AK29" t="n">
-        <v>14.60567503139979</v>
+        <v>27.45289358628967</v>
       </c>
       <c r="AL29" t="n">
-        <v>25.17513862639682</v>
+        <v>49.57454845188643</v>
       </c>
       <c r="AM29" t="n">
-        <v>61.17288857832195</v>
+        <v>17.06923050409922</v>
       </c>
       <c r="AN29" t="n">
-        <v>12.99981575232233</v>
+        <v>23.2580465335277</v>
       </c>
       <c r="AO29" t="n">
-        <v>13.77706523992847</v>
+        <v>15.88918848303331</v>
       </c>
       <c r="AP29" t="n">
-        <v>10.85300578985618</v>
+        <v>81.59696687928785</v>
       </c>
       <c r="AQ29" t="n">
-        <v>19.03497464573783</v>
+        <v>28.76602542402581</v>
       </c>
       <c r="AR29" t="n">
-        <v>14.05149249671367</v>
+        <v>19.95430066274687</v>
       </c>
       <c r="AS29" t="n">
-        <v>16.56217481586004</v>
+        <v>11.59805969505495</v>
       </c>
       <c r="AT29" t="n">
-        <v>15.7054212704353</v>
+        <v>10.97103977184406</v>
       </c>
       <c r="AU29" t="n">
-        <v>4.726802791418972</v>
+        <v>9.143400457741043</v>
       </c>
       <c r="AV29" t="n">
-        <v>10.49263753503903</v>
+        <v>13.35123374415469</v>
       </c>
       <c r="AW29" t="n">
-        <v>12.34676602109582</v>
+        <v>4.454501315074496</v>
       </c>
       <c r="AX29" t="n">
-        <v>9.680817533393853</v>
+        <v>6.659031145558678</v>
       </c>
     </row>
     <row r="30">
@@ -70066,148 +70066,148 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>14.78062212592492</v>
+        <v>6.69568825239367</v>
       </c>
       <c r="D30" t="n">
-        <v>14.22076989856367</v>
+        <v>11.15582001607356</v>
       </c>
       <c r="E30" t="n">
-        <v>20.55091971358258</v>
+        <v>60.45547718258326</v>
       </c>
       <c r="F30" t="n">
-        <v>8.133878382166518</v>
+        <v>9.012867444744421</v>
       </c>
       <c r="G30" t="n">
-        <v>18.81624669358896</v>
+        <v>1.772170189550079</v>
       </c>
       <c r="H30" t="n">
-        <v>41.91340203813859</v>
+        <v>67.14059876105635</v>
       </c>
       <c r="I30" t="n">
-        <v>18.09908996731014</v>
+        <v>351.9532713449123</v>
       </c>
       <c r="J30" t="n">
-        <v>20.5264906540526</v>
+        <v>51.26101089724157</v>
       </c>
       <c r="K30" t="n">
-        <v>18.00987488469325</v>
+        <v>6.047314985768903</v>
       </c>
       <c r="L30" t="n">
-        <v>78.14235467790004</v>
+        <v>9.595082030727554</v>
       </c>
       <c r="M30" t="n">
-        <v>40.6958661586764</v>
+        <v>19.60192158311368</v>
       </c>
       <c r="N30" t="n">
-        <v>56.30931710223481</v>
+        <v>39.11204720545299</v>
       </c>
       <c r="O30" t="n">
-        <v>9.130463598225495</v>
+        <v>137.2732149625058</v>
       </c>
       <c r="P30" t="n">
-        <v>18.62737386519449</v>
+        <v>90.35844619187685</v>
       </c>
       <c r="Q30" t="n">
-        <v>27.00933639659409</v>
+        <v>40.91073503778371</v>
       </c>
       <c r="R30" t="n">
-        <v>52.65733863624248</v>
+        <v>38.97841746435873</v>
       </c>
       <c r="S30" t="n">
-        <v>25.82140328788407</v>
+        <v>102.4938318099737</v>
       </c>
       <c r="T30" t="n">
-        <v>46.58633058442337</v>
+        <v>26.12121246126162</v>
       </c>
       <c r="U30" t="n">
-        <v>93.62974968121007</v>
+        <v>35.49512895387561</v>
       </c>
       <c r="V30" t="n">
-        <v>42.81653318498184</v>
+        <v>135.1230969075633</v>
       </c>
       <c r="W30" t="n">
-        <v>18.82368869339785</v>
+        <v>41.55626867327963</v>
       </c>
       <c r="X30" t="n">
-        <v>50.59211407480664</v>
+        <v>189.1936704650974</v>
       </c>
       <c r="Y30" t="n">
-        <v>45.42875498551574</v>
+        <v>39.31456453872012</v>
       </c>
       <c r="Z30" t="n">
-        <v>25.34077836735726</v>
+        <v>36.99071099573509</v>
       </c>
       <c r="AA30" t="n">
-        <v>68.64025282182841</v>
+        <v>68.6490741333504</v>
       </c>
       <c r="AB30" t="n">
-        <v>50.61824238978009</v>
+        <v>46.39040593124246</v>
       </c>
       <c r="AC30" t="n">
-        <v>42.48846823346293</v>
+        <v>81.30867513376148</v>
       </c>
       <c r="AD30" t="n">
-        <v>30.39063999031343</v>
+        <v>17.01732449563962</v>
       </c>
       <c r="AE30" t="n">
-        <v>3.881716947096951</v>
+        <v>12.93949700802968</v>
       </c>
       <c r="AF30" t="n">
-        <v>31.17787376480987</v>
+        <v>40.82927216224508</v>
       </c>
       <c r="AG30" t="n">
-        <v>13.48075087692014</v>
+        <v>32.12932351626853</v>
       </c>
       <c r="AH30" t="n">
-        <v>57.85395692763817</v>
+        <v>52.48343137599687</v>
       </c>
       <c r="AI30" t="n">
-        <v>33.98820623311118</v>
+        <v>74.86433659303896</v>
       </c>
       <c r="AJ30" t="n">
-        <v>1.512738711405736</v>
+        <v>12.62727483086842</v>
       </c>
       <c r="AK30" t="n">
-        <v>22.09737945436895</v>
+        <v>4.972486204871897</v>
       </c>
       <c r="AL30" t="n">
-        <v>6.118899567639391</v>
+        <v>21.92914080789397</v>
       </c>
       <c r="AM30" t="n">
-        <v>51.54303343564156</v>
+        <v>91.92640149120616</v>
       </c>
       <c r="AN30" t="n">
-        <v>29.81328908184361</v>
+        <v>63.96096994073385</v>
       </c>
       <c r="AO30" t="n">
-        <v>35.68442524825797</v>
+        <v>18.21132727664583</v>
       </c>
       <c r="AP30" t="n">
-        <v>30.51332841169548</v>
+        <v>33.46124621892621</v>
       </c>
       <c r="AQ30" t="n">
-        <v>21.13797607280515</v>
+        <v>70.81363060878793</v>
       </c>
       <c r="AR30" t="n">
-        <v>28.18229672772529</v>
+        <v>38.3466733000627</v>
       </c>
       <c r="AS30" t="n">
-        <v>24.29485566671087</v>
+        <v>33.4890050084846</v>
       </c>
       <c r="AT30" t="n">
-        <v>42.26212490646358</v>
+        <v>29.49830092962646</v>
       </c>
       <c r="AU30" t="n">
-        <v>11.78631290103426</v>
+        <v>25.87986943504111</v>
       </c>
       <c r="AV30" t="n">
-        <v>21.99024669692058</v>
+        <v>8.237819929186681</v>
       </c>
       <c r="AW30" t="n">
-        <v>10.37663908904677</v>
+        <v>14.3505066549682</v>
       </c>
       <c r="AX30" t="n">
-        <v>0</v>
+        <v>29.24409685785962</v>
       </c>
     </row>
     <row r="31">
@@ -70220,148 +70220,148 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5.692889029696916</v>
+        <v>6.933454148182239</v>
       </c>
       <c r="D31" t="n">
-        <v>4.726792092920956</v>
+        <v>0.4356502638694303</v>
       </c>
       <c r="E31" t="n">
-        <v>19.97670871031493</v>
+        <v>1.936434651114074</v>
       </c>
       <c r="F31" t="n">
-        <v>1.893588158823162</v>
+        <v>2.147670310056092</v>
       </c>
       <c r="G31" t="n">
-        <v>56.56078839886536</v>
+        <v>8.355016551518309</v>
       </c>
       <c r="H31" t="n">
-        <v>10.75617172717107</v>
+        <v>1.176633867831177</v>
       </c>
       <c r="I31" t="n">
-        <v>13.85126474566167</v>
+        <v>32.23174290360085</v>
       </c>
       <c r="J31" t="n">
-        <v>19.5199789828312</v>
+        <v>16.46558762831825</v>
       </c>
       <c r="K31" t="n">
-        <v>22.68493661132864</v>
+        <v>6.52808412570616</v>
       </c>
       <c r="L31" t="n">
-        <v>8.452124999999999</v>
+        <v>23.90140953451604</v>
       </c>
       <c r="M31" t="n">
-        <v>9.295579158063266</v>
+        <v>9.05763976368598</v>
       </c>
       <c r="N31" t="n">
-        <v>5.471047220786851</v>
+        <v>4.686007383383348</v>
       </c>
       <c r="O31" t="n">
-        <v>15.70853361973599</v>
+        <v>11.38049109241813</v>
       </c>
       <c r="P31" t="n">
-        <v>77.34546788287111</v>
+        <v>29.99651544948575</v>
       </c>
       <c r="Q31" t="n">
-        <v>13.24700381469347</v>
+        <v>15.5175449857141</v>
       </c>
       <c r="R31" t="n">
-        <v>26.49375</v>
+        <v>26.60591408950267</v>
       </c>
       <c r="S31" t="n">
-        <v>56.632178849939</v>
+        <v>17.79471334160843</v>
       </c>
       <c r="T31" t="n">
-        <v>30.0223889868489</v>
+        <v>14.04388440465976</v>
       </c>
       <c r="U31" t="n">
-        <v>11.40932880552927</v>
+        <v>29.39285818424556</v>
       </c>
       <c r="V31" t="n">
-        <v>15.4216003134395</v>
+        <v>8.190994528824513</v>
       </c>
       <c r="W31" t="n">
-        <v>23.3327645398834</v>
+        <v>24.29937721879291</v>
       </c>
       <c r="X31" t="n">
-        <v>90.84401877484888</v>
+        <v>21.20928198191368</v>
       </c>
       <c r="Y31" t="n">
-        <v>13.48242903592962</v>
+        <v>20.58665454462933</v>
       </c>
       <c r="Z31" t="n">
-        <v>27.43647571955113</v>
+        <v>11.02579963184119</v>
       </c>
       <c r="AA31" t="n">
-        <v>12.51440464834774</v>
+        <v>14.9691284701827</v>
       </c>
       <c r="AB31" t="n">
-        <v>25.975</v>
+        <v>23.05295438124072</v>
       </c>
       <c r="AC31" t="n">
-        <v>20.17201726159252</v>
+        <v>32.21197898686539</v>
       </c>
       <c r="AD31" t="n">
-        <v>49.87712399306888</v>
+        <v>19.82374382597112</v>
       </c>
       <c r="AE31" t="n">
-        <v>16.41092571428571</v>
+        <v>17.97577860533027</v>
       </c>
       <c r="AF31" t="n">
-        <v>16.752055</v>
+        <v>12.97949776376673</v>
       </c>
       <c r="AG31" t="n">
-        <v>23.42234810603558</v>
+        <v>5.165162614434595</v>
       </c>
       <c r="AH31" t="n">
-        <v>11.76008985890885</v>
+        <v>5.089578227396726</v>
       </c>
       <c r="AI31" t="n">
-        <v>9.096402495960922</v>
+        <v>28.8526835342134</v>
       </c>
       <c r="AJ31" t="n">
-        <v>11.3696561402882</v>
+        <v>4.884775206207054</v>
       </c>
       <c r="AK31" t="n">
-        <v>14.93252472124966</v>
+        <v>9.29874437903494</v>
       </c>
       <c r="AL31" t="n">
-        <v>24.3716160416801</v>
+        <v>2.395736131215806</v>
       </c>
       <c r="AM31" t="n">
-        <v>4.060832038010012</v>
+        <v>2.978111382410823</v>
       </c>
       <c r="AN31" t="n">
-        <v>5.259469082230147</v>
+        <v>9.05264855548786</v>
       </c>
       <c r="AO31" t="n">
-        <v>4.85478409811211</v>
+        <v>4.013439068875146</v>
       </c>
       <c r="AP31" t="n">
-        <v>1.800321993066573</v>
+        <v>5.412878251868064</v>
       </c>
       <c r="AQ31" t="n">
-        <v>9.167142857142855</v>
+        <v>1.122886144699472</v>
       </c>
       <c r="AR31" t="n">
-        <v>4.557539300539235</v>
+        <v>2.881787852088037</v>
       </c>
       <c r="AS31" t="n">
-        <v>0.7759679458661769</v>
+        <v>1.582482257081919</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.908308265292157</v>
+        <v>2.99207173918547</v>
       </c>
       <c r="AU31" t="n">
-        <v>0.800838758442445</v>
+        <v>8.178864348916699</v>
       </c>
       <c r="AV31" t="n">
-        <v>2.337674032615411</v>
+        <v>0.7704979422916958</v>
       </c>
       <c r="AW31" t="n">
-        <v>5.370066219990751</v>
+        <v>3.763418076297452</v>
       </c>
       <c r="AX31" t="n">
-        <v>4.108835947620231</v>
+        <v>3.255560133513251</v>
       </c>
     </row>
     <row r="32">
@@ -70374,148 +70374,148 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>29.66</v>
+        <v>4.120125478318593</v>
       </c>
       <c r="D32" t="n">
-        <v>34.46</v>
+        <v>19.88655576711782</v>
       </c>
       <c r="E32" t="n">
-        <v>5.63</v>
+        <v>2.740384199609378</v>
       </c>
       <c r="F32" t="n">
-        <v>21.38</v>
+        <v>12.96901357069583</v>
       </c>
       <c r="G32" t="n">
-        <v>8.65</v>
+        <v>109.3294399089506</v>
       </c>
       <c r="H32" t="n">
-        <v>1.77</v>
+        <v>23.10806842870045</v>
       </c>
       <c r="I32" t="n">
-        <v>2.48</v>
+        <v>125.291342082849</v>
       </c>
       <c r="J32" t="n">
-        <v>14.97</v>
+        <v>4.715708155925904</v>
       </c>
       <c r="K32" t="n">
-        <v>12.47</v>
+        <v>74.70687763581863</v>
       </c>
       <c r="L32" t="n">
-        <v>33.7</v>
+        <v>7.40846253171238</v>
       </c>
       <c r="M32" t="n">
-        <v>29.07</v>
+        <v>4.761074424999624</v>
       </c>
       <c r="N32" t="n">
-        <v>97.33</v>
+        <v>37.0237661466262</v>
       </c>
       <c r="O32" t="n">
-        <v>30.73</v>
+        <v>54.78125910039337</v>
       </c>
       <c r="P32" t="n">
-        <v>94.81</v>
+        <v>3.829965807643891</v>
       </c>
       <c r="Q32" t="n">
-        <v>32.65</v>
+        <v>24.17045512977071</v>
       </c>
       <c r="R32" t="n">
-        <v>2.712317753001716</v>
+        <v>11.93858905455213</v>
       </c>
       <c r="S32" t="n">
-        <v>1.58</v>
+        <v>16.71412571069745</v>
       </c>
       <c r="T32" t="n">
-        <v>27.61</v>
+        <v>3.516144064060709</v>
       </c>
       <c r="U32" t="n">
-        <v>19.87678424999999</v>
+        <v>87.16674478037834</v>
       </c>
       <c r="V32" t="n">
-        <v>32.13</v>
+        <v>18.69398063732627</v>
       </c>
       <c r="W32" t="n">
-        <v>21.37</v>
+        <v>9.584939968980125</v>
       </c>
       <c r="X32" t="n">
-        <v>2.42</v>
+        <v>6.196895841697621</v>
       </c>
       <c r="Y32" t="n">
-        <v>6.87</v>
+        <v>74.97977281656314</v>
       </c>
       <c r="Z32" t="n">
-        <v>4.27</v>
+        <v>33.64440753170381</v>
       </c>
       <c r="AA32" t="n">
-        <v>10.26</v>
+        <v>38.25864827852874</v>
       </c>
       <c r="AB32" t="n">
-        <v>1.61</v>
+        <v>22.70466923658722</v>
       </c>
       <c r="AC32" t="n">
-        <v>5.55</v>
+        <v>5.401434821127155</v>
       </c>
       <c r="AD32" t="n">
-        <v>9.630000000000001</v>
+        <v>4.769800310965151</v>
       </c>
       <c r="AE32" t="n">
-        <v>4.79</v>
+        <v>8.598480981026581</v>
       </c>
       <c r="AF32" t="n">
-        <v>2.37</v>
+        <v>33.38330071115143</v>
       </c>
       <c r="AG32" t="n">
-        <v>3.790083827999999</v>
+        <v>5.509849398006464</v>
       </c>
       <c r="AH32" t="n">
-        <v>16.16</v>
+        <v>8.902786453478452</v>
       </c>
       <c r="AI32" t="n">
-        <v>1</v>
+        <v>8.534337448486026</v>
       </c>
       <c r="AJ32" t="n">
-        <v>11.14</v>
+        <v>2.960066247028958</v>
       </c>
       <c r="AK32" t="n">
-        <v>1.16</v>
+        <v>19.88214011343058</v>
       </c>
       <c r="AL32" t="n">
-        <v>1</v>
+        <v>6.067740344918306</v>
       </c>
       <c r="AM32" t="n">
-        <v>20.48</v>
+        <v>0.1204403025582053</v>
       </c>
       <c r="AN32" t="n">
-        <v>8.74</v>
+        <v>106.5719845903097</v>
       </c>
       <c r="AO32" t="n">
-        <v>1.12</v>
+        <v>12.33911294877207</v>
       </c>
       <c r="AP32" t="n">
-        <v>1.94</v>
+        <v>2.510617386356349</v>
       </c>
       <c r="AQ32" t="n">
-        <v>26.31</v>
+        <v>22.98921281236259</v>
       </c>
       <c r="AR32" t="n">
-        <v>1.39</v>
+        <v>13.29012368206578</v>
       </c>
       <c r="AS32" t="n">
-        <v>11.84</v>
+        <v>4.612711506845478</v>
       </c>
       <c r="AT32" t="n">
-        <v>3.94</v>
+        <v>3.147684442649305</v>
       </c>
       <c r="AU32" t="n">
-        <v>10.96</v>
+        <v>0.7749508293402169</v>
       </c>
       <c r="AV32" t="n">
-        <v>1.93</v>
+        <v>11.88962490940515</v>
       </c>
       <c r="AW32" t="n">
-        <v>6.37</v>
+        <v>5.709642779273855</v>
       </c>
       <c r="AX32" t="n">
-        <v>12.2375</v>
+        <v>7.51031311029829</v>
       </c>
     </row>
   </sheetData>
